--- a/other/配置表/l-轮回配置表.xlsx
+++ b/other/配置表/l-轮回配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>id</t>
   </si>
@@ -184,10 +184,10 @@
     <t>sort</t>
   </si>
   <si>
-    <t>轮回技能1</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>强攻</t>
+  </si>
+  <si>
+    <t>samsara_01</t>
   </si>
   <si>
     <t>100,</t>
@@ -220,13 +220,19 @@
     <t>90,</t>
   </si>
   <si>
-    <t>轮回技能2</t>
+    <t>坚壁</t>
+  </si>
+  <si>
+    <t>samsara_02</t>
   </si>
   <si>
     <t>101,</t>
   </si>
   <si>
-    <t>轮回技能3</t>
+    <t>活力</t>
+  </si>
+  <si>
+    <t>samsara_03</t>
   </si>
   <si>
     <t>102,</t>
@@ -252,7 +258,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +311,21 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -283,38 +349,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,26 +369,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,29 +400,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -404,187 +410,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,11 +604,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,21 +677,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -680,21 +701,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -703,10 +709,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,133 +721,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1202,12 +1208,14 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1505,13 +1513,13 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1531,13 +1539,13 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1557,13 +1565,13 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1583,13 +1591,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1609,13 +1617,13 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -1635,13 +1643,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -1661,13 +1669,13 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1687,13 +1695,13 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -1713,13 +1721,13 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -1739,13 +1747,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1762,16 +1770,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1788,16 +1796,16 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1814,16 +1822,16 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1840,16 +1848,16 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -1866,16 +1874,16 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -1892,16 +1900,16 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -1918,16 +1926,16 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -1944,16 +1952,16 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -1970,16 +1978,16 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
@@ -1996,16 +2004,16 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D31">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>

--- a/other/配置表/l-轮回配置表.xlsx
+++ b/other/配置表/l-轮回配置表.xlsx
@@ -1,33 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48203\Desktop\大魔王\配置表(2)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{91B7257A-13C9-4B81-B4F0-CD12996553FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="9210" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>id</t>
   </si>
@@ -190,25 +184,25 @@
     <t>sort</t>
   </si>
   <si>
+    <t>猛击</t>
+  </si>
+  <si>
     <t>samsara_01</t>
   </si>
   <si>
     <t>100,</t>
   </si>
   <si>
+    <t>重甲</t>
+  </si>
+  <si>
     <t>101,</t>
   </si>
   <si>
-    <t>102,</t>
+    <t>强体</t>
   </si>
   <si>
-    <t>猛击</t>
-  </si>
-  <si>
-    <t>重甲</t>
-  </si>
-  <si>
-    <t>强体</t>
+    <t>102,</t>
   </si>
   <si>
     <t>会心</t>
@@ -244,8 +238,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,32 +255,344 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -288,9 +600,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -302,17 +856,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -599,19 +1197,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H401"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection sqref="A1:H401"/>
+      <selection activeCell="A1" sqref="A1:H401"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
@@ -619,7 +1217,7 @@
     <col min="8" max="8" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,21 +1243,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -671,21 +1269,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -697,21 +1295,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -723,21 +1321,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -749,21 +1347,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -775,21 +1373,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -801,21 +1399,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>14</v>
@@ -827,21 +1425,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>16</v>
@@ -853,21 +1451,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>18</v>
@@ -879,21 +1477,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -905,21 +1503,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>22</v>
@@ -931,21 +1529,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>24</v>
@@ -957,21 +1555,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>26</v>
@@ -983,21 +1581,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>28</v>
@@ -1009,21 +1607,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -1035,21 +1633,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>32</v>
@@ -1061,21 +1659,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>34</v>
@@ -1087,21 +1685,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <v>36</v>
@@ -1113,21 +1711,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>38</v>
@@ -1139,21 +1737,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <v>40</v>
@@ -1165,21 +1763,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>42</v>
@@ -1191,21 +1789,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23">
         <v>44</v>
@@ -1217,21 +1815,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>46</v>
@@ -1243,21 +1841,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>48</v>
@@ -1269,21 +1867,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>50</v>
@@ -1295,21 +1893,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>52</v>
@@ -1321,21 +1919,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28">
         <v>54</v>
@@ -1347,21 +1945,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29">
         <v>56</v>
@@ -1373,21 +1971,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>58</v>
@@ -1399,21 +1997,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>60</v>
@@ -1425,21 +2023,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32">
         <v>62</v>
@@ -1451,21 +2049,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F33">
         <v>64</v>
@@ -1477,21 +2075,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <v>66</v>
@@ -1503,21 +2101,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <v>68</v>
@@ -1529,21 +2127,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F36">
         <v>70</v>
@@ -1555,21 +2153,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <v>72</v>
@@ -1581,21 +2179,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38">
         <v>74</v>
@@ -1607,21 +2205,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39">
         <v>76</v>
@@ -1633,21 +2231,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F40">
         <v>78</v>
@@ -1659,21 +2257,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F41">
         <v>80</v>
@@ -1685,21 +2283,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F42">
         <v>82</v>
@@ -1711,21 +2309,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F43">
         <v>84</v>
@@ -1737,21 +2335,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F44">
         <v>86</v>
@@ -1763,21 +2361,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F45">
         <v>88</v>
@@ -1789,21 +2387,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F46">
         <v>90</v>
@@ -1815,21 +2413,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F47">
         <v>92</v>
@@ -1841,21 +2439,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F48">
         <v>94</v>
@@ -1867,21 +2465,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F49">
         <v>96</v>
@@ -1893,21 +2491,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F50">
         <v>98</v>
@@ -1919,21 +2517,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F51">
         <v>100</v>
@@ -1945,21 +2543,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -1971,21 +2569,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -1997,21 +2595,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -2023,21 +2621,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55">
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F55">
         <v>8</v>
@@ -2049,21 +2647,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56">
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F56">
         <v>10</v>
@@ -2075,21 +2673,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57">
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F57">
         <v>12</v>
@@ -2101,21 +2699,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F58">
         <v>14</v>
@@ -2127,21 +2725,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59">
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F59">
         <v>16</v>
@@ -2153,21 +2751,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60">
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F60">
         <v>18</v>
@@ -2179,21 +2777,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F61">
         <v>20</v>
@@ -2205,21 +2803,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62">
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F62">
         <v>22</v>
@@ -2231,21 +2829,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63">
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F63">
         <v>24</v>
@@ -2257,21 +2855,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64">
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F64">
         <v>26</v>
@@ -2283,21 +2881,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65">
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -2309,21 +2907,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66">
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F66">
         <v>30</v>
@@ -2335,21 +2933,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67">
         <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F67">
         <v>32</v>
@@ -2361,21 +2959,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68">
         <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F68">
         <v>34</v>
@@ -2387,21 +2985,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69">
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F69">
         <v>36</v>
@@ -2413,21 +3011,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70">
         <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F70">
         <v>38</v>
@@ -2439,21 +3037,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71">
         <v>20</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F71">
         <v>40</v>
@@ -2465,21 +3063,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72">
         <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F72">
         <v>42</v>
@@ -2491,21 +3089,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73">
         <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F73">
         <v>44</v>
@@ -2517,21 +3115,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74">
         <v>23</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F74">
         <v>46</v>
@@ -2543,21 +3141,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75">
         <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F75">
         <v>48</v>
@@ -2569,21 +3167,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76">
         <v>25</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F76">
         <v>50</v>
@@ -2595,21 +3193,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77">
         <v>26</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F77">
         <v>52</v>
@@ -2621,21 +3219,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78">
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F78">
         <v>54</v>
@@ -2647,21 +3245,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79">
         <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F79">
         <v>56</v>
@@ -2673,21 +3271,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80">
         <v>29</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F80">
         <v>58</v>
@@ -2699,21 +3297,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81">
         <v>30</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F81">
         <v>60</v>
@@ -2725,21 +3323,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82">
         <v>31</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F82">
         <v>62</v>
@@ -2751,21 +3349,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83">
         <v>32</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F83">
         <v>64</v>
@@ -2777,21 +3375,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84">
         <v>33</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F84">
         <v>66</v>
@@ -2803,21 +3401,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85">
         <v>34</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F85">
         <v>68</v>
@@ -2829,21 +3427,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86">
         <v>35</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F86">
         <v>70</v>
@@ -2855,21 +3453,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87">
         <v>36</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F87">
         <v>72</v>
@@ -2881,21 +3479,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88">
         <v>37</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F88">
         <v>74</v>
@@ -2907,21 +3505,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89">
         <v>38</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F89">
         <v>76</v>
@@ -2933,21 +3531,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90">
         <v>39</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F90">
         <v>78</v>
@@ -2959,21 +3557,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91">
         <v>40</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F91">
         <v>80</v>
@@ -2985,21 +3583,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92">
         <v>41</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F92">
         <v>82</v>
@@ -3011,21 +3609,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93">
         <v>42</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F93">
         <v>84</v>
@@ -3037,21 +3635,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94">
         <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F94">
         <v>86</v>
@@ -3063,21 +3661,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95">
         <v>44</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F95">
         <v>88</v>
@@ -3089,21 +3687,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96">
         <v>45</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F96">
         <v>90</v>
@@ -3115,21 +3713,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97">
         <v>46</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F97">
         <v>92</v>
@@ -3141,21 +3739,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98">
         <v>47</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F98">
         <v>94</v>
@@ -3167,21 +3765,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99">
         <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F99">
         <v>96</v>
@@ -3193,21 +3791,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100">
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F100">
         <v>98</v>
@@ -3219,21 +3817,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101">
         <v>50</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F101">
         <v>100</v>
@@ -3245,21 +3843,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F102">
         <v>20</v>
@@ -3271,21 +3869,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103">
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F103">
         <v>40</v>
@@ -3297,21 +3895,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F104">
         <v>60</v>
@@ -3323,21 +3921,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105">
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F105">
         <v>80</v>
@@ -3349,21 +3947,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106">
         <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F106">
         <v>100</v>
@@ -3375,21 +3973,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107">
         <v>6</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F107">
         <v>120</v>
@@ -3401,21 +3999,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F108">
         <v>140</v>
@@ -3427,21 +4025,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>3</v>
       </c>
       <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
         <v>14</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109">
-        <v>8</v>
-      </c>
-      <c r="E109" t="s">
-        <v>11</v>
       </c>
       <c r="F109">
         <v>160</v>
@@ -3453,21 +4051,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>3</v>
       </c>
       <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
         <v>14</v>
-      </c>
-      <c r="C110" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110">
-        <v>9</v>
-      </c>
-      <c r="E110" t="s">
-        <v>11</v>
       </c>
       <c r="F110">
         <v>180</v>
@@ -3479,21 +4077,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111">
         <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F111">
         <v>200</v>
@@ -3505,21 +4103,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112">
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F112">
         <v>220</v>
@@ -3531,21 +4129,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113">
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F113">
         <v>240</v>
@@ -3557,21 +4155,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114">
         <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F114">
         <v>260</v>
@@ -3583,21 +4181,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115">
         <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F115">
         <v>280</v>
@@ -3609,21 +4207,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116">
         <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F116">
         <v>300</v>
@@ -3635,21 +4233,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117">
         <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F117">
         <v>320</v>
@@ -3661,21 +4259,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118">
         <v>17</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F118">
         <v>340</v>
@@ -3687,21 +4285,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119">
         <v>18</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F119">
         <v>360</v>
@@ -3713,21 +4311,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120">
         <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F120">
         <v>380</v>
@@ -3739,21 +4337,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121">
         <v>20</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F121">
         <v>400</v>
@@ -3765,21 +4363,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122">
         <v>21</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F122">
         <v>420</v>
@@ -3791,21 +4389,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123">
         <v>22</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F123">
         <v>440</v>
@@ -3817,21 +4415,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124">
         <v>23</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F124">
         <v>460</v>
@@ -3843,21 +4441,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125">
         <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F125">
         <v>480</v>
@@ -3869,21 +4467,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126">
         <v>25</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F126">
         <v>500</v>
@@ -3895,21 +4493,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127">
         <v>26</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F127">
         <v>520</v>
@@ -3921,21 +4519,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128">
         <v>27</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F128">
         <v>540</v>
@@ -3947,21 +4545,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129">
         <v>28</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F129">
         <v>560</v>
@@ -3973,21 +4571,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130">
         <v>29</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F130">
         <v>580</v>
@@ -3999,21 +4597,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131">
         <v>30</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F131">
         <v>600</v>
@@ -4025,21 +4623,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132">
         <v>31</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F132">
         <v>620</v>
@@ -4051,21 +4649,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133">
         <v>32</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F133">
         <v>640</v>
@@ -4077,21 +4675,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134">
         <v>33</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F134">
         <v>660</v>
@@ -4103,21 +4701,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135">
         <v>34</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F135">
         <v>680</v>
@@ -4129,21 +4727,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136">
         <v>35</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F136">
         <v>700</v>
@@ -4155,21 +4753,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137">
         <v>36</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F137">
         <v>720</v>
@@ -4181,21 +4779,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138">
         <v>37</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F138">
         <v>740</v>
@@ -4207,21 +4805,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139">
         <v>38</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F139">
         <v>760</v>
@@ -4233,21 +4831,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140">
         <v>39</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F140">
         <v>780</v>
@@ -4259,21 +4857,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141">
         <v>40</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F141">
         <v>800</v>
@@ -4285,21 +4883,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142">
         <v>41</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F142">
         <v>820</v>
@@ -4311,21 +4909,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143">
         <v>42</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F143">
         <v>840</v>
@@ -4337,21 +4935,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144">
         <v>43</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F144">
         <v>860</v>
@@ -4363,21 +4961,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145">
         <v>44</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F145">
         <v>880</v>
@@ -4389,21 +4987,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146">
         <v>45</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F146">
         <v>900</v>
@@ -4415,21 +5013,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147">
         <v>46</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F147">
         <v>920</v>
@@ -4441,21 +5039,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148">
         <v>47</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F148">
         <v>940</v>
@@ -4467,21 +5065,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149">
         <v>48</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F149">
         <v>960</v>
@@ -4493,21 +5091,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150">
         <v>49</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F150">
         <v>980</v>
@@ -4519,21 +5117,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151">
         <v>50</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F151">
         <v>1000</v>
@@ -4545,7 +5143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>4</v>
       </c>
@@ -4553,7 +5151,7 @@
         <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -4571,7 +5169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>4</v>
       </c>
@@ -4579,7 +5177,7 @@
         <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -4597,7 +5195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>4</v>
       </c>
@@ -4605,7 +5203,7 @@
         <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -4623,7 +5221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>4</v>
       </c>
@@ -4631,7 +5229,7 @@
         <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155">
         <v>4</v>
@@ -4649,7 +5247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>4</v>
       </c>
@@ -4657,7 +5255,7 @@
         <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156">
         <v>5</v>
@@ -4675,7 +5273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>4</v>
       </c>
@@ -4683,7 +5281,7 @@
         <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157">
         <v>6</v>
@@ -4701,7 +5299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>4</v>
       </c>
@@ -4709,7 +5307,7 @@
         <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158">
         <v>7</v>
@@ -4727,7 +5325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>4</v>
       </c>
@@ -4735,7 +5333,7 @@
         <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159">
         <v>8</v>
@@ -4753,7 +5351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>4</v>
       </c>
@@ -4761,7 +5359,7 @@
         <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160">
         <v>9</v>
@@ -4779,7 +5377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>4</v>
       </c>
@@ -4787,7 +5385,7 @@
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161">
         <v>10</v>
@@ -4805,7 +5403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>4</v>
       </c>
@@ -4813,7 +5411,7 @@
         <v>15</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162">
         <v>11</v>
@@ -4831,7 +5429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>4</v>
       </c>
@@ -4839,7 +5437,7 @@
         <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163">
         <v>12</v>
@@ -4857,7 +5455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>4</v>
       </c>
@@ -4865,7 +5463,7 @@
         <v>15</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164">
         <v>13</v>
@@ -4883,7 +5481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>4</v>
       </c>
@@ -4891,7 +5489,7 @@
         <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165">
         <v>14</v>
@@ -4909,7 +5507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>4</v>
       </c>
@@ -4917,7 +5515,7 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166">
         <v>15</v>
@@ -4935,7 +5533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>4</v>
       </c>
@@ -4943,7 +5541,7 @@
         <v>15</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167">
         <v>16</v>
@@ -4961,7 +5559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>4</v>
       </c>
@@ -4969,7 +5567,7 @@
         <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168">
         <v>17</v>
@@ -4987,7 +5585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>4</v>
       </c>
@@ -4995,7 +5593,7 @@
         <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169">
         <v>18</v>
@@ -5013,7 +5611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>4</v>
       </c>
@@ -5021,7 +5619,7 @@
         <v>15</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170">
         <v>19</v>
@@ -5039,7 +5637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>4</v>
       </c>
@@ -5047,7 +5645,7 @@
         <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171">
         <v>20</v>
@@ -5065,7 +5663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>4</v>
       </c>
@@ -5073,7 +5671,7 @@
         <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172">
         <v>21</v>
@@ -5091,7 +5689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>4</v>
       </c>
@@ -5099,7 +5697,7 @@
         <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173">
         <v>22</v>
@@ -5117,7 +5715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>4</v>
       </c>
@@ -5125,7 +5723,7 @@
         <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174">
         <v>23</v>
@@ -5143,7 +5741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>4</v>
       </c>
@@ -5151,7 +5749,7 @@
         <v>15</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175">
         <v>24</v>
@@ -5169,7 +5767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>4</v>
       </c>
@@ -5177,7 +5775,7 @@
         <v>15</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176">
         <v>25</v>
@@ -5195,7 +5793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>4</v>
       </c>
@@ -5203,7 +5801,7 @@
         <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177">
         <v>26</v>
@@ -5221,7 +5819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>4</v>
       </c>
@@ -5229,7 +5827,7 @@
         <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178">
         <v>27</v>
@@ -5247,7 +5845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>4</v>
       </c>
@@ -5255,7 +5853,7 @@
         <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179">
         <v>28</v>
@@ -5273,7 +5871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>4</v>
       </c>
@@ -5281,7 +5879,7 @@
         <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180">
         <v>29</v>
@@ -5299,7 +5897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>4</v>
       </c>
@@ -5307,7 +5905,7 @@
         <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181">
         <v>30</v>
@@ -5325,7 +5923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>4</v>
       </c>
@@ -5333,7 +5931,7 @@
         <v>15</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182">
         <v>31</v>
@@ -5351,7 +5949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>4</v>
       </c>
@@ -5359,7 +5957,7 @@
         <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183">
         <v>32</v>
@@ -5377,7 +5975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>4</v>
       </c>
@@ -5385,7 +5983,7 @@
         <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184">
         <v>33</v>
@@ -5403,7 +6001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>4</v>
       </c>
@@ -5411,7 +6009,7 @@
         <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185">
         <v>34</v>
@@ -5429,7 +6027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>4</v>
       </c>
@@ -5437,7 +6035,7 @@
         <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186">
         <v>35</v>
@@ -5455,7 +6053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>4</v>
       </c>
@@ -5463,7 +6061,7 @@
         <v>15</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187">
         <v>36</v>
@@ -5481,7 +6079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>4</v>
       </c>
@@ -5489,7 +6087,7 @@
         <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188">
         <v>37</v>
@@ -5507,7 +6105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>4</v>
       </c>
@@ -5515,7 +6113,7 @@
         <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189">
         <v>38</v>
@@ -5533,7 +6131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>4</v>
       </c>
@@ -5541,7 +6139,7 @@
         <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190">
         <v>39</v>
@@ -5559,7 +6157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>4</v>
       </c>
@@ -5567,7 +6165,7 @@
         <v>15</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191">
         <v>40</v>
@@ -5585,7 +6183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>4</v>
       </c>
@@ -5593,7 +6191,7 @@
         <v>15</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192">
         <v>41</v>
@@ -5611,7 +6209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>4</v>
       </c>
@@ -5619,7 +6217,7 @@
         <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193">
         <v>42</v>
@@ -5637,7 +6235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>4</v>
       </c>
@@ -5645,7 +6243,7 @@
         <v>15</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194">
         <v>43</v>
@@ -5663,7 +6261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>4</v>
       </c>
@@ -5671,7 +6269,7 @@
         <v>15</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195">
         <v>44</v>
@@ -5689,7 +6287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>4</v>
       </c>
@@ -5697,7 +6295,7 @@
         <v>15</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196">
         <v>45</v>
@@ -5715,7 +6313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>4</v>
       </c>
@@ -5723,7 +6321,7 @@
         <v>15</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197">
         <v>46</v>
@@ -5741,7 +6339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>4</v>
       </c>
@@ -5749,7 +6347,7 @@
         <v>15</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198">
         <v>47</v>
@@ -5767,7 +6365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>4</v>
       </c>
@@ -5775,7 +6373,7 @@
         <v>15</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199">
         <v>48</v>
@@ -5793,7 +6391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>4</v>
       </c>
@@ -5801,7 +6399,7 @@
         <v>15</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200">
         <v>49</v>
@@ -5819,7 +6417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>4</v>
       </c>
@@ -5827,7 +6425,7 @@
         <v>15</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201">
         <v>50</v>
@@ -5845,7 +6443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>5</v>
       </c>
@@ -5853,7 +6451,7 @@
         <v>17</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -5871,7 +6469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>5</v>
       </c>
@@ -5879,7 +6477,7 @@
         <v>17</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203">
         <v>2</v>
@@ -5897,7 +6495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>5</v>
       </c>
@@ -5905,7 +6503,7 @@
         <v>17</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204">
         <v>3</v>
@@ -5923,7 +6521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>5</v>
       </c>
@@ -5931,7 +6529,7 @@
         <v>17</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205">
         <v>4</v>
@@ -5949,7 +6547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>5</v>
       </c>
@@ -5957,7 +6555,7 @@
         <v>17</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206">
         <v>5</v>
@@ -5975,7 +6573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>5</v>
       </c>
@@ -5983,7 +6581,7 @@
         <v>17</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207">
         <v>6</v>
@@ -6001,7 +6599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>5</v>
       </c>
@@ -6009,7 +6607,7 @@
         <v>17</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208">
         <v>7</v>
@@ -6027,7 +6625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>5</v>
       </c>
@@ -6035,7 +6633,7 @@
         <v>17</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209">
         <v>8</v>
@@ -6053,7 +6651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>5</v>
       </c>
@@ -6061,7 +6659,7 @@
         <v>17</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210">
         <v>9</v>
@@ -6079,7 +6677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>5</v>
       </c>
@@ -6087,7 +6685,7 @@
         <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211">
         <v>10</v>
@@ -6105,7 +6703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>5</v>
       </c>
@@ -6113,7 +6711,7 @@
         <v>17</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212">
         <v>11</v>
@@ -6131,7 +6729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>5</v>
       </c>
@@ -6139,7 +6737,7 @@
         <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213">
         <v>12</v>
@@ -6157,7 +6755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>5</v>
       </c>
@@ -6165,7 +6763,7 @@
         <v>17</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214">
         <v>13</v>
@@ -6183,7 +6781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>5</v>
       </c>
@@ -6191,7 +6789,7 @@
         <v>17</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215">
         <v>14</v>
@@ -6209,7 +6807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>5</v>
       </c>
@@ -6217,7 +6815,7 @@
         <v>17</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216">
         <v>15</v>
@@ -6235,7 +6833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>5</v>
       </c>
@@ -6243,7 +6841,7 @@
         <v>17</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217">
         <v>16</v>
@@ -6261,7 +6859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>5</v>
       </c>
@@ -6269,7 +6867,7 @@
         <v>17</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218">
         <v>17</v>
@@ -6287,7 +6885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>5</v>
       </c>
@@ -6295,7 +6893,7 @@
         <v>17</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219">
         <v>18</v>
@@ -6313,7 +6911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>5</v>
       </c>
@@ -6321,7 +6919,7 @@
         <v>17</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220">
         <v>19</v>
@@ -6339,7 +6937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>5</v>
       </c>
@@ -6347,7 +6945,7 @@
         <v>17</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221">
         <v>20</v>
@@ -6365,7 +6963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>5</v>
       </c>
@@ -6373,7 +6971,7 @@
         <v>17</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222">
         <v>21</v>
@@ -6391,7 +6989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>5</v>
       </c>
@@ -6399,7 +6997,7 @@
         <v>17</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223">
         <v>22</v>
@@ -6417,7 +7015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>5</v>
       </c>
@@ -6425,7 +7023,7 @@
         <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224">
         <v>23</v>
@@ -6443,7 +7041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>5</v>
       </c>
@@ -6451,7 +7049,7 @@
         <v>17</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225">
         <v>24</v>
@@ -6469,7 +7067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>5</v>
       </c>
@@ -6477,7 +7075,7 @@
         <v>17</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226">
         <v>25</v>
@@ -6495,7 +7093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>5</v>
       </c>
@@ -6503,7 +7101,7 @@
         <v>17</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227">
         <v>26</v>
@@ -6521,7 +7119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>5</v>
       </c>
@@ -6529,7 +7127,7 @@
         <v>17</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228">
         <v>27</v>
@@ -6547,7 +7145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>5</v>
       </c>
@@ -6555,7 +7153,7 @@
         <v>17</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229">
         <v>28</v>
@@ -6573,7 +7171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>5</v>
       </c>
@@ -6581,7 +7179,7 @@
         <v>17</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230">
         <v>29</v>
@@ -6599,7 +7197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>5</v>
       </c>
@@ -6607,7 +7205,7 @@
         <v>17</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231">
         <v>30</v>
@@ -6625,7 +7223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>5</v>
       </c>
@@ -6633,7 +7231,7 @@
         <v>17</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232">
         <v>31</v>
@@ -6651,7 +7249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>5</v>
       </c>
@@ -6659,7 +7257,7 @@
         <v>17</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233">
         <v>32</v>
@@ -6677,7 +7275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>5</v>
       </c>
@@ -6685,7 +7283,7 @@
         <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234">
         <v>33</v>
@@ -6703,7 +7301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>5</v>
       </c>
@@ -6711,7 +7309,7 @@
         <v>17</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235">
         <v>34</v>
@@ -6729,7 +7327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>5</v>
       </c>
@@ -6737,7 +7335,7 @@
         <v>17</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236">
         <v>35</v>
@@ -6755,7 +7353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>5</v>
       </c>
@@ -6763,7 +7361,7 @@
         <v>17</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237">
         <v>36</v>
@@ -6781,7 +7379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>5</v>
       </c>
@@ -6789,7 +7387,7 @@
         <v>17</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238">
         <v>37</v>
@@ -6807,7 +7405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>5</v>
       </c>
@@ -6815,7 +7413,7 @@
         <v>17</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D239">
         <v>38</v>
@@ -6833,7 +7431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>5</v>
       </c>
@@ -6841,7 +7439,7 @@
         <v>17</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D240">
         <v>39</v>
@@ -6859,7 +7457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>5</v>
       </c>
@@ -6867,7 +7465,7 @@
         <v>17</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D241">
         <v>40</v>
@@ -6885,7 +7483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>5</v>
       </c>
@@ -6893,7 +7491,7 @@
         <v>17</v>
       </c>
       <c r="C242" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D242">
         <v>41</v>
@@ -6911,7 +7509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>5</v>
       </c>
@@ -6919,7 +7517,7 @@
         <v>17</v>
       </c>
       <c r="C243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D243">
         <v>42</v>
@@ -6937,7 +7535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>5</v>
       </c>
@@ -6945,7 +7543,7 @@
         <v>17</v>
       </c>
       <c r="C244" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D244">
         <v>43</v>
@@ -6963,7 +7561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>5</v>
       </c>
@@ -6971,7 +7569,7 @@
         <v>17</v>
       </c>
       <c r="C245" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D245">
         <v>44</v>
@@ -6989,7 +7587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>5</v>
       </c>
@@ -6997,7 +7595,7 @@
         <v>17</v>
       </c>
       <c r="C246" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D246">
         <v>45</v>
@@ -7015,7 +7613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>5</v>
       </c>
@@ -7023,7 +7621,7 @@
         <v>17</v>
       </c>
       <c r="C247" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D247">
         <v>46</v>
@@ -7041,7 +7639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>5</v>
       </c>
@@ -7049,7 +7647,7 @@
         <v>17</v>
       </c>
       <c r="C248" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D248">
         <v>47</v>
@@ -7067,7 +7665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>5</v>
       </c>
@@ -7075,7 +7673,7 @@
         <v>17</v>
       </c>
       <c r="C249" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D249">
         <v>48</v>
@@ -7093,7 +7691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>5</v>
       </c>
@@ -7101,7 +7699,7 @@
         <v>17</v>
       </c>
       <c r="C250" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D250">
         <v>49</v>
@@ -7119,7 +7717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>5</v>
       </c>
@@ -7127,7 +7725,7 @@
         <v>17</v>
       </c>
       <c r="C251" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D251">
         <v>50</v>
@@ -7145,7 +7743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>6</v>
       </c>
@@ -7153,7 +7751,7 @@
         <v>19</v>
       </c>
       <c r="C252" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -7171,7 +7769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>6</v>
       </c>
@@ -7179,7 +7777,7 @@
         <v>19</v>
       </c>
       <c r="C253" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D253">
         <v>2</v>
@@ -7197,7 +7795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>6</v>
       </c>
@@ -7205,7 +7803,7 @@
         <v>19</v>
       </c>
       <c r="C254" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D254">
         <v>3</v>
@@ -7223,7 +7821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>6</v>
       </c>
@@ -7231,7 +7829,7 @@
         <v>19</v>
       </c>
       <c r="C255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D255">
         <v>4</v>
@@ -7249,7 +7847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>6</v>
       </c>
@@ -7257,7 +7855,7 @@
         <v>19</v>
       </c>
       <c r="C256" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D256">
         <v>5</v>
@@ -7275,7 +7873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>6</v>
       </c>
@@ -7283,7 +7881,7 @@
         <v>19</v>
       </c>
       <c r="C257" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D257">
         <v>6</v>
@@ -7301,7 +7899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>6</v>
       </c>
@@ -7309,7 +7907,7 @@
         <v>19</v>
       </c>
       <c r="C258" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D258">
         <v>7</v>
@@ -7327,7 +7925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>6</v>
       </c>
@@ -7335,7 +7933,7 @@
         <v>19</v>
       </c>
       <c r="C259" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D259">
         <v>8</v>
@@ -7353,7 +7951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>6</v>
       </c>
@@ -7361,7 +7959,7 @@
         <v>19</v>
       </c>
       <c r="C260" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D260">
         <v>9</v>
@@ -7379,7 +7977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>6</v>
       </c>
@@ -7387,7 +7985,7 @@
         <v>19</v>
       </c>
       <c r="C261" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D261">
         <v>10</v>
@@ -7405,7 +8003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>6</v>
       </c>
@@ -7413,7 +8011,7 @@
         <v>19</v>
       </c>
       <c r="C262" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D262">
         <v>11</v>
@@ -7431,7 +8029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>6</v>
       </c>
@@ -7439,7 +8037,7 @@
         <v>19</v>
       </c>
       <c r="C263" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D263">
         <v>12</v>
@@ -7457,7 +8055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>6</v>
       </c>
@@ -7465,7 +8063,7 @@
         <v>19</v>
       </c>
       <c r="C264" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D264">
         <v>13</v>
@@ -7483,7 +8081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>6</v>
       </c>
@@ -7491,7 +8089,7 @@
         <v>19</v>
       </c>
       <c r="C265" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D265">
         <v>14</v>
@@ -7509,7 +8107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>6</v>
       </c>
@@ -7517,7 +8115,7 @@
         <v>19</v>
       </c>
       <c r="C266" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D266">
         <v>15</v>
@@ -7535,7 +8133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>6</v>
       </c>
@@ -7543,7 +8141,7 @@
         <v>19</v>
       </c>
       <c r="C267" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D267">
         <v>16</v>
@@ -7561,7 +8159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>6</v>
       </c>
@@ -7569,7 +8167,7 @@
         <v>19</v>
       </c>
       <c r="C268" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D268">
         <v>17</v>
@@ -7587,7 +8185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>6</v>
       </c>
@@ -7595,7 +8193,7 @@
         <v>19</v>
       </c>
       <c r="C269" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D269">
         <v>18</v>
@@ -7613,7 +8211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>6</v>
       </c>
@@ -7621,7 +8219,7 @@
         <v>19</v>
       </c>
       <c r="C270" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D270">
         <v>19</v>
@@ -7639,7 +8237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>6</v>
       </c>
@@ -7647,7 +8245,7 @@
         <v>19</v>
       </c>
       <c r="C271" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D271">
         <v>20</v>
@@ -7665,7 +8263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>6</v>
       </c>
@@ -7673,7 +8271,7 @@
         <v>19</v>
       </c>
       <c r="C272" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D272">
         <v>21</v>
@@ -7691,7 +8289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>6</v>
       </c>
@@ -7699,7 +8297,7 @@
         <v>19</v>
       </c>
       <c r="C273" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D273">
         <v>22</v>
@@ -7717,7 +8315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>6</v>
       </c>
@@ -7725,7 +8323,7 @@
         <v>19</v>
       </c>
       <c r="C274" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D274">
         <v>23</v>
@@ -7743,7 +8341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>6</v>
       </c>
@@ -7751,7 +8349,7 @@
         <v>19</v>
       </c>
       <c r="C275" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D275">
         <v>24</v>
@@ -7769,7 +8367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>6</v>
       </c>
@@ -7777,7 +8375,7 @@
         <v>19</v>
       </c>
       <c r="C276" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D276">
         <v>25</v>
@@ -7795,7 +8393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>6</v>
       </c>
@@ -7803,7 +8401,7 @@
         <v>19</v>
       </c>
       <c r="C277" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D277">
         <v>26</v>
@@ -7821,7 +8419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>6</v>
       </c>
@@ -7829,7 +8427,7 @@
         <v>19</v>
       </c>
       <c r="C278" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D278">
         <v>27</v>
@@ -7847,7 +8445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>6</v>
       </c>
@@ -7855,7 +8453,7 @@
         <v>19</v>
       </c>
       <c r="C279" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D279">
         <v>28</v>
@@ -7873,7 +8471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>6</v>
       </c>
@@ -7881,7 +8479,7 @@
         <v>19</v>
       </c>
       <c r="C280" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D280">
         <v>29</v>
@@ -7899,7 +8497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>6</v>
       </c>
@@ -7907,7 +8505,7 @@
         <v>19</v>
       </c>
       <c r="C281" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D281">
         <v>30</v>
@@ -7925,7 +8523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>6</v>
       </c>
@@ -7933,7 +8531,7 @@
         <v>19</v>
       </c>
       <c r="C282" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D282">
         <v>31</v>
@@ -7951,7 +8549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>6</v>
       </c>
@@ -7959,7 +8557,7 @@
         <v>19</v>
       </c>
       <c r="C283" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D283">
         <v>32</v>
@@ -7977,7 +8575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>6</v>
       </c>
@@ -7985,7 +8583,7 @@
         <v>19</v>
       </c>
       <c r="C284" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D284">
         <v>33</v>
@@ -8003,7 +8601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>6</v>
       </c>
@@ -8011,7 +8609,7 @@
         <v>19</v>
       </c>
       <c r="C285" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D285">
         <v>34</v>
@@ -8029,7 +8627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>6</v>
       </c>
@@ -8037,7 +8635,7 @@
         <v>19</v>
       </c>
       <c r="C286" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D286">
         <v>35</v>
@@ -8055,7 +8653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>6</v>
       </c>
@@ -8063,7 +8661,7 @@
         <v>19</v>
       </c>
       <c r="C287" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D287">
         <v>36</v>
@@ -8081,7 +8679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>6</v>
       </c>
@@ -8089,7 +8687,7 @@
         <v>19</v>
       </c>
       <c r="C288" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D288">
         <v>37</v>
@@ -8107,7 +8705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>6</v>
       </c>
@@ -8115,7 +8713,7 @@
         <v>19</v>
       </c>
       <c r="C289" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D289">
         <v>38</v>
@@ -8133,7 +8731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>6</v>
       </c>
@@ -8141,7 +8739,7 @@
         <v>19</v>
       </c>
       <c r="C290" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D290">
         <v>39</v>
@@ -8159,7 +8757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>6</v>
       </c>
@@ -8167,7 +8765,7 @@
         <v>19</v>
       </c>
       <c r="C291" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D291">
         <v>40</v>
@@ -8185,7 +8783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>6</v>
       </c>
@@ -8193,7 +8791,7 @@
         <v>19</v>
       </c>
       <c r="C292" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D292">
         <v>41</v>
@@ -8211,7 +8809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>6</v>
       </c>
@@ -8219,7 +8817,7 @@
         <v>19</v>
       </c>
       <c r="C293" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D293">
         <v>42</v>
@@ -8237,7 +8835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>6</v>
       </c>
@@ -8245,7 +8843,7 @@
         <v>19</v>
       </c>
       <c r="C294" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D294">
         <v>43</v>
@@ -8263,7 +8861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>6</v>
       </c>
@@ -8271,7 +8869,7 @@
         <v>19</v>
       </c>
       <c r="C295" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D295">
         <v>44</v>
@@ -8289,7 +8887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>6</v>
       </c>
@@ -8297,7 +8895,7 @@
         <v>19</v>
       </c>
       <c r="C296" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D296">
         <v>45</v>
@@ -8315,7 +8913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>6</v>
       </c>
@@ -8323,7 +8921,7 @@
         <v>19</v>
       </c>
       <c r="C297" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D297">
         <v>46</v>
@@ -8341,7 +8939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>6</v>
       </c>
@@ -8349,7 +8947,7 @@
         <v>19</v>
       </c>
       <c r="C298" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D298">
         <v>47</v>
@@ -8367,7 +8965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>6</v>
       </c>
@@ -8375,7 +8973,7 @@
         <v>19</v>
       </c>
       <c r="C299" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D299">
         <v>48</v>
@@ -8393,7 +8991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>6</v>
       </c>
@@ -8401,7 +8999,7 @@
         <v>19</v>
       </c>
       <c r="C300" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D300">
         <v>49</v>
@@ -8419,7 +9017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>6</v>
       </c>
@@ -8427,7 +9025,7 @@
         <v>19</v>
       </c>
       <c r="C301" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D301">
         <v>50</v>
@@ -8445,7 +9043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>7</v>
       </c>
@@ -8453,7 +9051,7 @@
         <v>21</v>
       </c>
       <c r="C302" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -8471,7 +9069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>7</v>
       </c>
@@ -8479,7 +9077,7 @@
         <v>21</v>
       </c>
       <c r="C303" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D303">
         <v>2</v>
@@ -8497,7 +9095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>7</v>
       </c>
@@ -8505,7 +9103,7 @@
         <v>21</v>
       </c>
       <c r="C304" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D304">
         <v>3</v>
@@ -8523,7 +9121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>7</v>
       </c>
@@ -8531,7 +9129,7 @@
         <v>21</v>
       </c>
       <c r="C305" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D305">
         <v>4</v>
@@ -8549,7 +9147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>7</v>
       </c>
@@ -8557,7 +9155,7 @@
         <v>21</v>
       </c>
       <c r="C306" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D306">
         <v>5</v>
@@ -8575,7 +9173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>7</v>
       </c>
@@ -8583,7 +9181,7 @@
         <v>21</v>
       </c>
       <c r="C307" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D307">
         <v>6</v>
@@ -8601,7 +9199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>7</v>
       </c>
@@ -8609,7 +9207,7 @@
         <v>21</v>
       </c>
       <c r="C308" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D308">
         <v>7</v>
@@ -8627,7 +9225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>7</v>
       </c>
@@ -8635,7 +9233,7 @@
         <v>21</v>
       </c>
       <c r="C309" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D309">
         <v>8</v>
@@ -8653,7 +9251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>7</v>
       </c>
@@ -8661,7 +9259,7 @@
         <v>21</v>
       </c>
       <c r="C310" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D310">
         <v>9</v>
@@ -8679,7 +9277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>7</v>
       </c>
@@ -8687,7 +9285,7 @@
         <v>21</v>
       </c>
       <c r="C311" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D311">
         <v>10</v>
@@ -8705,7 +9303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>7</v>
       </c>
@@ -8713,7 +9311,7 @@
         <v>21</v>
       </c>
       <c r="C312" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D312">
         <v>11</v>
@@ -8731,7 +9329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>7</v>
       </c>
@@ -8739,7 +9337,7 @@
         <v>21</v>
       </c>
       <c r="C313" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D313">
         <v>12</v>
@@ -8757,7 +9355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>7</v>
       </c>
@@ -8765,7 +9363,7 @@
         <v>21</v>
       </c>
       <c r="C314" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D314">
         <v>13</v>
@@ -8783,7 +9381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>7</v>
       </c>
@@ -8791,7 +9389,7 @@
         <v>21</v>
       </c>
       <c r="C315" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D315">
         <v>14</v>
@@ -8809,7 +9407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>7</v>
       </c>
@@ -8817,7 +9415,7 @@
         <v>21</v>
       </c>
       <c r="C316" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D316">
         <v>15</v>
@@ -8835,7 +9433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>7</v>
       </c>
@@ -8843,7 +9441,7 @@
         <v>21</v>
       </c>
       <c r="C317" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D317">
         <v>16</v>
@@ -8861,7 +9459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>7</v>
       </c>
@@ -8869,7 +9467,7 @@
         <v>21</v>
       </c>
       <c r="C318" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D318">
         <v>17</v>
@@ -8887,7 +9485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>7</v>
       </c>
@@ -8895,7 +9493,7 @@
         <v>21</v>
       </c>
       <c r="C319" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D319">
         <v>18</v>
@@ -8913,7 +9511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>7</v>
       </c>
@@ -8921,7 +9519,7 @@
         <v>21</v>
       </c>
       <c r="C320" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D320">
         <v>19</v>
@@ -8939,7 +9537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>7</v>
       </c>
@@ -8947,7 +9545,7 @@
         <v>21</v>
       </c>
       <c r="C321" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D321">
         <v>20</v>
@@ -8965,7 +9563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>7</v>
       </c>
@@ -8973,7 +9571,7 @@
         <v>21</v>
       </c>
       <c r="C322" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D322">
         <v>21</v>
@@ -8991,7 +9589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>7</v>
       </c>
@@ -8999,7 +9597,7 @@
         <v>21</v>
       </c>
       <c r="C323" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D323">
         <v>22</v>
@@ -9017,7 +9615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>7</v>
       </c>
@@ -9025,7 +9623,7 @@
         <v>21</v>
       </c>
       <c r="C324" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D324">
         <v>23</v>
@@ -9043,7 +9641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>7</v>
       </c>
@@ -9051,7 +9649,7 @@
         <v>21</v>
       </c>
       <c r="C325" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D325">
         <v>24</v>
@@ -9069,7 +9667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>7</v>
       </c>
@@ -9077,7 +9675,7 @@
         <v>21</v>
       </c>
       <c r="C326" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D326">
         <v>25</v>
@@ -9095,7 +9693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>7</v>
       </c>
@@ -9103,7 +9701,7 @@
         <v>21</v>
       </c>
       <c r="C327" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D327">
         <v>26</v>
@@ -9121,7 +9719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>7</v>
       </c>
@@ -9129,7 +9727,7 @@
         <v>21</v>
       </c>
       <c r="C328" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D328">
         <v>27</v>
@@ -9147,7 +9745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>7</v>
       </c>
@@ -9155,7 +9753,7 @@
         <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D329">
         <v>28</v>
@@ -9173,7 +9771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>7</v>
       </c>
@@ -9181,7 +9779,7 @@
         <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D330">
         <v>29</v>
@@ -9199,7 +9797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>7</v>
       </c>
@@ -9207,7 +9805,7 @@
         <v>21</v>
       </c>
       <c r="C331" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D331">
         <v>30</v>
@@ -9225,7 +9823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>7</v>
       </c>
@@ -9233,7 +9831,7 @@
         <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D332">
         <v>31</v>
@@ -9251,7 +9849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>7</v>
       </c>
@@ -9259,7 +9857,7 @@
         <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D333">
         <v>32</v>
@@ -9277,7 +9875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>7</v>
       </c>
@@ -9285,7 +9883,7 @@
         <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D334">
         <v>33</v>
@@ -9303,7 +9901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>7</v>
       </c>
@@ -9311,7 +9909,7 @@
         <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D335">
         <v>34</v>
@@ -9329,7 +9927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>7</v>
       </c>
@@ -9337,7 +9935,7 @@
         <v>21</v>
       </c>
       <c r="C336" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D336">
         <v>35</v>
@@ -9355,7 +9953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>7</v>
       </c>
@@ -9363,7 +9961,7 @@
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D337">
         <v>36</v>
@@ -9381,7 +9979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>7</v>
       </c>
@@ -9389,7 +9987,7 @@
         <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D338">
         <v>37</v>
@@ -9407,7 +10005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>7</v>
       </c>
@@ -9415,7 +10013,7 @@
         <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D339">
         <v>38</v>
@@ -9433,7 +10031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>7</v>
       </c>
@@ -9441,7 +10039,7 @@
         <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D340">
         <v>39</v>
@@ -9459,7 +10057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>7</v>
       </c>
@@ -9467,7 +10065,7 @@
         <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D341">
         <v>40</v>
@@ -9485,7 +10083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>7</v>
       </c>
@@ -9493,7 +10091,7 @@
         <v>21</v>
       </c>
       <c r="C342" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D342">
         <v>41</v>
@@ -9511,7 +10109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>7</v>
       </c>
@@ -9519,7 +10117,7 @@
         <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D343">
         <v>42</v>
@@ -9537,7 +10135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>7</v>
       </c>
@@ -9545,7 +10143,7 @@
         <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D344">
         <v>43</v>
@@ -9563,7 +10161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>7</v>
       </c>
@@ -9571,7 +10169,7 @@
         <v>21</v>
       </c>
       <c r="C345" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D345">
         <v>44</v>
@@ -9589,7 +10187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>7</v>
       </c>
@@ -9597,7 +10195,7 @@
         <v>21</v>
       </c>
       <c r="C346" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D346">
         <v>45</v>
@@ -9615,7 +10213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>7</v>
       </c>
@@ -9623,7 +10221,7 @@
         <v>21</v>
       </c>
       <c r="C347" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D347">
         <v>46</v>
@@ -9641,7 +10239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>7</v>
       </c>
@@ -9649,7 +10247,7 @@
         <v>21</v>
       </c>
       <c r="C348" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D348">
         <v>47</v>
@@ -9667,7 +10265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>7</v>
       </c>
@@ -9675,7 +10273,7 @@
         <v>21</v>
       </c>
       <c r="C349" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D349">
         <v>48</v>
@@ -9693,7 +10291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>7</v>
       </c>
@@ -9701,7 +10299,7 @@
         <v>21</v>
       </c>
       <c r="C350" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D350">
         <v>49</v>
@@ -9719,7 +10317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>7</v>
       </c>
@@ -9727,7 +10325,7 @@
         <v>21</v>
       </c>
       <c r="C351" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D351">
         <v>50</v>
@@ -9745,7 +10343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>8</v>
       </c>
@@ -9753,7 +10351,7 @@
         <v>23</v>
       </c>
       <c r="C352" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D352">
         <v>1</v>
@@ -9771,7 +10369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>8</v>
       </c>
@@ -9779,7 +10377,7 @@
         <v>23</v>
       </c>
       <c r="C353" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D353">
         <v>2</v>
@@ -9797,7 +10395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>8</v>
       </c>
@@ -9805,7 +10403,7 @@
         <v>23</v>
       </c>
       <c r="C354" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D354">
         <v>3</v>
@@ -9823,7 +10421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>8</v>
       </c>
@@ -9831,7 +10429,7 @@
         <v>23</v>
       </c>
       <c r="C355" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D355">
         <v>4</v>
@@ -9849,7 +10447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>8</v>
       </c>
@@ -9857,7 +10455,7 @@
         <v>23</v>
       </c>
       <c r="C356" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D356">
         <v>5</v>
@@ -9875,7 +10473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>8</v>
       </c>
@@ -9883,7 +10481,7 @@
         <v>23</v>
       </c>
       <c r="C357" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D357">
         <v>6</v>
@@ -9901,7 +10499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>8</v>
       </c>
@@ -9909,7 +10507,7 @@
         <v>23</v>
       </c>
       <c r="C358" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D358">
         <v>7</v>
@@ -9927,7 +10525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>8</v>
       </c>
@@ -9935,7 +10533,7 @@
         <v>23</v>
       </c>
       <c r="C359" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D359">
         <v>8</v>
@@ -9953,7 +10551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>8</v>
       </c>
@@ -9961,7 +10559,7 @@
         <v>23</v>
       </c>
       <c r="C360" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D360">
         <v>9</v>
@@ -9979,7 +10577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>8</v>
       </c>
@@ -9987,7 +10585,7 @@
         <v>23</v>
       </c>
       <c r="C361" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D361">
         <v>10</v>
@@ -10005,7 +10603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>8</v>
       </c>
@@ -10013,7 +10611,7 @@
         <v>23</v>
       </c>
       <c r="C362" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D362">
         <v>11</v>
@@ -10031,7 +10629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>8</v>
       </c>
@@ -10039,7 +10637,7 @@
         <v>23</v>
       </c>
       <c r="C363" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D363">
         <v>12</v>
@@ -10057,7 +10655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>8</v>
       </c>
@@ -10065,7 +10663,7 @@
         <v>23</v>
       </c>
       <c r="C364" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D364">
         <v>13</v>
@@ -10083,7 +10681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>8</v>
       </c>
@@ -10091,7 +10689,7 @@
         <v>23</v>
       </c>
       <c r="C365" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D365">
         <v>14</v>
@@ -10109,7 +10707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>8</v>
       </c>
@@ -10117,7 +10715,7 @@
         <v>23</v>
       </c>
       <c r="C366" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D366">
         <v>15</v>
@@ -10135,7 +10733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>8</v>
       </c>
@@ -10143,7 +10741,7 @@
         <v>23</v>
       </c>
       <c r="C367" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D367">
         <v>16</v>
@@ -10161,7 +10759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>8</v>
       </c>
@@ -10169,7 +10767,7 @@
         <v>23</v>
       </c>
       <c r="C368" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D368">
         <v>17</v>
@@ -10187,7 +10785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>8</v>
       </c>
@@ -10195,7 +10793,7 @@
         <v>23</v>
       </c>
       <c r="C369" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D369">
         <v>18</v>
@@ -10213,7 +10811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>8</v>
       </c>
@@ -10221,7 +10819,7 @@
         <v>23</v>
       </c>
       <c r="C370" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D370">
         <v>19</v>
@@ -10239,7 +10837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>8</v>
       </c>
@@ -10247,7 +10845,7 @@
         <v>23</v>
       </c>
       <c r="C371" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D371">
         <v>20</v>
@@ -10265,7 +10863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>8</v>
       </c>
@@ -10273,7 +10871,7 @@
         <v>23</v>
       </c>
       <c r="C372" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D372">
         <v>21</v>
@@ -10291,7 +10889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>8</v>
       </c>
@@ -10299,7 +10897,7 @@
         <v>23</v>
       </c>
       <c r="C373" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D373">
         <v>22</v>
@@ -10317,7 +10915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>8</v>
       </c>
@@ -10325,7 +10923,7 @@
         <v>23</v>
       </c>
       <c r="C374" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D374">
         <v>23</v>
@@ -10343,7 +10941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>8</v>
       </c>
@@ -10351,7 +10949,7 @@
         <v>23</v>
       </c>
       <c r="C375" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D375">
         <v>24</v>
@@ -10369,7 +10967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>8</v>
       </c>
@@ -10377,7 +10975,7 @@
         <v>23</v>
       </c>
       <c r="C376" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D376">
         <v>25</v>
@@ -10395,7 +10993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>8</v>
       </c>
@@ -10403,7 +11001,7 @@
         <v>23</v>
       </c>
       <c r="C377" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D377">
         <v>26</v>
@@ -10421,7 +11019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>8</v>
       </c>
@@ -10429,7 +11027,7 @@
         <v>23</v>
       </c>
       <c r="C378" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D378">
         <v>27</v>
@@ -10447,7 +11045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>8</v>
       </c>
@@ -10455,7 +11053,7 @@
         <v>23</v>
       </c>
       <c r="C379" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D379">
         <v>28</v>
@@ -10473,7 +11071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>8</v>
       </c>
@@ -10481,7 +11079,7 @@
         <v>23</v>
       </c>
       <c r="C380" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D380">
         <v>29</v>
@@ -10499,7 +11097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>8</v>
       </c>
@@ -10507,7 +11105,7 @@
         <v>23</v>
       </c>
       <c r="C381" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D381">
         <v>30</v>
@@ -10525,7 +11123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>8</v>
       </c>
@@ -10533,7 +11131,7 @@
         <v>23</v>
       </c>
       <c r="C382" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D382">
         <v>31</v>
@@ -10551,7 +11149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>8</v>
       </c>
@@ -10559,7 +11157,7 @@
         <v>23</v>
       </c>
       <c r="C383" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D383">
         <v>32</v>
@@ -10577,7 +11175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>8</v>
       </c>
@@ -10585,7 +11183,7 @@
         <v>23</v>
       </c>
       <c r="C384" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D384">
         <v>33</v>
@@ -10603,7 +11201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>8</v>
       </c>
@@ -10611,7 +11209,7 @@
         <v>23</v>
       </c>
       <c r="C385" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D385">
         <v>34</v>
@@ -10629,7 +11227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>8</v>
       </c>
@@ -10637,7 +11235,7 @@
         <v>23</v>
       </c>
       <c r="C386" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D386">
         <v>35</v>
@@ -10655,7 +11253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>8</v>
       </c>
@@ -10663,7 +11261,7 @@
         <v>23</v>
       </c>
       <c r="C387" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D387">
         <v>36</v>
@@ -10681,7 +11279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>8</v>
       </c>
@@ -10689,7 +11287,7 @@
         <v>23</v>
       </c>
       <c r="C388" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D388">
         <v>37</v>
@@ -10707,7 +11305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>8</v>
       </c>
@@ -10715,7 +11313,7 @@
         <v>23</v>
       </c>
       <c r="C389" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D389">
         <v>38</v>
@@ -10733,7 +11331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>8</v>
       </c>
@@ -10741,7 +11339,7 @@
         <v>23</v>
       </c>
       <c r="C390" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D390">
         <v>39</v>
@@ -10759,7 +11357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>8</v>
       </c>
@@ -10767,7 +11365,7 @@
         <v>23</v>
       </c>
       <c r="C391" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D391">
         <v>40</v>
@@ -10785,7 +11383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>8</v>
       </c>
@@ -10793,7 +11391,7 @@
         <v>23</v>
       </c>
       <c r="C392" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D392">
         <v>41</v>
@@ -10811,7 +11409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>8</v>
       </c>
@@ -10819,7 +11417,7 @@
         <v>23</v>
       </c>
       <c r="C393" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D393">
         <v>42</v>
@@ -10837,7 +11435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>8</v>
       </c>
@@ -10845,7 +11443,7 @@
         <v>23</v>
       </c>
       <c r="C394" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D394">
         <v>43</v>
@@ -10863,7 +11461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>8</v>
       </c>
@@ -10871,7 +11469,7 @@
         <v>23</v>
       </c>
       <c r="C395" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D395">
         <v>44</v>
@@ -10889,7 +11487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>8</v>
       </c>
@@ -10897,7 +11495,7 @@
         <v>23</v>
       </c>
       <c r="C396" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D396">
         <v>45</v>
@@ -10915,7 +11513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>8</v>
       </c>
@@ -10923,7 +11521,7 @@
         <v>23</v>
       </c>
       <c r="C397" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D397">
         <v>46</v>
@@ -10941,7 +11539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>8</v>
       </c>
@@ -10949,7 +11547,7 @@
         <v>23</v>
       </c>
       <c r="C398" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D398">
         <v>47</v>
@@ -10967,7 +11565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>8</v>
       </c>
@@ -10975,7 +11573,7 @@
         <v>23</v>
       </c>
       <c r="C399" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D399">
         <v>48</v>
@@ -10993,7 +11591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>8</v>
       </c>
@@ -11001,7 +11599,7 @@
         <v>23</v>
       </c>
       <c r="C400" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D400">
         <v>49</v>
@@ -11019,7 +11617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>8</v>
       </c>
@@ -11027,7 +11625,7 @@
         <v>23</v>
       </c>
       <c r="C401" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D401">
         <v>50</v>
@@ -11046,37 +11644,43 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/l-轮回配置表.xlsx
+++ b/other/配置表/l-轮回配置表.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\配置表1111\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8F2FB2-43F2-4793-879A-0EAC5A185C49}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="9210" windowHeight="6570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9210" windowHeight="6570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -36,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -43,13 +51,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -58,6 +67,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -65,13 +75,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -80,6 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -87,13 +99,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -102,6 +115,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -109,13 +123,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -124,6 +139,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -131,13 +147,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -146,6 +163,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -158,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -238,14 +256,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,344 +267,34 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -600,251 +302,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -856,61 +316,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1197,19 +613,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H401"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:H401"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
@@ -1217,7 +633,7 @@
     <col min="8" max="8" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1260,16 +676,16 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1286,16 +702,16 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1312,16 +728,16 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="G4">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1338,16 +754,16 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="G5">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1364,16 +780,16 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G6">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1390,16 +806,16 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="G7">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1416,16 +832,16 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="G8">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1442,16 +858,16 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>800</v>
       </c>
       <c r="G9">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1468,16 +884,16 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="G10">
-        <v>900</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1494,16 +910,16 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>1050</v>
       </c>
       <c r="G11">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1520,16 +936,16 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>22</v>
+        <v>1200</v>
       </c>
       <c r="G12">
-        <v>1100</v>
+        <v>60</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1546,16 +962,16 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>24</v>
+        <v>1350</v>
       </c>
       <c r="G13">
-        <v>1200</v>
+        <v>60</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1572,16 +988,16 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>26</v>
+        <v>1500</v>
       </c>
       <c r="G14">
-        <v>1300</v>
+        <v>60</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1598,16 +1014,16 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>28</v>
+        <v>1650</v>
       </c>
       <c r="G15">
-        <v>1400</v>
+        <v>60</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1624,16 +1040,16 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="G16">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1650,16 +1066,16 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>32</v>
+        <v>1950</v>
       </c>
       <c r="G17">
-        <v>1600</v>
+        <v>60</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1676,16 +1092,16 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>34</v>
+        <v>2100</v>
       </c>
       <c r="G18">
-        <v>1700</v>
+        <v>60</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1702,16 +1118,16 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>36</v>
+        <v>2250</v>
       </c>
       <c r="G19">
-        <v>1800</v>
+        <v>60</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1728,16 +1144,16 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>38</v>
+        <v>2450</v>
       </c>
       <c r="G20">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1754,16 +1170,16 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>40</v>
+        <v>2650</v>
       </c>
       <c r="G21">
-        <v>2000</v>
+        <v>180</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1780,16 +1196,16 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>42</v>
+        <v>2850</v>
       </c>
       <c r="G22">
-        <v>2100</v>
+        <v>180</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1806,16 +1222,16 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>44</v>
+        <v>3050</v>
       </c>
       <c r="G23">
-        <v>2200</v>
+        <v>180</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1832,16 +1248,16 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>46</v>
+        <v>3250</v>
       </c>
       <c r="G24">
-        <v>2300</v>
+        <v>180</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1858,16 +1274,16 @@
         <v>10</v>
       </c>
       <c r="F25">
-        <v>48</v>
+        <v>3450</v>
       </c>
       <c r="G25">
-        <v>2400</v>
+        <v>180</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1884,16 +1300,16 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>50</v>
+        <v>3650</v>
       </c>
       <c r="G26">
-        <v>2500</v>
+        <v>180</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1910,16 +1326,16 @@
         <v>10</v>
       </c>
       <c r="F27">
-        <v>52</v>
+        <v>3850</v>
       </c>
       <c r="G27">
-        <v>2600</v>
+        <v>180</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1936,16 +1352,16 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <v>54</v>
+        <v>4050</v>
       </c>
       <c r="G28">
-        <v>2700</v>
+        <v>180</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1962,16 +1378,16 @@
         <v>10</v>
       </c>
       <c r="F29">
-        <v>56</v>
+        <v>4300</v>
       </c>
       <c r="G29">
-        <v>2800</v>
+        <v>540</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1988,16 +1404,16 @@
         <v>10</v>
       </c>
       <c r="F30">
-        <v>58</v>
+        <v>4550</v>
       </c>
       <c r="G30">
-        <v>2900</v>
+        <v>540</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2014,16 +1430,16 @@
         <v>10</v>
       </c>
       <c r="F31">
-        <v>60</v>
+        <v>4800</v>
       </c>
       <c r="G31">
-        <v>3000</v>
+        <v>540</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2040,16 +1456,16 @@
         <v>10</v>
       </c>
       <c r="F32">
-        <v>62</v>
+        <v>5050</v>
       </c>
       <c r="G32">
-        <v>3100</v>
+        <v>540</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2066,16 +1482,16 @@
         <v>10</v>
       </c>
       <c r="F33">
-        <v>64</v>
+        <v>5300</v>
       </c>
       <c r="G33">
-        <v>3200</v>
+        <v>540</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2092,16 +1508,16 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>66</v>
+        <v>5550</v>
       </c>
       <c r="G34">
-        <v>3300</v>
+        <v>540</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2118,16 +1534,16 @@
         <v>10</v>
       </c>
       <c r="F35">
-        <v>68</v>
+        <v>5800</v>
       </c>
       <c r="G35">
-        <v>3400</v>
+        <v>540</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2144,16 +1560,16 @@
         <v>10</v>
       </c>
       <c r="F36">
-        <v>70</v>
+        <v>6050</v>
       </c>
       <c r="G36">
-        <v>3500</v>
+        <v>540</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2170,16 +1586,16 @@
         <v>10</v>
       </c>
       <c r="F37">
-        <v>72</v>
+        <v>6300</v>
       </c>
       <c r="G37">
-        <v>3600</v>
+        <v>540</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2196,16 +1612,16 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <v>74</v>
+        <v>6600</v>
       </c>
       <c r="G38">
-        <v>3700</v>
+        <v>1620</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2222,16 +1638,16 @@
         <v>10</v>
       </c>
       <c r="F39">
-        <v>76</v>
+        <v>6900</v>
       </c>
       <c r="G39">
-        <v>3800</v>
+        <v>1620</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2248,16 +1664,16 @@
         <v>10</v>
       </c>
       <c r="F40">
-        <v>78</v>
+        <v>7200</v>
       </c>
       <c r="G40">
-        <v>3900</v>
+        <v>1620</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2274,16 +1690,16 @@
         <v>10</v>
       </c>
       <c r="F41">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G41">
-        <v>4000</v>
+        <v>1620</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2300,16 +1716,16 @@
         <v>10</v>
       </c>
       <c r="F42">
-        <v>82</v>
+        <v>7800</v>
       </c>
       <c r="G42">
-        <v>4100</v>
+        <v>1620</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2326,16 +1742,16 @@
         <v>10</v>
       </c>
       <c r="F43">
-        <v>84</v>
+        <v>8100</v>
       </c>
       <c r="G43">
-        <v>4200</v>
+        <v>1620</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2352,16 +1768,16 @@
         <v>10</v>
       </c>
       <c r="F44">
-        <v>86</v>
+        <v>8400</v>
       </c>
       <c r="G44">
-        <v>4300</v>
+        <v>1620</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2378,16 +1794,16 @@
         <v>10</v>
       </c>
       <c r="F45">
-        <v>88</v>
+        <v>8700</v>
       </c>
       <c r="G45">
-        <v>4400</v>
+        <v>1620</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2404,16 +1820,16 @@
         <v>10</v>
       </c>
       <c r="F46">
-        <v>90</v>
+        <v>9000</v>
       </c>
       <c r="G46">
-        <v>4500</v>
+        <v>1620</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2430,16 +1846,16 @@
         <v>10</v>
       </c>
       <c r="F47">
-        <v>92</v>
+        <v>9300</v>
       </c>
       <c r="G47">
-        <v>4600</v>
+        <v>4860</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2456,16 +1872,16 @@
         <v>10</v>
       </c>
       <c r="F48">
-        <v>94</v>
+        <v>9600</v>
       </c>
       <c r="G48">
-        <v>4700</v>
+        <v>4860</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2482,16 +1898,16 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>96</v>
+        <v>9900</v>
       </c>
       <c r="G49">
-        <v>4800</v>
+        <v>4860</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2508,16 +1924,16 @@
         <v>10</v>
       </c>
       <c r="F50">
-        <v>98</v>
+        <v>10200</v>
       </c>
       <c r="G50">
-        <v>4900</v>
+        <v>4860</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2534,16 +1950,16 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>10500</v>
       </c>
       <c r="G51">
-        <v>5000</v>
+        <v>4860</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2560,16 +1976,16 @@
         <v>12</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="G52">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2586,16 +2002,16 @@
         <v>12</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="G53">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2612,16 +2028,16 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="G54">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="H54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2638,16 +2054,16 @@
         <v>12</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>333</v>
       </c>
       <c r="G55">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2664,16 +2080,16 @@
         <v>12</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>417</v>
       </c>
       <c r="G56">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2690,16 +2106,16 @@
         <v>12</v>
       </c>
       <c r="F57">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G57">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2716,16 +2132,16 @@
         <v>12</v>
       </c>
       <c r="F58">
-        <v>14</v>
+        <v>583</v>
       </c>
       <c r="G58">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2742,16 +2158,16 @@
         <v>12</v>
       </c>
       <c r="F59">
-        <v>16</v>
+        <v>667</v>
       </c>
       <c r="G59">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2768,16 +2184,16 @@
         <v>12</v>
       </c>
       <c r="F60">
-        <v>18</v>
+        <v>750</v>
       </c>
       <c r="G60">
-        <v>900</v>
+        <v>20</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2794,16 +2210,16 @@
         <v>12</v>
       </c>
       <c r="F61">
-        <v>20</v>
+        <v>875</v>
       </c>
       <c r="G61">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2820,16 +2236,16 @@
         <v>12</v>
       </c>
       <c r="F62">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="G62">
-        <v>1100</v>
+        <v>60</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2846,16 +2262,16 @@
         <v>12</v>
       </c>
       <c r="F63">
-        <v>24</v>
+        <v>1125</v>
       </c>
       <c r="G63">
-        <v>1200</v>
+        <v>60</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2872,16 +2288,16 @@
         <v>12</v>
       </c>
       <c r="F64">
-        <v>26</v>
+        <v>1250</v>
       </c>
       <c r="G64">
-        <v>1300</v>
+        <v>60</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2898,16 +2314,16 @@
         <v>12</v>
       </c>
       <c r="F65">
-        <v>28</v>
+        <v>1375</v>
       </c>
       <c r="G65">
-        <v>1400</v>
+        <v>60</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2924,16 +2340,16 @@
         <v>12</v>
       </c>
       <c r="F66">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="G66">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="H66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2950,16 +2366,16 @@
         <v>12</v>
       </c>
       <c r="F67">
-        <v>32</v>
+        <v>1625</v>
       </c>
       <c r="G67">
-        <v>1600</v>
+        <v>60</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2976,16 +2392,16 @@
         <v>12</v>
       </c>
       <c r="F68">
-        <v>34</v>
+        <v>1750</v>
       </c>
       <c r="G68">
-        <v>1700</v>
+        <v>60</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3002,16 +2418,16 @@
         <v>12</v>
       </c>
       <c r="F69">
-        <v>36</v>
+        <v>1875</v>
       </c>
       <c r="G69">
-        <v>1800</v>
+        <v>60</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>2</v>
       </c>
@@ -3028,16 +2444,16 @@
         <v>12</v>
       </c>
       <c r="F70">
-        <v>38</v>
+        <v>2042</v>
       </c>
       <c r="G70">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="H70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3054,16 +2470,16 @@
         <v>12</v>
       </c>
       <c r="F71">
-        <v>40</v>
+        <v>2208</v>
       </c>
       <c r="G71">
-        <v>2000</v>
+        <v>180</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3080,16 +2496,16 @@
         <v>12</v>
       </c>
       <c r="F72">
-        <v>42</v>
+        <v>2375</v>
       </c>
       <c r="G72">
-        <v>2100</v>
+        <v>180</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3106,16 +2522,16 @@
         <v>12</v>
       </c>
       <c r="F73">
-        <v>44</v>
+        <v>2542</v>
       </c>
       <c r="G73">
-        <v>2200</v>
+        <v>180</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>2</v>
       </c>
@@ -3132,16 +2548,16 @@
         <v>12</v>
       </c>
       <c r="F74">
-        <v>46</v>
+        <v>2708</v>
       </c>
       <c r="G74">
-        <v>2300</v>
+        <v>180</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3158,16 +2574,16 @@
         <v>12</v>
       </c>
       <c r="F75">
-        <v>48</v>
+        <v>2875</v>
       </c>
       <c r="G75">
-        <v>2400</v>
+        <v>180</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3184,16 +2600,16 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <v>50</v>
+        <v>3042</v>
       </c>
       <c r="G76">
-        <v>2500</v>
+        <v>180</v>
       </c>
       <c r="H76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>2</v>
       </c>
@@ -3210,16 +2626,16 @@
         <v>12</v>
       </c>
       <c r="F77">
-        <v>52</v>
+        <v>3208</v>
       </c>
       <c r="G77">
-        <v>2600</v>
+        <v>180</v>
       </c>
       <c r="H77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>2</v>
       </c>
@@ -3236,16 +2652,16 @@
         <v>12</v>
       </c>
       <c r="F78">
-        <v>54</v>
+        <v>3375</v>
       </c>
       <c r="G78">
-        <v>2700</v>
+        <v>180</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>2</v>
       </c>
@@ -3262,16 +2678,16 @@
         <v>12</v>
       </c>
       <c r="F79">
-        <v>56</v>
+        <v>3583</v>
       </c>
       <c r="G79">
-        <v>2800</v>
+        <v>540</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>2</v>
       </c>
@@ -3288,16 +2704,16 @@
         <v>12</v>
       </c>
       <c r="F80">
-        <v>58</v>
+        <v>3792</v>
       </c>
       <c r="G80">
-        <v>2900</v>
+        <v>540</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>2</v>
       </c>
@@ -3314,16 +2730,16 @@
         <v>12</v>
       </c>
       <c r="F81">
-        <v>60</v>
+        <v>4000</v>
       </c>
       <c r="G81">
-        <v>3000</v>
+        <v>540</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>2</v>
       </c>
@@ -3340,16 +2756,16 @@
         <v>12</v>
       </c>
       <c r="F82">
-        <v>62</v>
+        <v>4208</v>
       </c>
       <c r="G82">
-        <v>3100</v>
+        <v>540</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>2</v>
       </c>
@@ -3366,16 +2782,16 @@
         <v>12</v>
       </c>
       <c r="F83">
-        <v>64</v>
+        <v>4417</v>
       </c>
       <c r="G83">
-        <v>3200</v>
+        <v>540</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>2</v>
       </c>
@@ -3392,16 +2808,16 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>66</v>
+        <v>4625</v>
       </c>
       <c r="G84">
-        <v>3300</v>
+        <v>540</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>2</v>
       </c>
@@ -3418,16 +2834,16 @@
         <v>12</v>
       </c>
       <c r="F85">
-        <v>68</v>
+        <v>4833</v>
       </c>
       <c r="G85">
-        <v>3400</v>
+        <v>540</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>2</v>
       </c>
@@ -3444,16 +2860,16 @@
         <v>12</v>
       </c>
       <c r="F86">
-        <v>70</v>
+        <v>5042</v>
       </c>
       <c r="G86">
-        <v>3500</v>
+        <v>540</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>2</v>
       </c>
@@ -3470,16 +2886,16 @@
         <v>12</v>
       </c>
       <c r="F87">
-        <v>72</v>
+        <v>5250</v>
       </c>
       <c r="G87">
-        <v>3600</v>
+        <v>540</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>2</v>
       </c>
@@ -3496,16 +2912,16 @@
         <v>12</v>
       </c>
       <c r="F88">
-        <v>74</v>
+        <v>5500</v>
       </c>
       <c r="G88">
-        <v>3700</v>
+        <v>1620</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3522,16 +2938,16 @@
         <v>12</v>
       </c>
       <c r="F89">
-        <v>76</v>
+        <v>5750</v>
       </c>
       <c r="G89">
-        <v>3800</v>
+        <v>1620</v>
       </c>
       <c r="H89">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>2</v>
       </c>
@@ -3548,16 +2964,16 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>78</v>
+        <v>6000</v>
       </c>
       <c r="G90">
-        <v>3900</v>
+        <v>1620</v>
       </c>
       <c r="H90">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>2</v>
       </c>
@@ -3574,16 +2990,16 @@
         <v>12</v>
       </c>
       <c r="F91">
-        <v>80</v>
+        <v>6250</v>
       </c>
       <c r="G91">
-        <v>4000</v>
+        <v>1620</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>2</v>
       </c>
@@ -3600,16 +3016,16 @@
         <v>12</v>
       </c>
       <c r="F92">
-        <v>82</v>
+        <v>6500</v>
       </c>
       <c r="G92">
-        <v>4100</v>
+        <v>1620</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>2</v>
       </c>
@@ -3626,16 +3042,16 @@
         <v>12</v>
       </c>
       <c r="F93">
-        <v>84</v>
+        <v>6750</v>
       </c>
       <c r="G93">
-        <v>4200</v>
+        <v>1620</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>2</v>
       </c>
@@ -3652,16 +3068,16 @@
         <v>12</v>
       </c>
       <c r="F94">
-        <v>86</v>
+        <v>7000</v>
       </c>
       <c r="G94">
-        <v>4300</v>
+        <v>1620</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>2</v>
       </c>
@@ -3678,16 +3094,16 @@
         <v>12</v>
       </c>
       <c r="F95">
-        <v>88</v>
+        <v>7250</v>
       </c>
       <c r="G95">
-        <v>4400</v>
+        <v>1620</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>2</v>
       </c>
@@ -3704,16 +3120,16 @@
         <v>12</v>
       </c>
       <c r="F96">
-        <v>90</v>
+        <v>7500</v>
       </c>
       <c r="G96">
-        <v>4500</v>
+        <v>1620</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>2</v>
       </c>
@@ -3730,16 +3146,16 @@
         <v>12</v>
       </c>
       <c r="F97">
-        <v>92</v>
+        <v>7750</v>
       </c>
       <c r="G97">
-        <v>4600</v>
+        <v>4860</v>
       </c>
       <c r="H97">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>2</v>
       </c>
@@ -3756,16 +3172,16 @@
         <v>12</v>
       </c>
       <c r="F98">
-        <v>94</v>
+        <v>8000</v>
       </c>
       <c r="G98">
-        <v>4700</v>
+        <v>4860</v>
       </c>
       <c r="H98">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>2</v>
       </c>
@@ -3782,16 +3198,16 @@
         <v>12</v>
       </c>
       <c r="F99">
-        <v>96</v>
+        <v>8250</v>
       </c>
       <c r="G99">
-        <v>4800</v>
+        <v>4860</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>2</v>
       </c>
@@ -3808,16 +3224,16 @@
         <v>12</v>
       </c>
       <c r="F100">
-        <v>98</v>
+        <v>8500</v>
       </c>
       <c r="G100">
-        <v>4900</v>
+        <v>4860</v>
       </c>
       <c r="H100">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>2</v>
       </c>
@@ -3834,16 +3250,16 @@
         <v>12</v>
       </c>
       <c r="F101">
-        <v>100</v>
+        <v>8750</v>
       </c>
       <c r="G101">
-        <v>5000</v>
+        <v>4860</v>
       </c>
       <c r="H101">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>3</v>
       </c>
@@ -3860,16 +3276,16 @@
         <v>14</v>
       </c>
       <c r="F102">
-        <v>20</v>
+        <v>3333</v>
       </c>
       <c r="G102">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H102">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>3</v>
       </c>
@@ -3886,16 +3302,16 @@
         <v>14</v>
       </c>
       <c r="F103">
-        <v>40</v>
+        <v>6667</v>
       </c>
       <c r="G103">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H103">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>3</v>
       </c>
@@ -3912,16 +3328,16 @@
         <v>14</v>
       </c>
       <c r="F104">
-        <v>60</v>
+        <v>10000</v>
       </c>
       <c r="G104">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="H104">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>3</v>
       </c>
@@ -3938,16 +3354,16 @@
         <v>14</v>
       </c>
       <c r="F105">
-        <v>80</v>
+        <v>13333</v>
       </c>
       <c r="G105">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>3</v>
       </c>
@@ -3964,16 +3380,16 @@
         <v>14</v>
       </c>
       <c r="F106">
-        <v>100</v>
+        <v>16667</v>
       </c>
       <c r="G106">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>3</v>
       </c>
@@ -3990,16 +3406,16 @@
         <v>14</v>
       </c>
       <c r="F107">
-        <v>120</v>
+        <v>20000</v>
       </c>
       <c r="G107">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="H107">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>3</v>
       </c>
@@ -4016,16 +3432,16 @@
         <v>14</v>
       </c>
       <c r="F108">
-        <v>140</v>
+        <v>23333</v>
       </c>
       <c r="G108">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="H108">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>3</v>
       </c>
@@ -4042,16 +3458,16 @@
         <v>14</v>
       </c>
       <c r="F109">
-        <v>160</v>
+        <v>26667</v>
       </c>
       <c r="G109">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>3</v>
       </c>
@@ -4068,16 +3484,16 @@
         <v>14</v>
       </c>
       <c r="F110">
-        <v>180</v>
+        <v>30000</v>
       </c>
       <c r="G110">
-        <v>900</v>
+        <v>20</v>
       </c>
       <c r="H110">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>3</v>
       </c>
@@ -4094,16 +3510,16 @@
         <v>14</v>
       </c>
       <c r="F111">
-        <v>200</v>
+        <v>35000</v>
       </c>
       <c r="G111">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="H111">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>3</v>
       </c>
@@ -4120,16 +3536,16 @@
         <v>14</v>
       </c>
       <c r="F112">
-        <v>220</v>
+        <v>40000</v>
       </c>
       <c r="G112">
-        <v>1100</v>
+        <v>60</v>
       </c>
       <c r="H112">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>3</v>
       </c>
@@ -4146,16 +3562,16 @@
         <v>14</v>
       </c>
       <c r="F113">
-        <v>240</v>
+        <v>45000</v>
       </c>
       <c r="G113">
-        <v>1200</v>
+        <v>60</v>
       </c>
       <c r="H113">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>3</v>
       </c>
@@ -4172,16 +3588,16 @@
         <v>14</v>
       </c>
       <c r="F114">
-        <v>260</v>
+        <v>50000</v>
       </c>
       <c r="G114">
-        <v>1300</v>
+        <v>60</v>
       </c>
       <c r="H114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>3</v>
       </c>
@@ -4198,16 +3614,16 @@
         <v>14</v>
       </c>
       <c r="F115">
-        <v>280</v>
+        <v>55000</v>
       </c>
       <c r="G115">
-        <v>1400</v>
+        <v>60</v>
       </c>
       <c r="H115">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>3</v>
       </c>
@@ -4224,16 +3640,16 @@
         <v>14</v>
       </c>
       <c r="F116">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="G116">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>3</v>
       </c>
@@ -4250,16 +3666,16 @@
         <v>14</v>
       </c>
       <c r="F117">
-        <v>320</v>
+        <v>65000</v>
       </c>
       <c r="G117">
-        <v>1600</v>
+        <v>60</v>
       </c>
       <c r="H117">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>3</v>
       </c>
@@ -4276,16 +3692,16 @@
         <v>14</v>
       </c>
       <c r="F118">
-        <v>340</v>
+        <v>70000</v>
       </c>
       <c r="G118">
-        <v>1700</v>
+        <v>60</v>
       </c>
       <c r="H118">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>3</v>
       </c>
@@ -4302,16 +3718,16 @@
         <v>14</v>
       </c>
       <c r="F119">
-        <v>360</v>
+        <v>75000</v>
       </c>
       <c r="G119">
-        <v>1800</v>
+        <v>60</v>
       </c>
       <c r="H119">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>3</v>
       </c>
@@ -4328,16 +3744,16 @@
         <v>14</v>
       </c>
       <c r="F120">
-        <v>380</v>
+        <v>81667</v>
       </c>
       <c r="G120">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="H120">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>3</v>
       </c>
@@ -4354,16 +3770,16 @@
         <v>14</v>
       </c>
       <c r="F121">
-        <v>400</v>
+        <v>88333</v>
       </c>
       <c r="G121">
-        <v>2000</v>
+        <v>180</v>
       </c>
       <c r="H121">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>3</v>
       </c>
@@ -4380,16 +3796,16 @@
         <v>14</v>
       </c>
       <c r="F122">
-        <v>420</v>
+        <v>95000</v>
       </c>
       <c r="G122">
-        <v>2100</v>
+        <v>180</v>
       </c>
       <c r="H122">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>3</v>
       </c>
@@ -4406,16 +3822,16 @@
         <v>14</v>
       </c>
       <c r="F123">
-        <v>440</v>
+        <v>101667</v>
       </c>
       <c r="G123">
-        <v>2200</v>
+        <v>180</v>
       </c>
       <c r="H123">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>3</v>
       </c>
@@ -4432,16 +3848,16 @@
         <v>14</v>
       </c>
       <c r="F124">
-        <v>460</v>
+        <v>108333</v>
       </c>
       <c r="G124">
-        <v>2300</v>
+        <v>180</v>
       </c>
       <c r="H124">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>3</v>
       </c>
@@ -4458,16 +3874,16 @@
         <v>14</v>
       </c>
       <c r="F125">
-        <v>480</v>
+        <v>115000</v>
       </c>
       <c r="G125">
-        <v>2400</v>
+        <v>180</v>
       </c>
       <c r="H125">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>3</v>
       </c>
@@ -4484,16 +3900,16 @@
         <v>14</v>
       </c>
       <c r="F126">
-        <v>500</v>
+        <v>121667</v>
       </c>
       <c r="G126">
-        <v>2500</v>
+        <v>180</v>
       </c>
       <c r="H126">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>3</v>
       </c>
@@ -4510,16 +3926,16 @@
         <v>14</v>
       </c>
       <c r="F127">
-        <v>520</v>
+        <v>128333</v>
       </c>
       <c r="G127">
-        <v>2600</v>
+        <v>180</v>
       </c>
       <c r="H127">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>3</v>
       </c>
@@ -4536,16 +3952,16 @@
         <v>14</v>
       </c>
       <c r="F128">
-        <v>540</v>
+        <v>135000</v>
       </c>
       <c r="G128">
-        <v>2700</v>
+        <v>180</v>
       </c>
       <c r="H128">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>3</v>
       </c>
@@ -4562,16 +3978,16 @@
         <v>14</v>
       </c>
       <c r="F129">
-        <v>560</v>
+        <v>143333</v>
       </c>
       <c r="G129">
-        <v>2800</v>
+        <v>540</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>3</v>
       </c>
@@ -4588,16 +4004,16 @@
         <v>14</v>
       </c>
       <c r="F130">
-        <v>580</v>
+        <v>151667</v>
       </c>
       <c r="G130">
-        <v>2900</v>
+        <v>540</v>
       </c>
       <c r="H130">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>3</v>
       </c>
@@ -4614,16 +4030,16 @@
         <v>14</v>
       </c>
       <c r="F131">
-        <v>600</v>
+        <v>160000</v>
       </c>
       <c r="G131">
-        <v>3000</v>
+        <v>540</v>
       </c>
       <c r="H131">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>3</v>
       </c>
@@ -4640,16 +4056,16 @@
         <v>14</v>
       </c>
       <c r="F132">
-        <v>620</v>
+        <v>168333</v>
       </c>
       <c r="G132">
-        <v>3100</v>
+        <v>540</v>
       </c>
       <c r="H132">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>3</v>
       </c>
@@ -4666,16 +4082,16 @@
         <v>14</v>
       </c>
       <c r="F133">
-        <v>640</v>
+        <v>176667</v>
       </c>
       <c r="G133">
-        <v>3200</v>
+        <v>540</v>
       </c>
       <c r="H133">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>3</v>
       </c>
@@ -4692,16 +4108,16 @@
         <v>14</v>
       </c>
       <c r="F134">
-        <v>660</v>
+        <v>185000</v>
       </c>
       <c r="G134">
-        <v>3300</v>
+        <v>540</v>
       </c>
       <c r="H134">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>3</v>
       </c>
@@ -4718,16 +4134,16 @@
         <v>14</v>
       </c>
       <c r="F135">
-        <v>680</v>
+        <v>193333</v>
       </c>
       <c r="G135">
-        <v>3400</v>
+        <v>540</v>
       </c>
       <c r="H135">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>3</v>
       </c>
@@ -4744,16 +4160,16 @@
         <v>14</v>
       </c>
       <c r="F136">
-        <v>700</v>
+        <v>201667</v>
       </c>
       <c r="G136">
-        <v>3500</v>
+        <v>540</v>
       </c>
       <c r="H136">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>3</v>
       </c>
@@ -4770,16 +4186,16 @@
         <v>14</v>
       </c>
       <c r="F137">
-        <v>720</v>
+        <v>210000</v>
       </c>
       <c r="G137">
-        <v>3600</v>
+        <v>540</v>
       </c>
       <c r="H137">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>3</v>
       </c>
@@ -4796,16 +4212,16 @@
         <v>14</v>
       </c>
       <c r="F138">
-        <v>740</v>
+        <v>220000</v>
       </c>
       <c r="G138">
-        <v>3700</v>
+        <v>1620</v>
       </c>
       <c r="H138">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>3</v>
       </c>
@@ -4822,16 +4238,16 @@
         <v>14</v>
       </c>
       <c r="F139">
-        <v>760</v>
+        <v>230000</v>
       </c>
       <c r="G139">
-        <v>3800</v>
+        <v>1620</v>
       </c>
       <c r="H139">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>3</v>
       </c>
@@ -4848,16 +4264,16 @@
         <v>14</v>
       </c>
       <c r="F140">
-        <v>780</v>
+        <v>240000</v>
       </c>
       <c r="G140">
-        <v>3900</v>
+        <v>1620</v>
       </c>
       <c r="H140">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>3</v>
       </c>
@@ -4874,16 +4290,16 @@
         <v>14</v>
       </c>
       <c r="F141">
-        <v>800</v>
+        <v>250000</v>
       </c>
       <c r="G141">
-        <v>4000</v>
+        <v>1620</v>
       </c>
       <c r="H141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>3</v>
       </c>
@@ -4900,16 +4316,16 @@
         <v>14</v>
       </c>
       <c r="F142">
-        <v>820</v>
+        <v>260000</v>
       </c>
       <c r="G142">
-        <v>4100</v>
+        <v>1620</v>
       </c>
       <c r="H142">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>3</v>
       </c>
@@ -4926,16 +4342,16 @@
         <v>14</v>
       </c>
       <c r="F143">
-        <v>840</v>
+        <v>270000</v>
       </c>
       <c r="G143">
-        <v>4200</v>
+        <v>1620</v>
       </c>
       <c r="H143">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4952,16 +4368,16 @@
         <v>14</v>
       </c>
       <c r="F144">
-        <v>860</v>
+        <v>280000</v>
       </c>
       <c r="G144">
-        <v>4300</v>
+        <v>1620</v>
       </c>
       <c r="H144">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>3</v>
       </c>
@@ -4978,16 +4394,16 @@
         <v>14</v>
       </c>
       <c r="F145">
-        <v>880</v>
+        <v>290000</v>
       </c>
       <c r="G145">
-        <v>4400</v>
+        <v>1620</v>
       </c>
       <c r="H145">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>3</v>
       </c>
@@ -5004,16 +4420,16 @@
         <v>14</v>
       </c>
       <c r="F146">
-        <v>900</v>
+        <v>300000</v>
       </c>
       <c r="G146">
-        <v>4500</v>
+        <v>1620</v>
       </c>
       <c r="H146">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>3</v>
       </c>
@@ -5030,16 +4446,16 @@
         <v>14</v>
       </c>
       <c r="F147">
-        <v>920</v>
+        <v>310000</v>
       </c>
       <c r="G147">
-        <v>4600</v>
+        <v>4860</v>
       </c>
       <c r="H147">
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>3</v>
       </c>
@@ -5056,16 +4472,16 @@
         <v>14</v>
       </c>
       <c r="F148">
-        <v>940</v>
+        <v>320000</v>
       </c>
       <c r="G148">
-        <v>4700</v>
+        <v>4860</v>
       </c>
       <c r="H148">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>3</v>
       </c>
@@ -5082,16 +4498,16 @@
         <v>14</v>
       </c>
       <c r="F149">
-        <v>960</v>
+        <v>330000</v>
       </c>
       <c r="G149">
-        <v>4800</v>
+        <v>4860</v>
       </c>
       <c r="H149">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>3</v>
       </c>
@@ -5108,16 +4524,16 @@
         <v>14</v>
       </c>
       <c r="F150">
-        <v>980</v>
+        <v>340000</v>
       </c>
       <c r="G150">
-        <v>4900</v>
+        <v>4860</v>
       </c>
       <c r="H150">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>3</v>
       </c>
@@ -5134,16 +4550,16 @@
         <v>14</v>
       </c>
       <c r="F151">
-        <v>1000</v>
+        <v>350000</v>
       </c>
       <c r="G151">
-        <v>5000</v>
+        <v>4860</v>
       </c>
       <c r="H151">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>4</v>
       </c>
@@ -5160,16 +4576,16 @@
         <v>16</v>
       </c>
       <c r="F152">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G152">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H152">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>4</v>
       </c>
@@ -5186,16 +4602,16 @@
         <v>16</v>
       </c>
       <c r="F153">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G153">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H153">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>4</v>
       </c>
@@ -5212,16 +4628,16 @@
         <v>16</v>
       </c>
       <c r="F154">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G154">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="H154">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>4</v>
       </c>
@@ -5238,16 +4654,16 @@
         <v>16</v>
       </c>
       <c r="F155">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G155">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="H155">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>4</v>
       </c>
@@ -5264,16 +4680,16 @@
         <v>16</v>
       </c>
       <c r="F156">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G156">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="H156">
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>4</v>
       </c>
@@ -5290,16 +4706,16 @@
         <v>16</v>
       </c>
       <c r="F157">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="G157">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="H157">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>4</v>
       </c>
@@ -5316,16 +4732,16 @@
         <v>16</v>
       </c>
       <c r="F158">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="G158">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="H158">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>4</v>
       </c>
@@ -5342,16 +4758,16 @@
         <v>16</v>
       </c>
       <c r="F159">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="G159">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="H159">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>4</v>
       </c>
@@ -5368,16 +4784,16 @@
         <v>16</v>
       </c>
       <c r="F160">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="G160">
-        <v>900</v>
+        <v>20</v>
       </c>
       <c r="H160">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>4</v>
       </c>
@@ -5394,16 +4810,16 @@
         <v>16</v>
       </c>
       <c r="F161">
-        <v>200</v>
+        <v>525</v>
       </c>
       <c r="G161">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="H161">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>4</v>
       </c>
@@ -5420,16 +4836,16 @@
         <v>16</v>
       </c>
       <c r="F162">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="G162">
-        <v>1100</v>
+        <v>60</v>
       </c>
       <c r="H162">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>4</v>
       </c>
@@ -5446,16 +4862,16 @@
         <v>16</v>
       </c>
       <c r="F163">
-        <v>240</v>
+        <v>675</v>
       </c>
       <c r="G163">
-        <v>1200</v>
+        <v>60</v>
       </c>
       <c r="H163">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>4</v>
       </c>
@@ -5472,16 +4888,16 @@
         <v>16</v>
       </c>
       <c r="F164">
-        <v>260</v>
+        <v>750</v>
       </c>
       <c r="G164">
-        <v>1300</v>
+        <v>60</v>
       </c>
       <c r="H164">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>4</v>
       </c>
@@ -5498,16 +4914,16 @@
         <v>16</v>
       </c>
       <c r="F165">
-        <v>280</v>
+        <v>825</v>
       </c>
       <c r="G165">
-        <v>1400</v>
+        <v>60</v>
       </c>
       <c r="H165">
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>4</v>
       </c>
@@ -5524,16 +4940,16 @@
         <v>16</v>
       </c>
       <c r="F166">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G166">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="H166">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>4</v>
       </c>
@@ -5550,16 +4966,16 @@
         <v>16</v>
       </c>
       <c r="F167">
-        <v>320</v>
+        <v>975</v>
       </c>
       <c r="G167">
-        <v>1600</v>
+        <v>60</v>
       </c>
       <c r="H167">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>4</v>
       </c>
@@ -5576,16 +4992,16 @@
         <v>16</v>
       </c>
       <c r="F168">
-        <v>340</v>
+        <v>1050</v>
       </c>
       <c r="G168">
-        <v>1700</v>
+        <v>60</v>
       </c>
       <c r="H168">
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>4</v>
       </c>
@@ -5602,16 +5018,16 @@
         <v>16</v>
       </c>
       <c r="F169">
-        <v>360</v>
+        <v>1125</v>
       </c>
       <c r="G169">
-        <v>1800</v>
+        <v>60</v>
       </c>
       <c r="H169">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>4</v>
       </c>
@@ -5628,16 +5044,16 @@
         <v>16</v>
       </c>
       <c r="F170">
-        <v>380</v>
+        <v>1225</v>
       </c>
       <c r="G170">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="H170">
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>4</v>
       </c>
@@ -5654,16 +5070,16 @@
         <v>16</v>
       </c>
       <c r="F171">
-        <v>400</v>
+        <v>1325</v>
       </c>
       <c r="G171">
-        <v>2000</v>
+        <v>180</v>
       </c>
       <c r="H171">
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>4</v>
       </c>
@@ -5680,16 +5096,16 @@
         <v>16</v>
       </c>
       <c r="F172">
-        <v>420</v>
+        <v>1425</v>
       </c>
       <c r="G172">
-        <v>2100</v>
+        <v>180</v>
       </c>
       <c r="H172">
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>4</v>
       </c>
@@ -5706,16 +5122,16 @@
         <v>16</v>
       </c>
       <c r="F173">
-        <v>440</v>
+        <v>1525</v>
       </c>
       <c r="G173">
-        <v>2200</v>
+        <v>180</v>
       </c>
       <c r="H173">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>4</v>
       </c>
@@ -5732,16 +5148,16 @@
         <v>16</v>
       </c>
       <c r="F174">
-        <v>460</v>
+        <v>1625</v>
       </c>
       <c r="G174">
-        <v>2300</v>
+        <v>180</v>
       </c>
       <c r="H174">
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>4</v>
       </c>
@@ -5758,16 +5174,16 @@
         <v>16</v>
       </c>
       <c r="F175">
-        <v>480</v>
+        <v>1725</v>
       </c>
       <c r="G175">
-        <v>2400</v>
+        <v>180</v>
       </c>
       <c r="H175">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>4</v>
       </c>
@@ -5784,16 +5200,16 @@
         <v>16</v>
       </c>
       <c r="F176">
-        <v>500</v>
+        <v>1825</v>
       </c>
       <c r="G176">
-        <v>2500</v>
+        <v>180</v>
       </c>
       <c r="H176">
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>4</v>
       </c>
@@ -5810,16 +5226,16 @@
         <v>16</v>
       </c>
       <c r="F177">
-        <v>520</v>
+        <v>1925</v>
       </c>
       <c r="G177">
-        <v>2600</v>
+        <v>180</v>
       </c>
       <c r="H177">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>4</v>
       </c>
@@ -5836,16 +5252,16 @@
         <v>16</v>
       </c>
       <c r="F178">
-        <v>540</v>
+        <v>2025</v>
       </c>
       <c r="G178">
-        <v>2700</v>
+        <v>180</v>
       </c>
       <c r="H178">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>4</v>
       </c>
@@ -5862,16 +5278,16 @@
         <v>16</v>
       </c>
       <c r="F179">
-        <v>560</v>
+        <v>2150</v>
       </c>
       <c r="G179">
-        <v>2800</v>
+        <v>540</v>
       </c>
       <c r="H179">
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>4</v>
       </c>
@@ -5888,16 +5304,16 @@
         <v>16</v>
       </c>
       <c r="F180">
-        <v>580</v>
+        <v>2275</v>
       </c>
       <c r="G180">
-        <v>2900</v>
+        <v>540</v>
       </c>
       <c r="H180">
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>4</v>
       </c>
@@ -5914,16 +5330,16 @@
         <v>16</v>
       </c>
       <c r="F181">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="G181">
-        <v>3000</v>
+        <v>540</v>
       </c>
       <c r="H181">
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>4</v>
       </c>
@@ -5940,16 +5356,16 @@
         <v>16</v>
       </c>
       <c r="F182">
-        <v>620</v>
+        <v>2525</v>
       </c>
       <c r="G182">
-        <v>3100</v>
+        <v>540</v>
       </c>
       <c r="H182">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>4</v>
       </c>
@@ -5966,16 +5382,16 @@
         <v>16</v>
       </c>
       <c r="F183">
-        <v>640</v>
+        <v>2650</v>
       </c>
       <c r="G183">
-        <v>3200</v>
+        <v>540</v>
       </c>
       <c r="H183">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>4</v>
       </c>
@@ -5992,16 +5408,16 @@
         <v>16</v>
       </c>
       <c r="F184">
-        <v>660</v>
+        <v>2775</v>
       </c>
       <c r="G184">
-        <v>3300</v>
+        <v>540</v>
       </c>
       <c r="H184">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>4</v>
       </c>
@@ -6018,16 +5434,16 @@
         <v>16</v>
       </c>
       <c r="F185">
-        <v>680</v>
+        <v>2900</v>
       </c>
       <c r="G185">
-        <v>3400</v>
+        <v>540</v>
       </c>
       <c r="H185">
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>4</v>
       </c>
@@ -6044,16 +5460,16 @@
         <v>16</v>
       </c>
       <c r="F186">
-        <v>700</v>
+        <v>3025</v>
       </c>
       <c r="G186">
-        <v>3500</v>
+        <v>540</v>
       </c>
       <c r="H186">
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>4</v>
       </c>
@@ -6070,16 +5486,16 @@
         <v>16</v>
       </c>
       <c r="F187">
-        <v>720</v>
+        <v>3150</v>
       </c>
       <c r="G187">
-        <v>3600</v>
+        <v>540</v>
       </c>
       <c r="H187">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>4</v>
       </c>
@@ -6096,16 +5512,16 @@
         <v>16</v>
       </c>
       <c r="F188">
-        <v>740</v>
+        <v>3300</v>
       </c>
       <c r="G188">
-        <v>3700</v>
+        <v>1620</v>
       </c>
       <c r="H188">
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>4</v>
       </c>
@@ -6122,16 +5538,16 @@
         <v>16</v>
       </c>
       <c r="F189">
-        <v>760</v>
+        <v>3450</v>
       </c>
       <c r="G189">
-        <v>3800</v>
+        <v>1620</v>
       </c>
       <c r="H189">
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>4</v>
       </c>
@@ -6148,16 +5564,16 @@
         <v>16</v>
       </c>
       <c r="F190">
-        <v>780</v>
+        <v>3600</v>
       </c>
       <c r="G190">
-        <v>3900</v>
+        <v>1620</v>
       </c>
       <c r="H190">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>4</v>
       </c>
@@ -6174,16 +5590,16 @@
         <v>16</v>
       </c>
       <c r="F191">
-        <v>800</v>
+        <v>3750</v>
       </c>
       <c r="G191">
-        <v>4000</v>
+        <v>1620</v>
       </c>
       <c r="H191">
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>4</v>
       </c>
@@ -6200,16 +5616,16 @@
         <v>16</v>
       </c>
       <c r="F192">
-        <v>820</v>
+        <v>3900</v>
       </c>
       <c r="G192">
-        <v>4100</v>
+        <v>1620</v>
       </c>
       <c r="H192">
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>4</v>
       </c>
@@ -6226,16 +5642,16 @@
         <v>16</v>
       </c>
       <c r="F193">
-        <v>840</v>
+        <v>4050</v>
       </c>
       <c r="G193">
-        <v>4200</v>
+        <v>1620</v>
       </c>
       <c r="H193">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>4</v>
       </c>
@@ -6252,16 +5668,16 @@
         <v>16</v>
       </c>
       <c r="F194">
-        <v>860</v>
+        <v>4200</v>
       </c>
       <c r="G194">
-        <v>4300</v>
+        <v>1620</v>
       </c>
       <c r="H194">
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>4</v>
       </c>
@@ -6278,16 +5694,16 @@
         <v>16</v>
       </c>
       <c r="F195">
-        <v>880</v>
+        <v>4350</v>
       </c>
       <c r="G195">
-        <v>4400</v>
+        <v>1620</v>
       </c>
       <c r="H195">
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>4</v>
       </c>
@@ -6304,16 +5720,16 @@
         <v>16</v>
       </c>
       <c r="F196">
-        <v>900</v>
+        <v>4500</v>
       </c>
       <c r="G196">
-        <v>4500</v>
+        <v>1620</v>
       </c>
       <c r="H196">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>4</v>
       </c>
@@ -6330,16 +5746,16 @@
         <v>16</v>
       </c>
       <c r="F197">
-        <v>920</v>
+        <v>4650</v>
       </c>
       <c r="G197">
-        <v>4600</v>
+        <v>4860</v>
       </c>
       <c r="H197">
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>4</v>
       </c>
@@ -6356,16 +5772,16 @@
         <v>16</v>
       </c>
       <c r="F198">
-        <v>940</v>
+        <v>4800</v>
       </c>
       <c r="G198">
-        <v>4700</v>
+        <v>4860</v>
       </c>
       <c r="H198">
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>4</v>
       </c>
@@ -6382,16 +5798,16 @@
         <v>16</v>
       </c>
       <c r="F199">
-        <v>960</v>
+        <v>4950</v>
       </c>
       <c r="G199">
-        <v>4800</v>
+        <v>4860</v>
       </c>
       <c r="H199">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>4</v>
       </c>
@@ -6408,16 +5824,16 @@
         <v>16</v>
       </c>
       <c r="F200">
-        <v>980</v>
+        <v>5100</v>
       </c>
       <c r="G200">
-        <v>4900</v>
+        <v>4860</v>
       </c>
       <c r="H200">
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>4</v>
       </c>
@@ -6434,16 +5850,16 @@
         <v>16</v>
       </c>
       <c r="F201">
-        <v>1000</v>
+        <v>5250</v>
       </c>
       <c r="G201">
-        <v>5000</v>
+        <v>4860</v>
       </c>
       <c r="H201">
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>5</v>
       </c>
@@ -6460,16 +5876,16 @@
         <v>18</v>
       </c>
       <c r="F202">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="G202">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H202">
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>5</v>
       </c>
@@ -6486,16 +5902,16 @@
         <v>18</v>
       </c>
       <c r="F203">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="G203">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H203">
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>5</v>
       </c>
@@ -6512,16 +5928,16 @@
         <v>18</v>
       </c>
       <c r="F204">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="G204">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="H204">
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>5</v>
       </c>
@@ -6538,16 +5954,16 @@
         <v>18</v>
       </c>
       <c r="F205">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="G205">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="H205">
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>5</v>
       </c>
@@ -6564,16 +5980,16 @@
         <v>18</v>
       </c>
       <c r="F206">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="G206">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="H206">
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>5</v>
       </c>
@@ -6590,16 +6006,16 @@
         <v>18</v>
       </c>
       <c r="F207">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="G207">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="H207">
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>5</v>
       </c>
@@ -6616,16 +6032,16 @@
         <v>18</v>
       </c>
       <c r="F208">
-        <v>14</v>
+        <v>1400</v>
       </c>
       <c r="G208">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="H208">
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>5</v>
       </c>
@@ -6642,16 +6058,16 @@
         <v>18</v>
       </c>
       <c r="F209">
-        <v>16</v>
+        <v>1600</v>
       </c>
       <c r="G209">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="H209">
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>5</v>
       </c>
@@ -6668,16 +6084,16 @@
         <v>18</v>
       </c>
       <c r="F210">
-        <v>18</v>
+        <v>1800</v>
       </c>
       <c r="G210">
-        <v>900</v>
+        <v>20</v>
       </c>
       <c r="H210">
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>5</v>
       </c>
@@ -6694,16 +6110,16 @@
         <v>18</v>
       </c>
       <c r="F211">
-        <v>20</v>
+        <v>2100</v>
       </c>
       <c r="G211">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="H211">
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>5</v>
       </c>
@@ -6720,16 +6136,16 @@
         <v>18</v>
       </c>
       <c r="F212">
-        <v>22</v>
+        <v>2400</v>
       </c>
       <c r="G212">
-        <v>1100</v>
+        <v>60</v>
       </c>
       <c r="H212">
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>5</v>
       </c>
@@ -6746,16 +6162,16 @@
         <v>18</v>
       </c>
       <c r="F213">
-        <v>24</v>
+        <v>2700</v>
       </c>
       <c r="G213">
-        <v>1200</v>
+        <v>60</v>
       </c>
       <c r="H213">
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>5</v>
       </c>
@@ -6772,16 +6188,16 @@
         <v>18</v>
       </c>
       <c r="F214">
-        <v>26</v>
+        <v>3000</v>
       </c>
       <c r="G214">
-        <v>1300</v>
+        <v>60</v>
       </c>
       <c r="H214">
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>5</v>
       </c>
@@ -6798,16 +6214,16 @@
         <v>18</v>
       </c>
       <c r="F215">
-        <v>28</v>
+        <v>3300</v>
       </c>
       <c r="G215">
-        <v>1400</v>
+        <v>60</v>
       </c>
       <c r="H215">
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>5</v>
       </c>
@@ -6824,16 +6240,16 @@
         <v>18</v>
       </c>
       <c r="F216">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="G216">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="H216">
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>5</v>
       </c>
@@ -6850,16 +6266,16 @@
         <v>18</v>
       </c>
       <c r="F217">
-        <v>32</v>
+        <v>3900</v>
       </c>
       <c r="G217">
-        <v>1600</v>
+        <v>60</v>
       </c>
       <c r="H217">
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>5</v>
       </c>
@@ -6876,16 +6292,16 @@
         <v>18</v>
       </c>
       <c r="F218">
-        <v>34</v>
+        <v>4200</v>
       </c>
       <c r="G218">
-        <v>1700</v>
+        <v>60</v>
       </c>
       <c r="H218">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>5</v>
       </c>
@@ -6902,16 +6318,16 @@
         <v>18</v>
       </c>
       <c r="F219">
-        <v>36</v>
+        <v>4500</v>
       </c>
       <c r="G219">
-        <v>1800</v>
+        <v>60</v>
       </c>
       <c r="H219">
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>5</v>
       </c>
@@ -6928,16 +6344,16 @@
         <v>18</v>
       </c>
       <c r="F220">
-        <v>38</v>
+        <v>4900</v>
       </c>
       <c r="G220">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="H220">
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>5</v>
       </c>
@@ -6954,16 +6370,16 @@
         <v>18</v>
       </c>
       <c r="F221">
-        <v>40</v>
+        <v>5300</v>
       </c>
       <c r="G221">
-        <v>2000</v>
+        <v>180</v>
       </c>
       <c r="H221">
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>5</v>
       </c>
@@ -6980,16 +6396,16 @@
         <v>18</v>
       </c>
       <c r="F222">
-        <v>42</v>
+        <v>5700</v>
       </c>
       <c r="G222">
-        <v>2100</v>
+        <v>180</v>
       </c>
       <c r="H222">
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>5</v>
       </c>
@@ -7006,16 +6422,16 @@
         <v>18</v>
       </c>
       <c r="F223">
-        <v>44</v>
+        <v>6100</v>
       </c>
       <c r="G223">
-        <v>2200</v>
+        <v>180</v>
       </c>
       <c r="H223">
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>5</v>
       </c>
@@ -7032,16 +6448,16 @@
         <v>18</v>
       </c>
       <c r="F224">
-        <v>46</v>
+        <v>6500</v>
       </c>
       <c r="G224">
-        <v>2300</v>
+        <v>180</v>
       </c>
       <c r="H224">
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>5</v>
       </c>
@@ -7058,16 +6474,16 @@
         <v>18</v>
       </c>
       <c r="F225">
-        <v>48</v>
+        <v>6900</v>
       </c>
       <c r="G225">
-        <v>2400</v>
+        <v>180</v>
       </c>
       <c r="H225">
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>5</v>
       </c>
@@ -7084,16 +6500,16 @@
         <v>18</v>
       </c>
       <c r="F226">
-        <v>50</v>
+        <v>7300</v>
       </c>
       <c r="G226">
-        <v>2500</v>
+        <v>180</v>
       </c>
       <c r="H226">
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>5</v>
       </c>
@@ -7110,16 +6526,16 @@
         <v>18</v>
       </c>
       <c r="F227">
-        <v>52</v>
+        <v>7700</v>
       </c>
       <c r="G227">
-        <v>2600</v>
+        <v>180</v>
       </c>
       <c r="H227">
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>5</v>
       </c>
@@ -7136,16 +6552,16 @@
         <v>18</v>
       </c>
       <c r="F228">
-        <v>54</v>
+        <v>8100</v>
       </c>
       <c r="G228">
-        <v>2700</v>
+        <v>180</v>
       </c>
       <c r="H228">
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>5</v>
       </c>
@@ -7162,16 +6578,16 @@
         <v>18</v>
       </c>
       <c r="F229">
-        <v>56</v>
+        <v>8600</v>
       </c>
       <c r="G229">
-        <v>2800</v>
+        <v>540</v>
       </c>
       <c r="H229">
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>5</v>
       </c>
@@ -7188,16 +6604,16 @@
         <v>18</v>
       </c>
       <c r="F230">
-        <v>58</v>
+        <v>9100</v>
       </c>
       <c r="G230">
-        <v>2900</v>
+        <v>540</v>
       </c>
       <c r="H230">
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>5</v>
       </c>
@@ -7214,16 +6630,16 @@
         <v>18</v>
       </c>
       <c r="F231">
-        <v>60</v>
+        <v>9600</v>
       </c>
       <c r="G231">
-        <v>3000</v>
+        <v>540</v>
       </c>
       <c r="H231">
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>5</v>
       </c>
@@ -7240,16 +6656,16 @@
         <v>18</v>
       </c>
       <c r="F232">
-        <v>62</v>
+        <v>10100</v>
       </c>
       <c r="G232">
-        <v>3100</v>
+        <v>540</v>
       </c>
       <c r="H232">
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>5</v>
       </c>
@@ -7266,16 +6682,16 @@
         <v>18</v>
       </c>
       <c r="F233">
-        <v>64</v>
+        <v>10600</v>
       </c>
       <c r="G233">
-        <v>3200</v>
+        <v>540</v>
       </c>
       <c r="H233">
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>5</v>
       </c>
@@ -7292,16 +6708,16 @@
         <v>18</v>
       </c>
       <c r="F234">
-        <v>66</v>
+        <v>11100</v>
       </c>
       <c r="G234">
-        <v>3300</v>
+        <v>540</v>
       </c>
       <c r="H234">
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>5</v>
       </c>
@@ -7318,16 +6734,16 @@
         <v>18</v>
       </c>
       <c r="F235">
-        <v>68</v>
+        <v>11600</v>
       </c>
       <c r="G235">
-        <v>3400</v>
+        <v>540</v>
       </c>
       <c r="H235">
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>5</v>
       </c>
@@ -7344,16 +6760,16 @@
         <v>18</v>
       </c>
       <c r="F236">
-        <v>70</v>
+        <v>12100</v>
       </c>
       <c r="G236">
-        <v>3500</v>
+        <v>540</v>
       </c>
       <c r="H236">
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>5</v>
       </c>
@@ -7370,16 +6786,16 @@
         <v>18</v>
       </c>
       <c r="F237">
-        <v>72</v>
+        <v>12600</v>
       </c>
       <c r="G237">
-        <v>3600</v>
+        <v>540</v>
       </c>
       <c r="H237">
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>5</v>
       </c>
@@ -7396,16 +6812,16 @@
         <v>18</v>
       </c>
       <c r="F238">
-        <v>74</v>
+        <v>13200</v>
       </c>
       <c r="G238">
-        <v>3700</v>
+        <v>1620</v>
       </c>
       <c r="H238">
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>5</v>
       </c>
@@ -7422,16 +6838,16 @@
         <v>18</v>
       </c>
       <c r="F239">
-        <v>76</v>
+        <v>13800</v>
       </c>
       <c r="G239">
-        <v>3800</v>
+        <v>1620</v>
       </c>
       <c r="H239">
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>5</v>
       </c>
@@ -7448,16 +6864,16 @@
         <v>18</v>
       </c>
       <c r="F240">
-        <v>78</v>
+        <v>14400</v>
       </c>
       <c r="G240">
-        <v>3900</v>
+        <v>1620</v>
       </c>
       <c r="H240">
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>5</v>
       </c>
@@ -7474,16 +6890,16 @@
         <v>18</v>
       </c>
       <c r="F241">
-        <v>80</v>
+        <v>15000</v>
       </c>
       <c r="G241">
-        <v>4000</v>
+        <v>1620</v>
       </c>
       <c r="H241">
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>5</v>
       </c>
@@ -7500,16 +6916,16 @@
         <v>18</v>
       </c>
       <c r="F242">
-        <v>82</v>
+        <v>15600</v>
       </c>
       <c r="G242">
-        <v>4100</v>
+        <v>1620</v>
       </c>
       <c r="H242">
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>5</v>
       </c>
@@ -7526,16 +6942,16 @@
         <v>18</v>
       </c>
       <c r="F243">
-        <v>84</v>
+        <v>16200</v>
       </c>
       <c r="G243">
-        <v>4200</v>
+        <v>1620</v>
       </c>
       <c r="H243">
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>5</v>
       </c>
@@ -7552,16 +6968,16 @@
         <v>18</v>
       </c>
       <c r="F244">
-        <v>86</v>
+        <v>16800</v>
       </c>
       <c r="G244">
-        <v>4300</v>
+        <v>1620</v>
       </c>
       <c r="H244">
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>5</v>
       </c>
@@ -7578,16 +6994,16 @@
         <v>18</v>
       </c>
       <c r="F245">
-        <v>88</v>
+        <v>17400</v>
       </c>
       <c r="G245">
-        <v>4400</v>
+        <v>1620</v>
       </c>
       <c r="H245">
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>5</v>
       </c>
@@ -7604,16 +7020,16 @@
         <v>18</v>
       </c>
       <c r="F246">
-        <v>90</v>
+        <v>18000</v>
       </c>
       <c r="G246">
-        <v>4500</v>
+        <v>1620</v>
       </c>
       <c r="H246">
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>5</v>
       </c>
@@ -7630,16 +7046,16 @@
         <v>18</v>
       </c>
       <c r="F247">
-        <v>92</v>
+        <v>18600</v>
       </c>
       <c r="G247">
-        <v>4600</v>
+        <v>4860</v>
       </c>
       <c r="H247">
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>5</v>
       </c>
@@ -7656,16 +7072,16 @@
         <v>18</v>
       </c>
       <c r="F248">
-        <v>94</v>
+        <v>19200</v>
       </c>
       <c r="G248">
-        <v>4700</v>
+        <v>4860</v>
       </c>
       <c r="H248">
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>5</v>
       </c>
@@ -7682,16 +7098,16 @@
         <v>18</v>
       </c>
       <c r="F249">
-        <v>96</v>
+        <v>19800</v>
       </c>
       <c r="G249">
-        <v>4800</v>
+        <v>4860</v>
       </c>
       <c r="H249">
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>5</v>
       </c>
@@ -7708,16 +7124,16 @@
         <v>18</v>
       </c>
       <c r="F250">
-        <v>98</v>
+        <v>20400</v>
       </c>
       <c r="G250">
-        <v>4900</v>
+        <v>4860</v>
       </c>
       <c r="H250">
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>5</v>
       </c>
@@ -7734,16 +7150,16 @@
         <v>18</v>
       </c>
       <c r="F251">
-        <v>100</v>
+        <v>21000</v>
       </c>
       <c r="G251">
-        <v>5000</v>
+        <v>4860</v>
       </c>
       <c r="H251">
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>6</v>
       </c>
@@ -7763,13 +7179,13 @@
         <v>50</v>
       </c>
       <c r="G252">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H252">
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>6</v>
       </c>
@@ -7789,13 +7205,13 @@
         <v>100</v>
       </c>
       <c r="G253">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H253">
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>6</v>
       </c>
@@ -7815,13 +7231,13 @@
         <v>150</v>
       </c>
       <c r="G254">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="H254">
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>6</v>
       </c>
@@ -7841,13 +7257,13 @@
         <v>200</v>
       </c>
       <c r="G255">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="H255">
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>6</v>
       </c>
@@ -7867,13 +7283,13 @@
         <v>250</v>
       </c>
       <c r="G256">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="H256">
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>6</v>
       </c>
@@ -7893,13 +7309,13 @@
         <v>300</v>
       </c>
       <c r="G257">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="H257">
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>6</v>
       </c>
@@ -7919,13 +7335,13 @@
         <v>350</v>
       </c>
       <c r="G258">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="H258">
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>6</v>
       </c>
@@ -7945,13 +7361,13 @@
         <v>400</v>
       </c>
       <c r="G259">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="H259">
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>6</v>
       </c>
@@ -7971,13 +7387,13 @@
         <v>450</v>
       </c>
       <c r="G260">
-        <v>900</v>
+        <v>20</v>
       </c>
       <c r="H260">
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>6</v>
       </c>
@@ -7994,16 +7410,16 @@
         <v>20</v>
       </c>
       <c r="F261">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="G261">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="H261">
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>6</v>
       </c>
@@ -8020,16 +7436,16 @@
         <v>20</v>
       </c>
       <c r="F262">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="G262">
-        <v>1100</v>
+        <v>60</v>
       </c>
       <c r="H262">
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>6</v>
       </c>
@@ -8046,16 +7462,16 @@
         <v>20</v>
       </c>
       <c r="F263">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="G263">
-        <v>1200</v>
+        <v>60</v>
       </c>
       <c r="H263">
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>6</v>
       </c>
@@ -8072,16 +7488,16 @@
         <v>20</v>
       </c>
       <c r="F264">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="G264">
-        <v>1300</v>
+        <v>60</v>
       </c>
       <c r="H264">
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>6</v>
       </c>
@@ -8098,16 +7514,16 @@
         <v>20</v>
       </c>
       <c r="F265">
-        <v>700</v>
+        <v>825</v>
       </c>
       <c r="G265">
-        <v>1400</v>
+        <v>60</v>
       </c>
       <c r="H265">
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>6</v>
       </c>
@@ -8124,16 +7540,16 @@
         <v>20</v>
       </c>
       <c r="F266">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="G266">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="H266">
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>6</v>
       </c>
@@ -8150,16 +7566,16 @@
         <v>20</v>
       </c>
       <c r="F267">
-        <v>800</v>
+        <v>975</v>
       </c>
       <c r="G267">
-        <v>1600</v>
+        <v>60</v>
       </c>
       <c r="H267">
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>6</v>
       </c>
@@ -8176,16 +7592,16 @@
         <v>20</v>
       </c>
       <c r="F268">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="G268">
-        <v>1700</v>
+        <v>60</v>
       </c>
       <c r="H268">
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>6</v>
       </c>
@@ -8202,16 +7618,16 @@
         <v>20</v>
       </c>
       <c r="F269">
-        <v>900</v>
+        <v>1125</v>
       </c>
       <c r="G269">
-        <v>1800</v>
+        <v>60</v>
       </c>
       <c r="H269">
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>6</v>
       </c>
@@ -8228,16 +7644,16 @@
         <v>20</v>
       </c>
       <c r="F270">
-        <v>950</v>
+        <v>1225</v>
       </c>
       <c r="G270">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="H270">
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>6</v>
       </c>
@@ -8254,16 +7670,16 @@
         <v>20</v>
       </c>
       <c r="F271">
-        <v>1000</v>
+        <v>1325</v>
       </c>
       <c r="G271">
-        <v>2000</v>
+        <v>180</v>
       </c>
       <c r="H271">
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>6</v>
       </c>
@@ -8280,16 +7696,16 @@
         <v>20</v>
       </c>
       <c r="F272">
-        <v>1050</v>
+        <v>1425</v>
       </c>
       <c r="G272">
-        <v>2100</v>
+        <v>180</v>
       </c>
       <c r="H272">
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>6</v>
       </c>
@@ -8306,16 +7722,16 @@
         <v>20</v>
       </c>
       <c r="F273">
-        <v>1100</v>
+        <v>1525</v>
       </c>
       <c r="G273">
-        <v>2200</v>
+        <v>180</v>
       </c>
       <c r="H273">
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>6</v>
       </c>
@@ -8332,16 +7748,16 @@
         <v>20</v>
       </c>
       <c r="F274">
-        <v>1150</v>
+        <v>1625</v>
       </c>
       <c r="G274">
-        <v>2300</v>
+        <v>180</v>
       </c>
       <c r="H274">
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>6</v>
       </c>
@@ -8358,16 +7774,16 @@
         <v>20</v>
       </c>
       <c r="F275">
-        <v>1200</v>
+        <v>1725</v>
       </c>
       <c r="G275">
-        <v>2400</v>
+        <v>180</v>
       </c>
       <c r="H275">
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>6</v>
       </c>
@@ -8384,16 +7800,16 @@
         <v>20</v>
       </c>
       <c r="F276">
-        <v>1250</v>
+        <v>1825</v>
       </c>
       <c r="G276">
-        <v>2500</v>
+        <v>180</v>
       </c>
       <c r="H276">
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>6</v>
       </c>
@@ -8410,16 +7826,16 @@
         <v>20</v>
       </c>
       <c r="F277">
-        <v>1300</v>
+        <v>1925</v>
       </c>
       <c r="G277">
-        <v>2600</v>
+        <v>180</v>
       </c>
       <c r="H277">
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>6</v>
       </c>
@@ -8436,16 +7852,16 @@
         <v>20</v>
       </c>
       <c r="F278">
-        <v>1350</v>
+        <v>2025</v>
       </c>
       <c r="G278">
-        <v>2700</v>
+        <v>180</v>
       </c>
       <c r="H278">
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>6</v>
       </c>
@@ -8462,16 +7878,16 @@
         <v>20</v>
       </c>
       <c r="F279">
-        <v>1400</v>
+        <v>2150</v>
       </c>
       <c r="G279">
-        <v>2800</v>
+        <v>540</v>
       </c>
       <c r="H279">
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>6</v>
       </c>
@@ -8488,16 +7904,16 @@
         <v>20</v>
       </c>
       <c r="F280">
-        <v>1450</v>
+        <v>2275</v>
       </c>
       <c r="G280">
-        <v>2900</v>
+        <v>540</v>
       </c>
       <c r="H280">
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>6</v>
       </c>
@@ -8514,16 +7930,16 @@
         <v>20</v>
       </c>
       <c r="F281">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G281">
-        <v>3000</v>
+        <v>540</v>
       </c>
       <c r="H281">
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>6</v>
       </c>
@@ -8540,16 +7956,16 @@
         <v>20</v>
       </c>
       <c r="F282">
-        <v>1550</v>
+        <v>2525</v>
       </c>
       <c r="G282">
-        <v>3100</v>
+        <v>540</v>
       </c>
       <c r="H282">
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>6</v>
       </c>
@@ -8566,16 +7982,16 @@
         <v>20</v>
       </c>
       <c r="F283">
-        <v>1600</v>
+        <v>2650</v>
       </c>
       <c r="G283">
-        <v>3200</v>
+        <v>540</v>
       </c>
       <c r="H283">
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>6</v>
       </c>
@@ -8592,16 +8008,16 @@
         <v>20</v>
       </c>
       <c r="F284">
-        <v>1650</v>
+        <v>2775</v>
       </c>
       <c r="G284">
-        <v>3300</v>
+        <v>540</v>
       </c>
       <c r="H284">
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>6</v>
       </c>
@@ -8618,16 +8034,16 @@
         <v>20</v>
       </c>
       <c r="F285">
-        <v>1700</v>
+        <v>2900</v>
       </c>
       <c r="G285">
-        <v>3400</v>
+        <v>540</v>
       </c>
       <c r="H285">
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>6</v>
       </c>
@@ -8644,16 +8060,16 @@
         <v>20</v>
       </c>
       <c r="F286">
-        <v>1750</v>
+        <v>3025</v>
       </c>
       <c r="G286">
-        <v>3500</v>
+        <v>540</v>
       </c>
       <c r="H286">
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>6</v>
       </c>
@@ -8670,16 +8086,16 @@
         <v>20</v>
       </c>
       <c r="F287">
-        <v>1800</v>
+        <v>3150</v>
       </c>
       <c r="G287">
-        <v>3600</v>
+        <v>540</v>
       </c>
       <c r="H287">
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>6</v>
       </c>
@@ -8696,16 +8112,16 @@
         <v>20</v>
       </c>
       <c r="F288">
-        <v>1850</v>
+        <v>3300</v>
       </c>
       <c r="G288">
-        <v>3700</v>
+        <v>1620</v>
       </c>
       <c r="H288">
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>6</v>
       </c>
@@ -8722,16 +8138,16 @@
         <v>20</v>
       </c>
       <c r="F289">
-        <v>1900</v>
+        <v>3450</v>
       </c>
       <c r="G289">
-        <v>3800</v>
+        <v>1620</v>
       </c>
       <c r="H289">
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>6</v>
       </c>
@@ -8748,16 +8164,16 @@
         <v>20</v>
       </c>
       <c r="F290">
-        <v>1950</v>
+        <v>3600</v>
       </c>
       <c r="G290">
-        <v>3900</v>
+        <v>1620</v>
       </c>
       <c r="H290">
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>6</v>
       </c>
@@ -8774,16 +8190,16 @@
         <v>20</v>
       </c>
       <c r="F291">
-        <v>2000</v>
+        <v>3750</v>
       </c>
       <c r="G291">
-        <v>4000</v>
+        <v>1620</v>
       </c>
       <c r="H291">
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>6</v>
       </c>
@@ -8800,16 +8216,16 @@
         <v>20</v>
       </c>
       <c r="F292">
-        <v>2050</v>
+        <v>3900</v>
       </c>
       <c r="G292">
-        <v>4100</v>
+        <v>1620</v>
       </c>
       <c r="H292">
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>6</v>
       </c>
@@ -8826,16 +8242,16 @@
         <v>20</v>
       </c>
       <c r="F293">
-        <v>2100</v>
+        <v>4050</v>
       </c>
       <c r="G293">
-        <v>4200</v>
+        <v>1620</v>
       </c>
       <c r="H293">
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>6</v>
       </c>
@@ -8852,16 +8268,16 @@
         <v>20</v>
       </c>
       <c r="F294">
-        <v>2150</v>
+        <v>4200</v>
       </c>
       <c r="G294">
-        <v>4300</v>
+        <v>1620</v>
       </c>
       <c r="H294">
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>6</v>
       </c>
@@ -8878,16 +8294,16 @@
         <v>20</v>
       </c>
       <c r="F295">
-        <v>2200</v>
+        <v>4350</v>
       </c>
       <c r="G295">
-        <v>4400</v>
+        <v>1620</v>
       </c>
       <c r="H295">
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>6</v>
       </c>
@@ -8904,16 +8320,16 @@
         <v>20</v>
       </c>
       <c r="F296">
-        <v>2250</v>
+        <v>4500</v>
       </c>
       <c r="G296">
-        <v>4500</v>
+        <v>1620</v>
       </c>
       <c r="H296">
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>6</v>
       </c>
@@ -8930,16 +8346,16 @@
         <v>20</v>
       </c>
       <c r="F297">
-        <v>2300</v>
+        <v>4650</v>
       </c>
       <c r="G297">
-        <v>4600</v>
+        <v>4860</v>
       </c>
       <c r="H297">
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>6</v>
       </c>
@@ -8956,16 +8372,16 @@
         <v>20</v>
       </c>
       <c r="F298">
-        <v>2350</v>
+        <v>4800</v>
       </c>
       <c r="G298">
-        <v>4700</v>
+        <v>4860</v>
       </c>
       <c r="H298">
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>6</v>
       </c>
@@ -8982,16 +8398,16 @@
         <v>20</v>
       </c>
       <c r="F299">
-        <v>2400</v>
+        <v>4950</v>
       </c>
       <c r="G299">
-        <v>4800</v>
+        <v>4860</v>
       </c>
       <c r="H299">
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>6</v>
       </c>
@@ -9008,16 +8424,16 @@
         <v>20</v>
       </c>
       <c r="F300">
-        <v>2450</v>
+        <v>5100</v>
       </c>
       <c r="G300">
-        <v>4900</v>
+        <v>4860</v>
       </c>
       <c r="H300">
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>6</v>
       </c>
@@ -9034,16 +8450,16 @@
         <v>20</v>
       </c>
       <c r="F301">
-        <v>2500</v>
+        <v>5250</v>
       </c>
       <c r="G301">
-        <v>5000</v>
+        <v>4860</v>
       </c>
       <c r="H301">
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>7</v>
       </c>
@@ -9060,16 +8476,16 @@
         <v>22</v>
       </c>
       <c r="F302">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G302">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H302">
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>7</v>
       </c>
@@ -9086,16 +8502,16 @@
         <v>22</v>
       </c>
       <c r="F303">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="G303">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H303">
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>7</v>
       </c>
@@ -9112,16 +8528,16 @@
         <v>22</v>
       </c>
       <c r="F304">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G304">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="H304">
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>7</v>
       </c>
@@ -9138,16 +8554,16 @@
         <v>22</v>
       </c>
       <c r="F305">
-        <v>40</v>
+        <v>667</v>
       </c>
       <c r="G305">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="H305">
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>7</v>
       </c>
@@ -9164,16 +8580,16 @@
         <v>22</v>
       </c>
       <c r="F306">
-        <v>50</v>
+        <v>833</v>
       </c>
       <c r="G306">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="H306">
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>7</v>
       </c>
@@ -9190,16 +8606,16 @@
         <v>22</v>
       </c>
       <c r="F307">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="G307">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="H307">
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>7</v>
       </c>
@@ -9216,16 +8632,16 @@
         <v>22</v>
       </c>
       <c r="F308">
-        <v>70</v>
+        <v>1167</v>
       </c>
       <c r="G308">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="H308">
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>7</v>
       </c>
@@ -9242,16 +8658,16 @@
         <v>22</v>
       </c>
       <c r="F309">
-        <v>80</v>
+        <v>1333</v>
       </c>
       <c r="G309">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="H309">
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>7</v>
       </c>
@@ -9268,16 +8684,16 @@
         <v>22</v>
       </c>
       <c r="F310">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G310">
-        <v>900</v>
+        <v>20</v>
       </c>
       <c r="H310">
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>7</v>
       </c>
@@ -9294,16 +8710,16 @@
         <v>22</v>
       </c>
       <c r="F311">
-        <v>100</v>
+        <v>1750</v>
       </c>
       <c r="G311">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="H311">
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>7</v>
       </c>
@@ -9320,16 +8736,16 @@
         <v>22</v>
       </c>
       <c r="F312">
-        <v>110</v>
+        <v>2000</v>
       </c>
       <c r="G312">
-        <v>1100</v>
+        <v>60</v>
       </c>
       <c r="H312">
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>7</v>
       </c>
@@ -9346,16 +8762,16 @@
         <v>22</v>
       </c>
       <c r="F313">
-        <v>120</v>
+        <v>2250</v>
       </c>
       <c r="G313">
-        <v>1200</v>
+        <v>60</v>
       </c>
       <c r="H313">
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>7</v>
       </c>
@@ -9372,16 +8788,16 @@
         <v>22</v>
       </c>
       <c r="F314">
-        <v>130</v>
+        <v>2500</v>
       </c>
       <c r="G314">
-        <v>1300</v>
+        <v>60</v>
       </c>
       <c r="H314">
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>7</v>
       </c>
@@ -9398,16 +8814,16 @@
         <v>22</v>
       </c>
       <c r="F315">
-        <v>140</v>
+        <v>2750</v>
       </c>
       <c r="G315">
-        <v>1400</v>
+        <v>60</v>
       </c>
       <c r="H315">
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>7</v>
       </c>
@@ -9424,16 +8840,16 @@
         <v>22</v>
       </c>
       <c r="F316">
-        <v>150</v>
+        <v>3000</v>
       </c>
       <c r="G316">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="H316">
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>7</v>
       </c>
@@ -9450,16 +8866,16 @@
         <v>22</v>
       </c>
       <c r="F317">
-        <v>160</v>
+        <v>3250</v>
       </c>
       <c r="G317">
-        <v>1600</v>
+        <v>60</v>
       </c>
       <c r="H317">
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>7</v>
       </c>
@@ -9476,16 +8892,16 @@
         <v>22</v>
       </c>
       <c r="F318">
-        <v>170</v>
+        <v>3500</v>
       </c>
       <c r="G318">
-        <v>1700</v>
+        <v>60</v>
       </c>
       <c r="H318">
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>7</v>
       </c>
@@ -9502,16 +8918,16 @@
         <v>22</v>
       </c>
       <c r="F319">
-        <v>180</v>
+        <v>3750</v>
       </c>
       <c r="G319">
-        <v>1800</v>
+        <v>60</v>
       </c>
       <c r="H319">
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>7</v>
       </c>
@@ -9528,16 +8944,16 @@
         <v>22</v>
       </c>
       <c r="F320">
-        <v>190</v>
+        <v>4083</v>
       </c>
       <c r="G320">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="H320">
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>7</v>
       </c>
@@ -9554,16 +8970,16 @@
         <v>22</v>
       </c>
       <c r="F321">
-        <v>200</v>
+        <v>4417</v>
       </c>
       <c r="G321">
-        <v>2000</v>
+        <v>180</v>
       </c>
       <c r="H321">
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>7</v>
       </c>
@@ -9580,16 +8996,16 @@
         <v>22</v>
       </c>
       <c r="F322">
-        <v>210</v>
+        <v>4750</v>
       </c>
       <c r="G322">
-        <v>2100</v>
+        <v>180</v>
       </c>
       <c r="H322">
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>7</v>
       </c>
@@ -9606,16 +9022,16 @@
         <v>22</v>
       </c>
       <c r="F323">
-        <v>220</v>
+        <v>5083</v>
       </c>
       <c r="G323">
-        <v>2200</v>
+        <v>180</v>
       </c>
       <c r="H323">
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>7</v>
       </c>
@@ -9632,16 +9048,16 @@
         <v>22</v>
       </c>
       <c r="F324">
-        <v>230</v>
+        <v>5417</v>
       </c>
       <c r="G324">
-        <v>2300</v>
+        <v>180</v>
       </c>
       <c r="H324">
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>7</v>
       </c>
@@ -9658,16 +9074,16 @@
         <v>22</v>
       </c>
       <c r="F325">
-        <v>240</v>
+        <v>5750</v>
       </c>
       <c r="G325">
-        <v>2400</v>
+        <v>180</v>
       </c>
       <c r="H325">
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>7</v>
       </c>
@@ -9684,16 +9100,16 @@
         <v>22</v>
       </c>
       <c r="F326">
-        <v>250</v>
+        <v>6083</v>
       </c>
       <c r="G326">
-        <v>2500</v>
+        <v>180</v>
       </c>
       <c r="H326">
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>7</v>
       </c>
@@ -9710,16 +9126,16 @@
         <v>22</v>
       </c>
       <c r="F327">
-        <v>260</v>
+        <v>6417</v>
       </c>
       <c r="G327">
-        <v>2600</v>
+        <v>180</v>
       </c>
       <c r="H327">
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>7</v>
       </c>
@@ -9736,16 +9152,16 @@
         <v>22</v>
       </c>
       <c r="F328">
-        <v>270</v>
+        <v>6750</v>
       </c>
       <c r="G328">
-        <v>2700</v>
+        <v>180</v>
       </c>
       <c r="H328">
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>7</v>
       </c>
@@ -9762,16 +9178,16 @@
         <v>22</v>
       </c>
       <c r="F329">
-        <v>280</v>
+        <v>7167</v>
       </c>
       <c r="G329">
-        <v>2800</v>
+        <v>540</v>
       </c>
       <c r="H329">
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>7</v>
       </c>
@@ -9788,16 +9204,16 @@
         <v>22</v>
       </c>
       <c r="F330">
-        <v>290</v>
+        <v>7583</v>
       </c>
       <c r="G330">
-        <v>2900</v>
+        <v>540</v>
       </c>
       <c r="H330">
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>7</v>
       </c>
@@ -9814,16 +9230,16 @@
         <v>22</v>
       </c>
       <c r="F331">
-        <v>300</v>
+        <v>8000</v>
       </c>
       <c r="G331">
-        <v>3000</v>
+        <v>540</v>
       </c>
       <c r="H331">
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>7</v>
       </c>
@@ -9840,16 +9256,16 @@
         <v>22</v>
       </c>
       <c r="F332">
-        <v>310</v>
+        <v>8417</v>
       </c>
       <c r="G332">
-        <v>3100</v>
+        <v>540</v>
       </c>
       <c r="H332">
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>7</v>
       </c>
@@ -9866,16 +9282,16 @@
         <v>22</v>
       </c>
       <c r="F333">
-        <v>320</v>
+        <v>8833</v>
       </c>
       <c r="G333">
-        <v>3200</v>
+        <v>540</v>
       </c>
       <c r="H333">
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>7</v>
       </c>
@@ -9892,16 +9308,16 @@
         <v>22</v>
       </c>
       <c r="F334">
-        <v>330</v>
+        <v>9250</v>
       </c>
       <c r="G334">
-        <v>3300</v>
+        <v>540</v>
       </c>
       <c r="H334">
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>7</v>
       </c>
@@ -9918,16 +9334,16 @@
         <v>22</v>
       </c>
       <c r="F335">
-        <v>340</v>
+        <v>9667</v>
       </c>
       <c r="G335">
-        <v>3400</v>
+        <v>540</v>
       </c>
       <c r="H335">
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>7</v>
       </c>
@@ -9944,16 +9360,16 @@
         <v>22</v>
       </c>
       <c r="F336">
-        <v>350</v>
+        <v>10083</v>
       </c>
       <c r="G336">
-        <v>3500</v>
+        <v>540</v>
       </c>
       <c r="H336">
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>7</v>
       </c>
@@ -9970,16 +9386,16 @@
         <v>22</v>
       </c>
       <c r="F337">
-        <v>360</v>
+        <v>10500</v>
       </c>
       <c r="G337">
-        <v>3600</v>
+        <v>540</v>
       </c>
       <c r="H337">
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>7</v>
       </c>
@@ -9996,16 +9412,16 @@
         <v>22</v>
       </c>
       <c r="F338">
-        <v>370</v>
+        <v>11000</v>
       </c>
       <c r="G338">
-        <v>3700</v>
+        <v>1620</v>
       </c>
       <c r="H338">
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>7</v>
       </c>
@@ -10022,16 +9438,16 @@
         <v>22</v>
       </c>
       <c r="F339">
-        <v>380</v>
+        <v>11500</v>
       </c>
       <c r="G339">
-        <v>3800</v>
+        <v>1620</v>
       </c>
       <c r="H339">
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>7</v>
       </c>
@@ -10048,16 +9464,16 @@
         <v>22</v>
       </c>
       <c r="F340">
-        <v>390</v>
+        <v>12000</v>
       </c>
       <c r="G340">
-        <v>3900</v>
+        <v>1620</v>
       </c>
       <c r="H340">
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>7</v>
       </c>
@@ -10074,16 +9490,16 @@
         <v>22</v>
       </c>
       <c r="F341">
-        <v>400</v>
+        <v>12500</v>
       </c>
       <c r="G341">
-        <v>4000</v>
+        <v>1620</v>
       </c>
       <c r="H341">
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>7</v>
       </c>
@@ -10100,16 +9516,16 @@
         <v>22</v>
       </c>
       <c r="F342">
-        <v>410</v>
+        <v>13000</v>
       </c>
       <c r="G342">
-        <v>4100</v>
+        <v>1620</v>
       </c>
       <c r="H342">
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>7</v>
       </c>
@@ -10126,16 +9542,16 @@
         <v>22</v>
       </c>
       <c r="F343">
-        <v>420</v>
+        <v>13500</v>
       </c>
       <c r="G343">
-        <v>4200</v>
+        <v>1620</v>
       </c>
       <c r="H343">
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>7</v>
       </c>
@@ -10152,16 +9568,16 @@
         <v>22</v>
       </c>
       <c r="F344">
-        <v>430</v>
+        <v>14000</v>
       </c>
       <c r="G344">
-        <v>4300</v>
+        <v>1620</v>
       </c>
       <c r="H344">
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>7</v>
       </c>
@@ -10178,16 +9594,16 @@
         <v>22</v>
       </c>
       <c r="F345">
-        <v>440</v>
+        <v>14500</v>
       </c>
       <c r="G345">
-        <v>4400</v>
+        <v>1620</v>
       </c>
       <c r="H345">
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>7</v>
       </c>
@@ -10204,16 +9620,16 @@
         <v>22</v>
       </c>
       <c r="F346">
-        <v>450</v>
+        <v>15000</v>
       </c>
       <c r="G346">
-        <v>4500</v>
+        <v>1620</v>
       </c>
       <c r="H346">
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A347">
         <v>7</v>
       </c>
@@ -10230,16 +9646,16 @@
         <v>22</v>
       </c>
       <c r="F347">
-        <v>460</v>
+        <v>15500</v>
       </c>
       <c r="G347">
-        <v>4600</v>
+        <v>4860</v>
       </c>
       <c r="H347">
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>7</v>
       </c>
@@ -10256,16 +9672,16 @@
         <v>22</v>
       </c>
       <c r="F348">
-        <v>470</v>
+        <v>16000</v>
       </c>
       <c r="G348">
-        <v>4700</v>
+        <v>4860</v>
       </c>
       <c r="H348">
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A349">
         <v>7</v>
       </c>
@@ -10282,16 +9698,16 @@
         <v>22</v>
       </c>
       <c r="F349">
-        <v>480</v>
+        <v>16500</v>
       </c>
       <c r="G349">
-        <v>4800</v>
+        <v>4860</v>
       </c>
       <c r="H349">
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A350">
         <v>7</v>
       </c>
@@ -10308,16 +9724,16 @@
         <v>22</v>
       </c>
       <c r="F350">
-        <v>490</v>
+        <v>17000</v>
       </c>
       <c r="G350">
-        <v>4900</v>
+        <v>4860</v>
       </c>
       <c r="H350">
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A351">
         <v>7</v>
       </c>
@@ -10334,16 +9750,16 @@
         <v>22</v>
       </c>
       <c r="F351">
-        <v>500</v>
+        <v>17500</v>
       </c>
       <c r="G351">
-        <v>5000</v>
+        <v>4860</v>
       </c>
       <c r="H351">
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>8</v>
       </c>
@@ -10360,16 +9776,16 @@
         <v>24</v>
       </c>
       <c r="F352">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G352">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H352">
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>8</v>
       </c>
@@ -10386,16 +9802,16 @@
         <v>24</v>
       </c>
       <c r="F353">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G353">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H353">
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>8</v>
       </c>
@@ -10412,16 +9828,16 @@
         <v>24</v>
       </c>
       <c r="F354">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G354">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="H354">
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>8</v>
       </c>
@@ -10438,16 +9854,16 @@
         <v>24</v>
       </c>
       <c r="F355">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G355">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="H355">
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>8</v>
       </c>
@@ -10464,16 +9880,16 @@
         <v>24</v>
       </c>
       <c r="F356">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G356">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="H356">
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>8</v>
       </c>
@@ -10490,16 +9906,16 @@
         <v>24</v>
       </c>
       <c r="F357">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G357">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="H357">
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A358">
         <v>8</v>
       </c>
@@ -10516,16 +9932,16 @@
         <v>24</v>
       </c>
       <c r="F358">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="G358">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="H358">
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>8</v>
       </c>
@@ -10542,16 +9958,16 @@
         <v>24</v>
       </c>
       <c r="F359">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G359">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="H359">
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A360">
         <v>8</v>
       </c>
@@ -10568,16 +9984,16 @@
         <v>24</v>
       </c>
       <c r="F360">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="G360">
-        <v>900</v>
+        <v>20</v>
       </c>
       <c r="H360">
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A361">
         <v>8</v>
       </c>
@@ -10594,16 +10010,16 @@
         <v>24</v>
       </c>
       <c r="F361">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="G361">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="H361">
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A362">
         <v>8</v>
       </c>
@@ -10620,16 +10036,16 @@
         <v>24</v>
       </c>
       <c r="F362">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="G362">
-        <v>1100</v>
+        <v>60</v>
       </c>
       <c r="H362">
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A363">
         <v>8</v>
       </c>
@@ -10646,16 +10062,16 @@
         <v>24</v>
       </c>
       <c r="F363">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="G363">
-        <v>1200</v>
+        <v>60</v>
       </c>
       <c r="H363">
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>8</v>
       </c>
@@ -10672,16 +10088,16 @@
         <v>24</v>
       </c>
       <c r="F364">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="G364">
-        <v>1300</v>
+        <v>60</v>
       </c>
       <c r="H364">
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>8</v>
       </c>
@@ -10698,16 +10114,16 @@
         <v>24</v>
       </c>
       <c r="F365">
-        <v>140</v>
+        <v>413</v>
       </c>
       <c r="G365">
-        <v>1400</v>
+        <v>60</v>
       </c>
       <c r="H365">
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>8</v>
       </c>
@@ -10724,16 +10140,16 @@
         <v>24</v>
       </c>
       <c r="F366">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="G366">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="H366">
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>8</v>
       </c>
@@ -10750,16 +10166,16 @@
         <v>24</v>
       </c>
       <c r="F367">
-        <v>160</v>
+        <v>488</v>
       </c>
       <c r="G367">
-        <v>1600</v>
+        <v>60</v>
       </c>
       <c r="H367">
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A368">
         <v>8</v>
       </c>
@@ -10776,16 +10192,16 @@
         <v>24</v>
       </c>
       <c r="F368">
-        <v>170</v>
+        <v>525</v>
       </c>
       <c r="G368">
-        <v>1700</v>
+        <v>60</v>
       </c>
       <c r="H368">
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>8</v>
       </c>
@@ -10802,16 +10218,16 @@
         <v>24</v>
       </c>
       <c r="F369">
-        <v>180</v>
+        <v>563</v>
       </c>
       <c r="G369">
-        <v>1800</v>
+        <v>60</v>
       </c>
       <c r="H369">
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A370">
         <v>8</v>
       </c>
@@ -10828,16 +10244,16 @@
         <v>24</v>
       </c>
       <c r="F370">
-        <v>190</v>
+        <v>613</v>
       </c>
       <c r="G370">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="H370">
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A371">
         <v>8</v>
       </c>
@@ -10854,16 +10270,16 @@
         <v>24</v>
       </c>
       <c r="F371">
-        <v>200</v>
+        <v>663</v>
       </c>
       <c r="G371">
-        <v>2000</v>
+        <v>180</v>
       </c>
       <c r="H371">
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A372">
         <v>8</v>
       </c>
@@ -10880,16 +10296,16 @@
         <v>24</v>
       </c>
       <c r="F372">
-        <v>210</v>
+        <v>713</v>
       </c>
       <c r="G372">
-        <v>2100</v>
+        <v>180</v>
       </c>
       <c r="H372">
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>8</v>
       </c>
@@ -10906,16 +10322,16 @@
         <v>24</v>
       </c>
       <c r="F373">
-        <v>220</v>
+        <v>763</v>
       </c>
       <c r="G373">
-        <v>2200</v>
+        <v>180</v>
       </c>
       <c r="H373">
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>8</v>
       </c>
@@ -10932,16 +10348,16 @@
         <v>24</v>
       </c>
       <c r="F374">
-        <v>230</v>
+        <v>813</v>
       </c>
       <c r="G374">
-        <v>2300</v>
+        <v>180</v>
       </c>
       <c r="H374">
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>8</v>
       </c>
@@ -10958,16 +10374,16 @@
         <v>24</v>
       </c>
       <c r="F375">
-        <v>240</v>
+        <v>863</v>
       </c>
       <c r="G375">
-        <v>2400</v>
+        <v>180</v>
       </c>
       <c r="H375">
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A376">
         <v>8</v>
       </c>
@@ -10984,16 +10400,16 @@
         <v>24</v>
       </c>
       <c r="F376">
-        <v>250</v>
+        <v>913</v>
       </c>
       <c r="G376">
-        <v>2500</v>
+        <v>180</v>
       </c>
       <c r="H376">
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A377">
         <v>8</v>
       </c>
@@ -11010,16 +10426,16 @@
         <v>24</v>
       </c>
       <c r="F377">
-        <v>260</v>
+        <v>963</v>
       </c>
       <c r="G377">
-        <v>2600</v>
+        <v>180</v>
       </c>
       <c r="H377">
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A378">
         <v>8</v>
       </c>
@@ -11036,16 +10452,16 @@
         <v>24</v>
       </c>
       <c r="F378">
-        <v>270</v>
+        <v>1013</v>
       </c>
       <c r="G378">
-        <v>2700</v>
+        <v>180</v>
       </c>
       <c r="H378">
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A379">
         <v>8</v>
       </c>
@@ -11062,16 +10478,16 @@
         <v>24</v>
       </c>
       <c r="F379">
-        <v>280</v>
+        <v>1075</v>
       </c>
       <c r="G379">
-        <v>2800</v>
+        <v>540</v>
       </c>
       <c r="H379">
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A380">
         <v>8</v>
       </c>
@@ -11088,16 +10504,16 @@
         <v>24</v>
       </c>
       <c r="F380">
-        <v>290</v>
+        <v>1138</v>
       </c>
       <c r="G380">
-        <v>2900</v>
+        <v>540</v>
       </c>
       <c r="H380">
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A381">
         <v>8</v>
       </c>
@@ -11114,16 +10530,16 @@
         <v>24</v>
       </c>
       <c r="F381">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G381">
-        <v>3000</v>
+        <v>540</v>
       </c>
       <c r="H381">
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>8</v>
       </c>
@@ -11140,16 +10556,16 @@
         <v>24</v>
       </c>
       <c r="F382">
-        <v>310</v>
+        <v>1263</v>
       </c>
       <c r="G382">
-        <v>3100</v>
+        <v>540</v>
       </c>
       <c r="H382">
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>8</v>
       </c>
@@ -11166,16 +10582,16 @@
         <v>24</v>
       </c>
       <c r="F383">
-        <v>320</v>
+        <v>1325</v>
       </c>
       <c r="G383">
-        <v>3200</v>
+        <v>540</v>
       </c>
       <c r="H383">
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A384">
         <v>8</v>
       </c>
@@ -11192,16 +10608,16 @@
         <v>24</v>
       </c>
       <c r="F384">
-        <v>330</v>
+        <v>1388</v>
       </c>
       <c r="G384">
-        <v>3300</v>
+        <v>540</v>
       </c>
       <c r="H384">
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>8</v>
       </c>
@@ -11218,16 +10634,16 @@
         <v>24</v>
       </c>
       <c r="F385">
-        <v>340</v>
+        <v>1450</v>
       </c>
       <c r="G385">
-        <v>3400</v>
+        <v>540</v>
       </c>
       <c r="H385">
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A386">
         <v>8</v>
       </c>
@@ -11244,16 +10660,16 @@
         <v>24</v>
       </c>
       <c r="F386">
-        <v>350</v>
+        <v>1513</v>
       </c>
       <c r="G386">
-        <v>3500</v>
+        <v>540</v>
       </c>
       <c r="H386">
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A387">
         <v>8</v>
       </c>
@@ -11270,16 +10686,16 @@
         <v>24</v>
       </c>
       <c r="F387">
-        <v>360</v>
+        <v>1575</v>
       </c>
       <c r="G387">
-        <v>3600</v>
+        <v>540</v>
       </c>
       <c r="H387">
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A388">
         <v>8</v>
       </c>
@@ -11296,16 +10712,16 @@
         <v>24</v>
       </c>
       <c r="F388">
-        <v>370</v>
+        <v>1650</v>
       </c>
       <c r="G388">
-        <v>3700</v>
+        <v>1620</v>
       </c>
       <c r="H388">
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A389">
         <v>8</v>
       </c>
@@ -11322,16 +10738,16 @@
         <v>24</v>
       </c>
       <c r="F389">
-        <v>380</v>
+        <v>1725</v>
       </c>
       <c r="G389">
-        <v>3800</v>
+        <v>1620</v>
       </c>
       <c r="H389">
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A390">
         <v>8</v>
       </c>
@@ -11348,16 +10764,16 @@
         <v>24</v>
       </c>
       <c r="F390">
-        <v>390</v>
+        <v>1800</v>
       </c>
       <c r="G390">
-        <v>3900</v>
+        <v>1620</v>
       </c>
       <c r="H390">
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A391">
         <v>8</v>
       </c>
@@ -11374,16 +10790,16 @@
         <v>24</v>
       </c>
       <c r="F391">
-        <v>400</v>
+        <v>1875</v>
       </c>
       <c r="G391">
-        <v>4000</v>
+        <v>1620</v>
       </c>
       <c r="H391">
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A392">
         <v>8</v>
       </c>
@@ -11400,16 +10816,16 @@
         <v>24</v>
       </c>
       <c r="F392">
-        <v>410</v>
+        <v>1950</v>
       </c>
       <c r="G392">
-        <v>4100</v>
+        <v>1620</v>
       </c>
       <c r="H392">
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A393">
         <v>8</v>
       </c>
@@ -11426,16 +10842,16 @@
         <v>24</v>
       </c>
       <c r="F393">
-        <v>420</v>
+        <v>2025</v>
       </c>
       <c r="G393">
-        <v>4200</v>
+        <v>1620</v>
       </c>
       <c r="H393">
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A394">
         <v>8</v>
       </c>
@@ -11452,16 +10868,16 @@
         <v>24</v>
       </c>
       <c r="F394">
-        <v>430</v>
+        <v>2100</v>
       </c>
       <c r="G394">
-        <v>4300</v>
+        <v>1620</v>
       </c>
       <c r="H394">
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A395">
         <v>8</v>
       </c>
@@ -11478,16 +10894,16 @@
         <v>24</v>
       </c>
       <c r="F395">
-        <v>440</v>
+        <v>2175</v>
       </c>
       <c r="G395">
-        <v>4400</v>
+        <v>1620</v>
       </c>
       <c r="H395">
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A396">
         <v>8</v>
       </c>
@@ -11504,16 +10920,16 @@
         <v>24</v>
       </c>
       <c r="F396">
-        <v>450</v>
+        <v>2250</v>
       </c>
       <c r="G396">
-        <v>4500</v>
+        <v>1620</v>
       </c>
       <c r="H396">
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A397">
         <v>8</v>
       </c>
@@ -11530,16 +10946,16 @@
         <v>24</v>
       </c>
       <c r="F397">
-        <v>460</v>
+        <v>2325</v>
       </c>
       <c r="G397">
-        <v>4600</v>
+        <v>4860</v>
       </c>
       <c r="H397">
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A398">
         <v>8</v>
       </c>
@@ -11556,16 +10972,16 @@
         <v>24</v>
       </c>
       <c r="F398">
-        <v>470</v>
+        <v>2400</v>
       </c>
       <c r="G398">
-        <v>4700</v>
+        <v>4860</v>
       </c>
       <c r="H398">
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A399">
         <v>8</v>
       </c>
@@ -11582,16 +10998,16 @@
         <v>24</v>
       </c>
       <c r="F399">
-        <v>480</v>
+        <v>2475</v>
       </c>
       <c r="G399">
-        <v>4800</v>
+        <v>4860</v>
       </c>
       <c r="H399">
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A400">
         <v>8</v>
       </c>
@@ -11608,16 +11024,16 @@
         <v>24</v>
       </c>
       <c r="F400">
-        <v>490</v>
+        <v>2550</v>
       </c>
       <c r="G400">
-        <v>4900</v>
+        <v>4860</v>
       </c>
       <c r="H400">
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A401">
         <v>8</v>
       </c>
@@ -11634,53 +11050,47 @@
         <v>24</v>
       </c>
       <c r="F401">
-        <v>500</v>
+        <v>2625</v>
       </c>
       <c r="G401">
-        <v>5000</v>
+        <v>4860</v>
       </c>
       <c r="H401">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/l-轮回配置表.xlsx
+++ b/other/配置表/l-轮回配置表.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\配置表1111\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8F2FB2-43F2-4793-879A-0EAC5A185C49}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9210" windowHeight="6570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19770" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -43,7 +36,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,14 +43,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -67,7 +58,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -75,14 +65,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -91,7 +80,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -99,14 +87,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -115,7 +102,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -123,14 +109,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -139,7 +124,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -147,14 +131,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -163,7 +146,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -176,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>id</t>
   </si>
@@ -256,8 +238,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,35 +254,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -302,9 +600,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -316,17 +856,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -613,19 +1197,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:H401"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
@@ -633,7 +1217,7 @@
     <col min="8" max="8" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +1243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -685,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -711,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -737,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
@@ -763,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1</v>
       </c>
@@ -789,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1</v>
       </c>
@@ -815,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -841,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1</v>
       </c>
@@ -867,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1</v>
       </c>
@@ -893,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1</v>
       </c>
@@ -919,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1</v>
       </c>
@@ -945,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1</v>
       </c>
@@ -971,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1</v>
       </c>
@@ -997,7 +1581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1023,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1049,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1075,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1101,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1127,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1153,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1179,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1205,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1231,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1257,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1283,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1309,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1335,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1361,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1387,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1413,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1439,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1465,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1491,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1517,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1543,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1569,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1595,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1621,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1647,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1673,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1699,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1725,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1751,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1777,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1803,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1829,7 +2413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1855,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1881,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1907,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1933,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1959,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1985,7 +2569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2011,7 +2595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2037,7 +2621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2063,7 +2647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2089,7 +2673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2115,7 +2699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2141,7 +2725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2167,7 +2751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2193,7 +2777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2219,7 +2803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2245,7 +2829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2271,7 +2855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2297,7 +2881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2323,7 +2907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2349,7 +2933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2375,7 +2959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2401,7 +2985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2427,7 +3011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2453,7 +3037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2479,7 +3063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2505,7 +3089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>2</v>
       </c>
@@ -2531,7 +3115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>2</v>
       </c>
@@ -2557,7 +3141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2583,7 +3167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2609,7 +3193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2635,7 +3219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>2</v>
       </c>
@@ -2661,7 +3245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2687,7 +3271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>2</v>
       </c>
@@ -2713,7 +3297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>2</v>
       </c>
@@ -2739,7 +3323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>2</v>
       </c>
@@ -2765,7 +3349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2791,7 +3375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2817,7 +3401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2843,7 +3427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>2</v>
       </c>
@@ -2869,7 +3453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2895,7 +3479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>2</v>
       </c>
@@ -2921,7 +3505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2947,7 +3531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>2</v>
       </c>
@@ -2973,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>2</v>
       </c>
@@ -2999,7 +3583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>2</v>
       </c>
@@ -3025,7 +3609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>2</v>
       </c>
@@ -3051,7 +3635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>2</v>
       </c>
@@ -3077,7 +3661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>2</v>
       </c>
@@ -3103,7 +3687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>2</v>
       </c>
@@ -3129,7 +3713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>2</v>
       </c>
@@ -3155,7 +3739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>2</v>
       </c>
@@ -3181,7 +3765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>2</v>
       </c>
@@ -3207,7 +3791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>2</v>
       </c>
@@ -3233,7 +3817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>2</v>
       </c>
@@ -3259,7 +3843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>3</v>
       </c>
@@ -3285,7 +3869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>3</v>
       </c>
@@ -3311,7 +3895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>3</v>
       </c>
@@ -3337,7 +3921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>3</v>
       </c>
@@ -3363,7 +3947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>3</v>
       </c>
@@ -3389,7 +3973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>3</v>
       </c>
@@ -3415,7 +3999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>3</v>
       </c>
@@ -3441,7 +4025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>3</v>
       </c>
@@ -3467,7 +4051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>3</v>
       </c>
@@ -3493,7 +4077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>3</v>
       </c>
@@ -3519,7 +4103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>3</v>
       </c>
@@ -3545,7 +4129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>3</v>
       </c>
@@ -3571,7 +4155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>3</v>
       </c>
@@ -3597,7 +4181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>3</v>
       </c>
@@ -3623,7 +4207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>3</v>
       </c>
@@ -3649,7 +4233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>3</v>
       </c>
@@ -3675,7 +4259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>3</v>
       </c>
@@ -3701,7 +4285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>3</v>
       </c>
@@ -3727,7 +4311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>3</v>
       </c>
@@ -3753,7 +4337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>3</v>
       </c>
@@ -3779,7 +4363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3805,7 +4389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>3</v>
       </c>
@@ -3831,7 +4415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>3</v>
       </c>
@@ -3857,7 +4441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>3</v>
       </c>
@@ -3883,7 +4467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>3</v>
       </c>
@@ -3909,7 +4493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>3</v>
       </c>
@@ -3935,7 +4519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>3</v>
       </c>
@@ -3961,7 +4545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>3</v>
       </c>
@@ -3987,7 +4571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>3</v>
       </c>
@@ -4013,7 +4597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>3</v>
       </c>
@@ -4039,7 +4623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>3</v>
       </c>
@@ -4065,7 +4649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>3</v>
       </c>
@@ -4091,7 +4675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>3</v>
       </c>
@@ -4117,7 +4701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>3</v>
       </c>
@@ -4143,7 +4727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>3</v>
       </c>
@@ -4169,7 +4753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>3</v>
       </c>
@@ -4195,7 +4779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>3</v>
       </c>
@@ -4221,7 +4805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>3</v>
       </c>
@@ -4247,7 +4831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>3</v>
       </c>
@@ -4273,7 +4857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>3</v>
       </c>
@@ -4299,7 +4883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>3</v>
       </c>
@@ -4325,7 +4909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>3</v>
       </c>
@@ -4351,7 +4935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4377,7 +4961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>3</v>
       </c>
@@ -4403,7 +4987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>3</v>
       </c>
@@ -4429,7 +5013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>3</v>
       </c>
@@ -4455,7 +5039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>3</v>
       </c>
@@ -4481,7 +5065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>3</v>
       </c>
@@ -4507,7 +5091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>3</v>
       </c>
@@ -4533,7 +5117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>3</v>
       </c>
@@ -4559,7 +5143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>4</v>
       </c>
@@ -4585,7 +5169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>4</v>
       </c>
@@ -4611,7 +5195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>4</v>
       </c>
@@ -4637,7 +5221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>4</v>
       </c>
@@ -4663,7 +5247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>4</v>
       </c>
@@ -4689,7 +5273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>4</v>
       </c>
@@ -4715,7 +5299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>4</v>
       </c>
@@ -4741,7 +5325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>4</v>
       </c>
@@ -4767,7 +5351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>4</v>
       </c>
@@ -4793,7 +5377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>4</v>
       </c>
@@ -4819,7 +5403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>4</v>
       </c>
@@ -4845,7 +5429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>4</v>
       </c>
@@ -4871,7 +5455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>4</v>
       </c>
@@ -4897,7 +5481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>4</v>
       </c>
@@ -4923,7 +5507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>4</v>
       </c>
@@ -4949,7 +5533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>4</v>
       </c>
@@ -4975,7 +5559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>4</v>
       </c>
@@ -5001,7 +5585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>4</v>
       </c>
@@ -5027,7 +5611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>4</v>
       </c>
@@ -5053,7 +5637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>4</v>
       </c>
@@ -5079,7 +5663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>4</v>
       </c>
@@ -5105,7 +5689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>4</v>
       </c>
@@ -5131,7 +5715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>4</v>
       </c>
@@ -5157,7 +5741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>4</v>
       </c>
@@ -5183,7 +5767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>4</v>
       </c>
@@ -5209,7 +5793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>4</v>
       </c>
@@ -5235,7 +5819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>4</v>
       </c>
@@ -5261,7 +5845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>4</v>
       </c>
@@ -5287,7 +5871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>4</v>
       </c>
@@ -5313,7 +5897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>4</v>
       </c>
@@ -5339,7 +5923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>4</v>
       </c>
@@ -5365,7 +5949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>4</v>
       </c>
@@ -5391,7 +5975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>4</v>
       </c>
@@ -5417,7 +6001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>4</v>
       </c>
@@ -5443,7 +6027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>4</v>
       </c>
@@ -5469,7 +6053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>4</v>
       </c>
@@ -5495,7 +6079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>4</v>
       </c>
@@ -5521,7 +6105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>4</v>
       </c>
@@ -5547,7 +6131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>4</v>
       </c>
@@ -5573,7 +6157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>4</v>
       </c>
@@ -5599,7 +6183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>4</v>
       </c>
@@ -5625,7 +6209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>4</v>
       </c>
@@ -5651,7 +6235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>4</v>
       </c>
@@ -5677,7 +6261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>4</v>
       </c>
@@ -5703,7 +6287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>4</v>
       </c>
@@ -5729,7 +6313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>4</v>
       </c>
@@ -5755,7 +6339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>4</v>
       </c>
@@ -5781,7 +6365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>4</v>
       </c>
@@ -5807,7 +6391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>4</v>
       </c>
@@ -5833,7 +6417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>4</v>
       </c>
@@ -5859,7 +6443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>5</v>
       </c>
@@ -5885,7 +6469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>5</v>
       </c>
@@ -5911,7 +6495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>5</v>
       </c>
@@ -5937,7 +6521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>5</v>
       </c>
@@ -5963,7 +6547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>5</v>
       </c>
@@ -5989,7 +6573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>5</v>
       </c>
@@ -6015,7 +6599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>5</v>
       </c>
@@ -6041,7 +6625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>5</v>
       </c>
@@ -6067,7 +6651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>5</v>
       </c>
@@ -6093,7 +6677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>5</v>
       </c>
@@ -6119,7 +6703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>5</v>
       </c>
@@ -6145,7 +6729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>5</v>
       </c>
@@ -6171,7 +6755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>5</v>
       </c>
@@ -6197,7 +6781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>5</v>
       </c>
@@ -6223,7 +6807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>5</v>
       </c>
@@ -6249,7 +6833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>5</v>
       </c>
@@ -6275,7 +6859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>5</v>
       </c>
@@ -6301,7 +6885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>5</v>
       </c>
@@ -6327,7 +6911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>5</v>
       </c>
@@ -6353,7 +6937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>5</v>
       </c>
@@ -6379,7 +6963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>5</v>
       </c>
@@ -6405,7 +6989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>5</v>
       </c>
@@ -6431,7 +7015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>5</v>
       </c>
@@ -6457,7 +7041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>5</v>
       </c>
@@ -6483,7 +7067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>5</v>
       </c>
@@ -6509,7 +7093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>5</v>
       </c>
@@ -6535,7 +7119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>5</v>
       </c>
@@ -6561,7 +7145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>5</v>
       </c>
@@ -6587,7 +7171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>5</v>
       </c>
@@ -6613,7 +7197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>5</v>
       </c>
@@ -6639,7 +7223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>5</v>
       </c>
@@ -6665,7 +7249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>5</v>
       </c>
@@ -6691,7 +7275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>5</v>
       </c>
@@ -6717,7 +7301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>5</v>
       </c>
@@ -6743,7 +7327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>5</v>
       </c>
@@ -6769,7 +7353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>5</v>
       </c>
@@ -6795,7 +7379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>5</v>
       </c>
@@ -6821,7 +7405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>5</v>
       </c>
@@ -6847,7 +7431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>5</v>
       </c>
@@ -6873,7 +7457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>5</v>
       </c>
@@ -6899,7 +7483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>5</v>
       </c>
@@ -6925,7 +7509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>5</v>
       </c>
@@ -6951,7 +7535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>5</v>
       </c>
@@ -6977,7 +7561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>5</v>
       </c>
@@ -7003,7 +7587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>5</v>
       </c>
@@ -7029,7 +7613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>5</v>
       </c>
@@ -7055,7 +7639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>5</v>
       </c>
@@ -7081,7 +7665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>5</v>
       </c>
@@ -7107,7 +7691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>5</v>
       </c>
@@ -7133,7 +7717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>5</v>
       </c>
@@ -7159,7 +7743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>6</v>
       </c>
@@ -7185,7 +7769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>6</v>
       </c>
@@ -7211,7 +7795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>6</v>
       </c>
@@ -7237,7 +7821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>6</v>
       </c>
@@ -7263,7 +7847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>6</v>
       </c>
@@ -7289,7 +7873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>6</v>
       </c>
@@ -7315,7 +7899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>6</v>
       </c>
@@ -7341,7 +7925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>6</v>
       </c>
@@ -7367,7 +7951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>6</v>
       </c>
@@ -7393,7 +7977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>6</v>
       </c>
@@ -7419,7 +8003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>6</v>
       </c>
@@ -7445,7 +8029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>6</v>
       </c>
@@ -7471,7 +8055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>6</v>
       </c>
@@ -7497,7 +8081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>6</v>
       </c>
@@ -7523,7 +8107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>6</v>
       </c>
@@ -7549,7 +8133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>6</v>
       </c>
@@ -7575,7 +8159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>6</v>
       </c>
@@ -7601,7 +8185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>6</v>
       </c>
@@ -7627,7 +8211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>6</v>
       </c>
@@ -7653,7 +8237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>6</v>
       </c>
@@ -7679,7 +8263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>6</v>
       </c>
@@ -7705,7 +8289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>6</v>
       </c>
@@ -7731,7 +8315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>6</v>
       </c>
@@ -7757,7 +8341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>6</v>
       </c>
@@ -7783,7 +8367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>6</v>
       </c>
@@ -7809,7 +8393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>6</v>
       </c>
@@ -7835,7 +8419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>6</v>
       </c>
@@ -7861,7 +8445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>6</v>
       </c>
@@ -7887,7 +8471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>6</v>
       </c>
@@ -7913,7 +8497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>6</v>
       </c>
@@ -7939,7 +8523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>6</v>
       </c>
@@ -7965,7 +8549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>6</v>
       </c>
@@ -7991,7 +8575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>6</v>
       </c>
@@ -8017,7 +8601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>6</v>
       </c>
@@ -8043,7 +8627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>6</v>
       </c>
@@ -8069,7 +8653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>6</v>
       </c>
@@ -8095,7 +8679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>6</v>
       </c>
@@ -8121,7 +8705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>6</v>
       </c>
@@ -8147,7 +8731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>6</v>
       </c>
@@ -8173,7 +8757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>6</v>
       </c>
@@ -8199,7 +8783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>6</v>
       </c>
@@ -8225,7 +8809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>6</v>
       </c>
@@ -8251,7 +8835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>6</v>
       </c>
@@ -8277,7 +8861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>6</v>
       </c>
@@ -8303,7 +8887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>6</v>
       </c>
@@ -8329,7 +8913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>6</v>
       </c>
@@ -8355,7 +8939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>6</v>
       </c>
@@ -8381,7 +8965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>6</v>
       </c>
@@ -8407,7 +8991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>6</v>
       </c>
@@ -8433,7 +9017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>6</v>
       </c>
@@ -8459,7 +9043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>7</v>
       </c>
@@ -8485,7 +9069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>7</v>
       </c>
@@ -8511,7 +9095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>7</v>
       </c>
@@ -8537,7 +9121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>7</v>
       </c>
@@ -8563,7 +9147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>7</v>
       </c>
@@ -8589,7 +9173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>7</v>
       </c>
@@ -8615,7 +9199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>7</v>
       </c>
@@ -8641,7 +9225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>7</v>
       </c>
@@ -8667,7 +9251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>7</v>
       </c>
@@ -8693,7 +9277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>7</v>
       </c>
@@ -8719,7 +9303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>7</v>
       </c>
@@ -8745,7 +9329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>7</v>
       </c>
@@ -8771,7 +9355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>7</v>
       </c>
@@ -8797,7 +9381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>7</v>
       </c>
@@ -8823,7 +9407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>7</v>
       </c>
@@ -8849,7 +9433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>7</v>
       </c>
@@ -8875,7 +9459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>7</v>
       </c>
@@ -8901,7 +9485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>7</v>
       </c>
@@ -8927,7 +9511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>7</v>
       </c>
@@ -8953,7 +9537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>7</v>
       </c>
@@ -8979,7 +9563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>7</v>
       </c>
@@ -9005,7 +9589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>7</v>
       </c>
@@ -9031,7 +9615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>7</v>
       </c>
@@ -9057,7 +9641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>7</v>
       </c>
@@ -9083,7 +9667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>7</v>
       </c>
@@ -9109,7 +9693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>7</v>
       </c>
@@ -9135,7 +9719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>7</v>
       </c>
@@ -9161,7 +9745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>7</v>
       </c>
@@ -9187,7 +9771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>7</v>
       </c>
@@ -9213,7 +9797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>7</v>
       </c>
@@ -9239,7 +9823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>7</v>
       </c>
@@ -9265,7 +9849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>7</v>
       </c>
@@ -9291,7 +9875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>7</v>
       </c>
@@ -9317,7 +9901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>7</v>
       </c>
@@ -9343,7 +9927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>7</v>
       </c>
@@ -9369,7 +9953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>7</v>
       </c>
@@ -9395,7 +9979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>7</v>
       </c>
@@ -9421,7 +10005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>7</v>
       </c>
@@ -9447,7 +10031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>7</v>
       </c>
@@ -9473,7 +10057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>7</v>
       </c>
@@ -9499,7 +10083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>7</v>
       </c>
@@ -9525,7 +10109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>7</v>
       </c>
@@ -9551,7 +10135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>7</v>
       </c>
@@ -9577,7 +10161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>7</v>
       </c>
@@ -9603,7 +10187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>7</v>
       </c>
@@ -9629,7 +10213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>7</v>
       </c>
@@ -9655,7 +10239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>7</v>
       </c>
@@ -9681,7 +10265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>7</v>
       </c>
@@ -9707,7 +10291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>7</v>
       </c>
@@ -9733,7 +10317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>7</v>
       </c>
@@ -9759,7 +10343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>8</v>
       </c>
@@ -9785,7 +10369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>8</v>
       </c>
@@ -9811,7 +10395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>8</v>
       </c>
@@ -9837,7 +10421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>8</v>
       </c>
@@ -9863,7 +10447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>8</v>
       </c>
@@ -9889,7 +10473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>8</v>
       </c>
@@ -9915,7 +10499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>8</v>
       </c>
@@ -9941,7 +10525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>8</v>
       </c>
@@ -9967,7 +10551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>8</v>
       </c>
@@ -9993,7 +10577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>8</v>
       </c>
@@ -10019,7 +10603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>8</v>
       </c>
@@ -10045,7 +10629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>8</v>
       </c>
@@ -10071,7 +10655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>8</v>
       </c>
@@ -10097,7 +10681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>8</v>
       </c>
@@ -10123,7 +10707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>8</v>
       </c>
@@ -10149,7 +10733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>8</v>
       </c>
@@ -10175,7 +10759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>8</v>
       </c>
@@ -10201,7 +10785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>8</v>
       </c>
@@ -10227,7 +10811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>8</v>
       </c>
@@ -10253,7 +10837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>8</v>
       </c>
@@ -10279,7 +10863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>8</v>
       </c>
@@ -10305,7 +10889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>8</v>
       </c>
@@ -10331,7 +10915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>8</v>
       </c>
@@ -10357,7 +10941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>8</v>
       </c>
@@ -10383,7 +10967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>8</v>
       </c>
@@ -10409,7 +10993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>8</v>
       </c>
@@ -10435,7 +11019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>8</v>
       </c>
@@ -10461,7 +11045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>8</v>
       </c>
@@ -10487,7 +11071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>8</v>
       </c>
@@ -10513,7 +11097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>8</v>
       </c>
@@ -10539,7 +11123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>8</v>
       </c>
@@ -10565,7 +11149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>8</v>
       </c>
@@ -10591,7 +11175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>8</v>
       </c>
@@ -10617,7 +11201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>8</v>
       </c>
@@ -10643,7 +11227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>8</v>
       </c>
@@ -10669,7 +11253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>8</v>
       </c>
@@ -10695,7 +11279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>8</v>
       </c>
@@ -10721,7 +11305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>8</v>
       </c>
@@ -10747,7 +11331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>8</v>
       </c>
@@ -10773,7 +11357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>8</v>
       </c>
@@ -10799,7 +11383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>8</v>
       </c>
@@ -10825,7 +11409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>8</v>
       </c>
@@ -10851,7 +11435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>8</v>
       </c>
@@ -10877,7 +11461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>8</v>
       </c>
@@ -10903,7 +11487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>8</v>
       </c>
@@ -10929,7 +11513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>8</v>
       </c>
@@ -10955,7 +11539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>8</v>
       </c>
@@ -10981,7 +11565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>8</v>
       </c>
@@ -11007,7 +11591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>8</v>
       </c>
@@ -11033,7 +11617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>8</v>
       </c>
@@ -11060,37 +11644,43 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/l-轮回配置表.xlsx
+++ b/other/配置表/l-轮回配置表.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1129\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大魔王\配置表1204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A2402F-5831-4C57-8EA0-C8918B237538}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -240,11 +239,131 @@
   <si>
     <t>500003,</t>
   </si>
+  <si>
+    <t>500,</t>
+  </si>
+  <si>
+    <t>1000,</t>
+  </si>
+  <si>
+    <t>1500,</t>
+  </si>
+  <si>
+    <t>2000,</t>
+  </si>
+  <si>
+    <t>2500,</t>
+  </si>
+  <si>
+    <t>3000,</t>
+  </si>
+  <si>
+    <t>3500,</t>
+  </si>
+  <si>
+    <t>4000,</t>
+  </si>
+  <si>
+    <t>4500,</t>
+  </si>
+  <si>
+    <t>5000,</t>
+  </si>
+  <si>
+    <t>5500,</t>
+  </si>
+  <si>
+    <t>6000,</t>
+  </si>
+  <si>
+    <t>6500,</t>
+  </si>
+  <si>
+    <t>7000,</t>
+  </si>
+  <si>
+    <t>7500,</t>
+  </si>
+  <si>
+    <t>8000,</t>
+  </si>
+  <si>
+    <t>8500,</t>
+  </si>
+  <si>
+    <t>9000,</t>
+  </si>
+  <si>
+    <t>9500,</t>
+  </si>
+  <si>
+    <t>10000,</t>
+  </si>
+  <si>
+    <t>10500,</t>
+  </si>
+  <si>
+    <t>11000,</t>
+  </si>
+  <si>
+    <t>11500,</t>
+  </si>
+  <si>
+    <t>12000,</t>
+  </si>
+  <si>
+    <t>12500,</t>
+  </si>
+  <si>
+    <t>13000,</t>
+  </si>
+  <si>
+    <t>13500,</t>
+  </si>
+  <si>
+    <t>14000,</t>
+  </si>
+  <si>
+    <t>14500,</t>
+  </si>
+  <si>
+    <t>15000,</t>
+  </si>
+  <si>
+    <t>15500,</t>
+  </si>
+  <si>
+    <t>16000,</t>
+  </si>
+  <si>
+    <t>16500,</t>
+  </si>
+  <si>
+    <t>17000,</t>
+  </si>
+  <si>
+    <t>17500,</t>
+  </si>
+  <si>
+    <t>18000,</t>
+  </si>
+  <si>
+    <t>18500,</t>
+  </si>
+  <si>
+    <t>19000,</t>
+  </si>
+  <si>
+    <t>19500,</t>
+  </si>
+  <si>
+    <t>20000,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,7 +482,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,7 +517,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,11 +725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -663,11 +782,11 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
-        <v>500</v>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -689,11 +808,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>1000</v>
+      <c r="F3" t="s">
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -715,11 +834,11 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
-        <v>1500</v>
+      <c r="F4" t="s">
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -741,11 +860,11 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
-        <v>2000</v>
+      <c r="F5" t="s">
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>520</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -767,11 +886,11 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F6">
-        <v>2500</v>
+      <c r="F6" t="s">
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -793,11 +912,11 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
-        <v>3000</v>
+      <c r="F7" t="s">
+        <v>26</v>
       </c>
       <c r="G7">
-        <v>50</v>
+        <v>1750</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -819,11 +938,11 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8">
-        <v>3500</v>
+      <c r="F8" t="s">
+        <v>27</v>
       </c>
       <c r="G8">
-        <v>60</v>
+        <v>2830</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -845,11 +964,11 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9">
-        <v>4000</v>
+      <c r="F9" t="s">
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>70</v>
+        <v>4300</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -871,11 +990,11 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10">
-        <v>4500</v>
+      <c r="F10" t="s">
+        <v>29</v>
       </c>
       <c r="G10">
-        <v>80</v>
+        <v>6220</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -897,11 +1016,11 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11">
-        <v>5000</v>
+      <c r="F11" t="s">
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>90</v>
+        <v>8650</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -923,11 +1042,11 @@
       <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F12">
-        <v>5500</v>
+      <c r="F12" t="s">
+        <v>31</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>11650</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -949,11 +1068,11 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13">
-        <v>6000</v>
+      <c r="F13" t="s">
+        <v>32</v>
       </c>
       <c r="G13">
-        <v>110</v>
+        <v>15280</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -975,11 +1094,11 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F14">
-        <v>6500</v>
+      <c r="F14" t="s">
+        <v>33</v>
       </c>
       <c r="G14">
-        <v>120</v>
+        <v>19600</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1001,11 +1120,11 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15">
-        <v>7000</v>
+      <c r="F15" t="s">
+        <v>34</v>
       </c>
       <c r="G15">
-        <v>130</v>
+        <v>24670</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1027,11 +1146,11 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="F16">
-        <v>7500</v>
+      <c r="F16" t="s">
+        <v>35</v>
       </c>
       <c r="G16">
-        <v>140</v>
+        <v>30550</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1053,11 +1172,11 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F17">
-        <v>8000</v>
+      <c r="F17" t="s">
+        <v>36</v>
       </c>
       <c r="G17">
-        <v>150</v>
+        <v>37300</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1079,11 +1198,11 @@
       <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="F18">
-        <v>8500</v>
+      <c r="F18" t="s">
+        <v>37</v>
       </c>
       <c r="G18">
-        <v>160</v>
+        <v>44980</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1105,11 +1224,11 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="F19">
-        <v>9000</v>
+      <c r="F19" t="s">
+        <v>38</v>
       </c>
       <c r="G19">
-        <v>170</v>
+        <v>53650</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1131,11 +1250,11 @@
       <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="F20">
-        <v>9500</v>
+      <c r="F20" t="s">
+        <v>39</v>
       </c>
       <c r="G20">
-        <v>180</v>
+        <v>63370</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1157,11 +1276,11 @@
       <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="F21">
-        <v>10000</v>
+      <c r="F21" t="s">
+        <v>40</v>
       </c>
       <c r="G21">
-        <v>190</v>
+        <v>74200</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1183,11 +1302,11 @@
       <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="F22">
-        <v>10500</v>
+      <c r="F22" t="s">
+        <v>41</v>
       </c>
       <c r="G22">
-        <v>200</v>
+        <v>86200</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1209,11 +1328,11 @@
       <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="F23">
-        <v>11000</v>
+      <c r="F23" t="s">
+        <v>42</v>
       </c>
       <c r="G23">
-        <v>210</v>
+        <v>99430</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1235,11 +1354,11 @@
       <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="F24">
-        <v>11500</v>
+      <c r="F24" t="s">
+        <v>43</v>
       </c>
       <c r="G24">
-        <v>220</v>
+        <v>113950</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1261,11 +1380,11 @@
       <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="F25">
-        <v>12000</v>
+      <c r="F25" t="s">
+        <v>44</v>
       </c>
       <c r="G25">
-        <v>230</v>
+        <v>129820</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1287,11 +1406,11 @@
       <c r="E26" t="s">
         <v>11</v>
       </c>
-      <c r="F26">
-        <v>12500</v>
+      <c r="F26" t="s">
+        <v>45</v>
       </c>
       <c r="G26">
-        <v>240</v>
+        <v>147100</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1313,11 +1432,11 @@
       <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="F27">
-        <v>13000</v>
+      <c r="F27" t="s">
+        <v>46</v>
       </c>
       <c r="G27">
-        <v>250</v>
+        <v>165850</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1339,11 +1458,11 @@
       <c r="E28" t="s">
         <v>11</v>
       </c>
-      <c r="F28">
-        <v>13500</v>
+      <c r="F28" t="s">
+        <v>47</v>
       </c>
       <c r="G28">
-        <v>260</v>
+        <v>186130</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1365,11 +1484,11 @@
       <c r="E29" t="s">
         <v>11</v>
       </c>
-      <c r="F29">
-        <v>14000</v>
+      <c r="F29" t="s">
+        <v>48</v>
       </c>
       <c r="G29">
-        <v>270</v>
+        <v>208000</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1391,11 +1510,11 @@
       <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="F30">
-        <v>14500</v>
+      <c r="F30" t="s">
+        <v>49</v>
       </c>
       <c r="G30">
-        <v>280</v>
+        <v>231520</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1417,11 +1536,11 @@
       <c r="E31" t="s">
         <v>11</v>
       </c>
-      <c r="F31">
-        <v>15000</v>
+      <c r="F31" t="s">
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>290</v>
+        <v>256750</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1443,11 +1562,11 @@
       <c r="E32" t="s">
         <v>11</v>
       </c>
-      <c r="F32">
-        <v>15500</v>
+      <c r="F32" t="s">
+        <v>51</v>
       </c>
       <c r="G32">
-        <v>300</v>
+        <v>283750</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1469,11 +1588,11 @@
       <c r="E33" t="s">
         <v>11</v>
       </c>
-      <c r="F33">
-        <v>16000</v>
+      <c r="F33" t="s">
+        <v>52</v>
       </c>
       <c r="G33">
-        <v>310</v>
+        <v>312580</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1495,11 +1614,11 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="F34">
-        <v>16500</v>
+      <c r="F34" t="s">
+        <v>53</v>
       </c>
       <c r="G34">
-        <v>320</v>
+        <v>343300</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1521,11 +1640,11 @@
       <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="F35">
-        <v>17000</v>
+      <c r="F35" t="s">
+        <v>54</v>
       </c>
       <c r="G35">
-        <v>330</v>
+        <v>375970</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1547,11 +1666,11 @@
       <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="F36">
-        <v>17500</v>
+      <c r="F36" t="s">
+        <v>55</v>
       </c>
       <c r="G36">
-        <v>340</v>
+        <v>410650</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1573,11 +1692,11 @@
       <c r="E37" t="s">
         <v>11</v>
       </c>
-      <c r="F37">
-        <v>18000</v>
+      <c r="F37" t="s">
+        <v>56</v>
       </c>
       <c r="G37">
-        <v>350</v>
+        <v>447400</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1599,11 +1718,11 @@
       <c r="E38" t="s">
         <v>11</v>
       </c>
-      <c r="F38">
-        <v>18500</v>
+      <c r="F38" t="s">
+        <v>57</v>
       </c>
       <c r="G38">
-        <v>360</v>
+        <v>486280</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1625,11 +1744,11 @@
       <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="F39">
-        <v>19000</v>
+      <c r="F39" t="s">
+        <v>58</v>
       </c>
       <c r="G39">
-        <v>370</v>
+        <v>527350</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1651,11 +1770,11 @@
       <c r="E40" t="s">
         <v>11</v>
       </c>
-      <c r="F40">
-        <v>19500</v>
+      <c r="F40" t="s">
+        <v>59</v>
       </c>
       <c r="G40">
-        <v>380</v>
+        <v>570670</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1677,11 +1796,11 @@
       <c r="E41" t="s">
         <v>11</v>
       </c>
-      <c r="F41">
-        <v>20000</v>
+      <c r="F41" t="s">
+        <v>60</v>
       </c>
       <c r="G41">
-        <v>390</v>
+        <v>616300</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1703,11 +1822,11 @@
       <c r="E42" t="s">
         <v>12</v>
       </c>
-      <c r="F42">
-        <v>500</v>
+      <c r="F42" t="s">
+        <v>21</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -1729,11 +1848,11 @@
       <c r="E43" t="s">
         <v>12</v>
       </c>
-      <c r="F43">
-        <v>1000</v>
+      <c r="F43" t="s">
+        <v>22</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -1755,11 +1874,11 @@
       <c r="E44" t="s">
         <v>12</v>
       </c>
-      <c r="F44">
-        <v>1500</v>
+      <c r="F44" t="s">
+        <v>23</v>
       </c>
       <c r="G44">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -1781,11 +1900,11 @@
       <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="F45">
-        <v>2000</v>
+      <c r="F45" t="s">
+        <v>24</v>
       </c>
       <c r="G45">
-        <v>30</v>
+        <v>520</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -1807,11 +1926,11 @@
       <c r="E46" t="s">
         <v>12</v>
       </c>
-      <c r="F46">
-        <v>2500</v>
+      <c r="F46" t="s">
+        <v>25</v>
       </c>
       <c r="G46">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -1833,11 +1952,11 @@
       <c r="E47" t="s">
         <v>12</v>
       </c>
-      <c r="F47">
-        <v>3000</v>
+      <c r="F47" t="s">
+        <v>26</v>
       </c>
       <c r="G47">
-        <v>50</v>
+        <v>1750</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -1859,11 +1978,11 @@
       <c r="E48" t="s">
         <v>12</v>
       </c>
-      <c r="F48">
-        <v>3500</v>
+      <c r="F48" t="s">
+        <v>27</v>
       </c>
       <c r="G48">
-        <v>60</v>
+        <v>2830</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -1885,11 +2004,11 @@
       <c r="E49" t="s">
         <v>12</v>
       </c>
-      <c r="F49">
-        <v>4000</v>
+      <c r="F49" t="s">
+        <v>28</v>
       </c>
       <c r="G49">
-        <v>70</v>
+        <v>4300</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -1911,11 +2030,11 @@
       <c r="E50" t="s">
         <v>12</v>
       </c>
-      <c r="F50">
-        <v>4500</v>
+      <c r="F50" t="s">
+        <v>29</v>
       </c>
       <c r="G50">
-        <v>80</v>
+        <v>6220</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -1937,11 +2056,11 @@
       <c r="E51" t="s">
         <v>12</v>
       </c>
-      <c r="F51">
-        <v>5000</v>
+      <c r="F51" t="s">
+        <v>30</v>
       </c>
       <c r="G51">
-        <v>90</v>
+        <v>8650</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -1963,11 +2082,11 @@
       <c r="E52" t="s">
         <v>12</v>
       </c>
-      <c r="F52">
-        <v>5500</v>
+      <c r="F52" t="s">
+        <v>31</v>
       </c>
       <c r="G52">
-        <v>100</v>
+        <v>11650</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -1989,11 +2108,11 @@
       <c r="E53" t="s">
         <v>12</v>
       </c>
-      <c r="F53">
-        <v>6000</v>
+      <c r="F53" t="s">
+        <v>32</v>
       </c>
       <c r="G53">
-        <v>110</v>
+        <v>15280</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -2015,11 +2134,11 @@
       <c r="E54" t="s">
         <v>12</v>
       </c>
-      <c r="F54">
-        <v>6500</v>
+      <c r="F54" t="s">
+        <v>33</v>
       </c>
       <c r="G54">
-        <v>120</v>
+        <v>19600</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -2041,11 +2160,11 @@
       <c r="E55" t="s">
         <v>12</v>
       </c>
-      <c r="F55">
-        <v>7000</v>
+      <c r="F55" t="s">
+        <v>34</v>
       </c>
       <c r="G55">
-        <v>130</v>
+        <v>24670</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -2067,11 +2186,11 @@
       <c r="E56" t="s">
         <v>12</v>
       </c>
-      <c r="F56">
-        <v>7500</v>
+      <c r="F56" t="s">
+        <v>35</v>
       </c>
       <c r="G56">
-        <v>140</v>
+        <v>30550</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -2093,11 +2212,11 @@
       <c r="E57" t="s">
         <v>12</v>
       </c>
-      <c r="F57">
-        <v>8000</v>
+      <c r="F57" t="s">
+        <v>36</v>
       </c>
       <c r="G57">
-        <v>150</v>
+        <v>37300</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -2119,11 +2238,11 @@
       <c r="E58" t="s">
         <v>12</v>
       </c>
-      <c r="F58">
-        <v>8500</v>
+      <c r="F58" t="s">
+        <v>37</v>
       </c>
       <c r="G58">
-        <v>160</v>
+        <v>44980</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -2145,11 +2264,11 @@
       <c r="E59" t="s">
         <v>12</v>
       </c>
-      <c r="F59">
-        <v>9000</v>
+      <c r="F59" t="s">
+        <v>38</v>
       </c>
       <c r="G59">
-        <v>170</v>
+        <v>53650</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -2171,11 +2290,11 @@
       <c r="E60" t="s">
         <v>12</v>
       </c>
-      <c r="F60">
-        <v>9500</v>
+      <c r="F60" t="s">
+        <v>39</v>
       </c>
       <c r="G60">
-        <v>180</v>
+        <v>63370</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -2197,11 +2316,11 @@
       <c r="E61" t="s">
         <v>12</v>
       </c>
-      <c r="F61">
-        <v>10000</v>
+      <c r="F61" t="s">
+        <v>40</v>
       </c>
       <c r="G61">
-        <v>190</v>
+        <v>74200</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -2223,11 +2342,11 @@
       <c r="E62" t="s">
         <v>12</v>
       </c>
-      <c r="F62">
-        <v>10500</v>
+      <c r="F62" t="s">
+        <v>41</v>
       </c>
       <c r="G62">
-        <v>200</v>
+        <v>86200</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -2249,11 +2368,11 @@
       <c r="E63" t="s">
         <v>12</v>
       </c>
-      <c r="F63">
-        <v>11000</v>
+      <c r="F63" t="s">
+        <v>42</v>
       </c>
       <c r="G63">
-        <v>210</v>
+        <v>99430</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -2275,11 +2394,11 @@
       <c r="E64" t="s">
         <v>12</v>
       </c>
-      <c r="F64">
-        <v>11500</v>
+      <c r="F64" t="s">
+        <v>43</v>
       </c>
       <c r="G64">
-        <v>220</v>
+        <v>113950</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -2301,11 +2420,11 @@
       <c r="E65" t="s">
         <v>12</v>
       </c>
-      <c r="F65">
-        <v>12000</v>
+      <c r="F65" t="s">
+        <v>44</v>
       </c>
       <c r="G65">
-        <v>230</v>
+        <v>129820</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -2327,11 +2446,11 @@
       <c r="E66" t="s">
         <v>12</v>
       </c>
-      <c r="F66">
-        <v>12500</v>
+      <c r="F66" t="s">
+        <v>45</v>
       </c>
       <c r="G66">
-        <v>240</v>
+        <v>147100</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -2353,11 +2472,11 @@
       <c r="E67" t="s">
         <v>12</v>
       </c>
-      <c r="F67">
-        <v>13000</v>
+      <c r="F67" t="s">
+        <v>46</v>
       </c>
       <c r="G67">
-        <v>250</v>
+        <v>165850</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -2379,11 +2498,11 @@
       <c r="E68" t="s">
         <v>12</v>
       </c>
-      <c r="F68">
-        <v>13500</v>
+      <c r="F68" t="s">
+        <v>47</v>
       </c>
       <c r="G68">
-        <v>260</v>
+        <v>186130</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -2405,11 +2524,11 @@
       <c r="E69" t="s">
         <v>12</v>
       </c>
-      <c r="F69">
-        <v>14000</v>
+      <c r="F69" t="s">
+        <v>48</v>
       </c>
       <c r="G69">
-        <v>270</v>
+        <v>208000</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -2431,11 +2550,11 @@
       <c r="E70" t="s">
         <v>12</v>
       </c>
-      <c r="F70">
-        <v>14500</v>
+      <c r="F70" t="s">
+        <v>49</v>
       </c>
       <c r="G70">
-        <v>280</v>
+        <v>231520</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -2457,11 +2576,11 @@
       <c r="E71" t="s">
         <v>12</v>
       </c>
-      <c r="F71">
-        <v>15000</v>
+      <c r="F71" t="s">
+        <v>50</v>
       </c>
       <c r="G71">
-        <v>290</v>
+        <v>256750</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -2483,11 +2602,11 @@
       <c r="E72" t="s">
         <v>12</v>
       </c>
-      <c r="F72">
-        <v>15500</v>
+      <c r="F72" t="s">
+        <v>51</v>
       </c>
       <c r="G72">
-        <v>300</v>
+        <v>283750</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -2509,11 +2628,11 @@
       <c r="E73" t="s">
         <v>12</v>
       </c>
-      <c r="F73">
-        <v>16000</v>
+      <c r="F73" t="s">
+        <v>52</v>
       </c>
       <c r="G73">
-        <v>310</v>
+        <v>312580</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -2535,11 +2654,11 @@
       <c r="E74" t="s">
         <v>12</v>
       </c>
-      <c r="F74">
-        <v>16500</v>
+      <c r="F74" t="s">
+        <v>53</v>
       </c>
       <c r="G74">
-        <v>320</v>
+        <v>343300</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -2561,11 +2680,11 @@
       <c r="E75" t="s">
         <v>12</v>
       </c>
-      <c r="F75">
-        <v>17000</v>
+      <c r="F75" t="s">
+        <v>54</v>
       </c>
       <c r="G75">
-        <v>330</v>
+        <v>375970</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -2587,11 +2706,11 @@
       <c r="E76" t="s">
         <v>12</v>
       </c>
-      <c r="F76">
-        <v>17500</v>
+      <c r="F76" t="s">
+        <v>55</v>
       </c>
       <c r="G76">
-        <v>340</v>
+        <v>410650</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -2613,11 +2732,11 @@
       <c r="E77" t="s">
         <v>12</v>
       </c>
-      <c r="F77">
-        <v>18000</v>
+      <c r="F77" t="s">
+        <v>56</v>
       </c>
       <c r="G77">
-        <v>350</v>
+        <v>447400</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -2639,11 +2758,11 @@
       <c r="E78" t="s">
         <v>12</v>
       </c>
-      <c r="F78">
-        <v>18500</v>
+      <c r="F78" t="s">
+        <v>57</v>
       </c>
       <c r="G78">
-        <v>360</v>
+        <v>486280</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -2665,11 +2784,11 @@
       <c r="E79" t="s">
         <v>12</v>
       </c>
-      <c r="F79">
-        <v>19000</v>
+      <c r="F79" t="s">
+        <v>58</v>
       </c>
       <c r="G79">
-        <v>370</v>
+        <v>527350</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -2691,11 +2810,11 @@
       <c r="E80" t="s">
         <v>12</v>
       </c>
-      <c r="F80">
-        <v>19500</v>
+      <c r="F80" t="s">
+        <v>59</v>
       </c>
       <c r="G80">
-        <v>380</v>
+        <v>570670</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -2717,11 +2836,11 @@
       <c r="E81" t="s">
         <v>12</v>
       </c>
-      <c r="F81">
-        <v>20000</v>
+      <c r="F81" t="s">
+        <v>60</v>
       </c>
       <c r="G81">
-        <v>390</v>
+        <v>616300</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -2743,11 +2862,11 @@
       <c r="E82" t="s">
         <v>14</v>
       </c>
-      <c r="F82">
-        <v>500</v>
+      <c r="F82" t="s">
+        <v>21</v>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -2769,11 +2888,11 @@
       <c r="E83" t="s">
         <v>14</v>
       </c>
-      <c r="F83">
-        <v>1000</v>
+      <c r="F83" t="s">
+        <v>22</v>
       </c>
       <c r="G83">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="H83">
         <v>3</v>
@@ -2795,11 +2914,11 @@
       <c r="E84" t="s">
         <v>14</v>
       </c>
-      <c r="F84">
-        <v>1500</v>
+      <c r="F84" t="s">
+        <v>23</v>
       </c>
       <c r="G84">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -2821,11 +2940,11 @@
       <c r="E85" t="s">
         <v>14</v>
       </c>
-      <c r="F85">
-        <v>2000</v>
+      <c r="F85" t="s">
+        <v>24</v>
       </c>
       <c r="G85">
-        <v>30</v>
+        <v>520</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -2847,11 +2966,11 @@
       <c r="E86" t="s">
         <v>14</v>
       </c>
-      <c r="F86">
-        <v>2500</v>
+      <c r="F86" t="s">
+        <v>25</v>
       </c>
       <c r="G86">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -2873,11 +2992,11 @@
       <c r="E87" t="s">
         <v>14</v>
       </c>
-      <c r="F87">
-        <v>3000</v>
+      <c r="F87" t="s">
+        <v>26</v>
       </c>
       <c r="G87">
-        <v>50</v>
+        <v>1750</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -2899,11 +3018,11 @@
       <c r="E88" t="s">
         <v>14</v>
       </c>
-      <c r="F88">
-        <v>3500</v>
+      <c r="F88" t="s">
+        <v>27</v>
       </c>
       <c r="G88">
-        <v>60</v>
+        <v>2830</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -2925,11 +3044,11 @@
       <c r="E89" t="s">
         <v>14</v>
       </c>
-      <c r="F89">
-        <v>4000</v>
+      <c r="F89" t="s">
+        <v>28</v>
       </c>
       <c r="G89">
-        <v>70</v>
+        <v>4300</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -2951,11 +3070,11 @@
       <c r="E90" t="s">
         <v>14</v>
       </c>
-      <c r="F90">
-        <v>4500</v>
+      <c r="F90" t="s">
+        <v>29</v>
       </c>
       <c r="G90">
-        <v>80</v>
+        <v>6220</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -2977,11 +3096,11 @@
       <c r="E91" t="s">
         <v>14</v>
       </c>
-      <c r="F91">
-        <v>5000</v>
+      <c r="F91" t="s">
+        <v>30</v>
       </c>
       <c r="G91">
-        <v>90</v>
+        <v>8650</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -3003,11 +3122,11 @@
       <c r="E92" t="s">
         <v>14</v>
       </c>
-      <c r="F92">
-        <v>5500</v>
+      <c r="F92" t="s">
+        <v>31</v>
       </c>
       <c r="G92">
-        <v>100</v>
+        <v>11650</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -3029,11 +3148,11 @@
       <c r="E93" t="s">
         <v>14</v>
       </c>
-      <c r="F93">
-        <v>6000</v>
+      <c r="F93" t="s">
+        <v>32</v>
       </c>
       <c r="G93">
-        <v>110</v>
+        <v>15280</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -3055,11 +3174,11 @@
       <c r="E94" t="s">
         <v>14</v>
       </c>
-      <c r="F94">
-        <v>6500</v>
+      <c r="F94" t="s">
+        <v>33</v>
       </c>
       <c r="G94">
-        <v>120</v>
+        <v>19600</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -3081,11 +3200,11 @@
       <c r="E95" t="s">
         <v>14</v>
       </c>
-      <c r="F95">
-        <v>7000</v>
+      <c r="F95" t="s">
+        <v>34</v>
       </c>
       <c r="G95">
-        <v>130</v>
+        <v>24670</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -3107,11 +3226,11 @@
       <c r="E96" t="s">
         <v>14</v>
       </c>
-      <c r="F96">
-        <v>7500</v>
+      <c r="F96" t="s">
+        <v>35</v>
       </c>
       <c r="G96">
-        <v>140</v>
+        <v>30550</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -3133,11 +3252,11 @@
       <c r="E97" t="s">
         <v>14</v>
       </c>
-      <c r="F97">
-        <v>8000</v>
+      <c r="F97" t="s">
+        <v>36</v>
       </c>
       <c r="G97">
-        <v>150</v>
+        <v>37300</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -3159,11 +3278,11 @@
       <c r="E98" t="s">
         <v>14</v>
       </c>
-      <c r="F98">
-        <v>8500</v>
+      <c r="F98" t="s">
+        <v>37</v>
       </c>
       <c r="G98">
-        <v>160</v>
+        <v>44980</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -3185,11 +3304,11 @@
       <c r="E99" t="s">
         <v>14</v>
       </c>
-      <c r="F99">
-        <v>9000</v>
+      <c r="F99" t="s">
+        <v>38</v>
       </c>
       <c r="G99">
-        <v>170</v>
+        <v>53650</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -3211,11 +3330,11 @@
       <c r="E100" t="s">
         <v>14</v>
       </c>
-      <c r="F100">
-        <v>9500</v>
+      <c r="F100" t="s">
+        <v>39</v>
       </c>
       <c r="G100">
-        <v>180</v>
+        <v>63370</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -3237,11 +3356,11 @@
       <c r="E101" t="s">
         <v>14</v>
       </c>
-      <c r="F101">
-        <v>10000</v>
+      <c r="F101" t="s">
+        <v>40</v>
       </c>
       <c r="G101">
-        <v>190</v>
+        <v>74200</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -3263,11 +3382,11 @@
       <c r="E102" t="s">
         <v>14</v>
       </c>
-      <c r="F102">
-        <v>10500</v>
+      <c r="F102" t="s">
+        <v>41</v>
       </c>
       <c r="G102">
-        <v>200</v>
+        <v>86200</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -3289,11 +3408,11 @@
       <c r="E103" t="s">
         <v>14</v>
       </c>
-      <c r="F103">
-        <v>11000</v>
+      <c r="F103" t="s">
+        <v>42</v>
       </c>
       <c r="G103">
-        <v>210</v>
+        <v>99430</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -3315,11 +3434,11 @@
       <c r="E104" t="s">
         <v>14</v>
       </c>
-      <c r="F104">
-        <v>11500</v>
+      <c r="F104" t="s">
+        <v>43</v>
       </c>
       <c r="G104">
-        <v>220</v>
+        <v>113950</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -3341,11 +3460,11 @@
       <c r="E105" t="s">
         <v>14</v>
       </c>
-      <c r="F105">
-        <v>12000</v>
+      <c r="F105" t="s">
+        <v>44</v>
       </c>
       <c r="G105">
-        <v>230</v>
+        <v>129820</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -3367,11 +3486,11 @@
       <c r="E106" t="s">
         <v>14</v>
       </c>
-      <c r="F106">
-        <v>12500</v>
+      <c r="F106" t="s">
+        <v>45</v>
       </c>
       <c r="G106">
-        <v>240</v>
+        <v>147100</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -3393,11 +3512,11 @@
       <c r="E107" t="s">
         <v>14</v>
       </c>
-      <c r="F107">
-        <v>13000</v>
+      <c r="F107" t="s">
+        <v>46</v>
       </c>
       <c r="G107">
-        <v>250</v>
+        <v>165850</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -3419,11 +3538,11 @@
       <c r="E108" t="s">
         <v>14</v>
       </c>
-      <c r="F108">
-        <v>13500</v>
+      <c r="F108" t="s">
+        <v>47</v>
       </c>
       <c r="G108">
-        <v>260</v>
+        <v>186130</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -3445,11 +3564,11 @@
       <c r="E109" t="s">
         <v>14</v>
       </c>
-      <c r="F109">
-        <v>14000</v>
+      <c r="F109" t="s">
+        <v>48</v>
       </c>
       <c r="G109">
-        <v>270</v>
+        <v>208000</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -3471,11 +3590,11 @@
       <c r="E110" t="s">
         <v>14</v>
       </c>
-      <c r="F110">
-        <v>14500</v>
+      <c r="F110" t="s">
+        <v>49</v>
       </c>
       <c r="G110">
-        <v>280</v>
+        <v>231520</v>
       </c>
       <c r="H110">
         <v>3</v>
@@ -3497,11 +3616,11 @@
       <c r="E111" t="s">
         <v>14</v>
       </c>
-      <c r="F111">
-        <v>15000</v>
+      <c r="F111" t="s">
+        <v>50</v>
       </c>
       <c r="G111">
-        <v>290</v>
+        <v>256750</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -3523,11 +3642,11 @@
       <c r="E112" t="s">
         <v>14</v>
       </c>
-      <c r="F112">
-        <v>15500</v>
+      <c r="F112" t="s">
+        <v>51</v>
       </c>
       <c r="G112">
-        <v>300</v>
+        <v>283750</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -3549,11 +3668,11 @@
       <c r="E113" t="s">
         <v>14</v>
       </c>
-      <c r="F113">
-        <v>16000</v>
+      <c r="F113" t="s">
+        <v>52</v>
       </c>
       <c r="G113">
-        <v>310</v>
+        <v>312580</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -3575,11 +3694,11 @@
       <c r="E114" t="s">
         <v>14</v>
       </c>
-      <c r="F114">
-        <v>16500</v>
+      <c r="F114" t="s">
+        <v>53</v>
       </c>
       <c r="G114">
-        <v>320</v>
+        <v>343300</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -3601,11 +3720,11 @@
       <c r="E115" t="s">
         <v>14</v>
       </c>
-      <c r="F115">
-        <v>17000</v>
+      <c r="F115" t="s">
+        <v>54</v>
       </c>
       <c r="G115">
-        <v>330</v>
+        <v>375970</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -3627,11 +3746,11 @@
       <c r="E116" t="s">
         <v>14</v>
       </c>
-      <c r="F116">
-        <v>17500</v>
+      <c r="F116" t="s">
+        <v>55</v>
       </c>
       <c r="G116">
-        <v>340</v>
+        <v>410650</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -3653,11 +3772,11 @@
       <c r="E117" t="s">
         <v>14</v>
       </c>
-      <c r="F117">
-        <v>18000</v>
+      <c r="F117" t="s">
+        <v>56</v>
       </c>
       <c r="G117">
-        <v>350</v>
+        <v>447400</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -3679,11 +3798,11 @@
       <c r="E118" t="s">
         <v>14</v>
       </c>
-      <c r="F118">
-        <v>18500</v>
+      <c r="F118" t="s">
+        <v>57</v>
       </c>
       <c r="G118">
-        <v>360</v>
+        <v>486280</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -3705,11 +3824,11 @@
       <c r="E119" t="s">
         <v>14</v>
       </c>
-      <c r="F119">
-        <v>19000</v>
+      <c r="F119" t="s">
+        <v>58</v>
       </c>
       <c r="G119">
-        <v>370</v>
+        <v>527350</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -3731,11 +3850,11 @@
       <c r="E120" t="s">
         <v>14</v>
       </c>
-      <c r="F120">
-        <v>19500</v>
+      <c r="F120" t="s">
+        <v>59</v>
       </c>
       <c r="G120">
-        <v>380</v>
+        <v>570670</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -3757,11 +3876,11 @@
       <c r="E121" t="s">
         <v>14</v>
       </c>
-      <c r="F121">
-        <v>20000</v>
+      <c r="F121" t="s">
+        <v>60</v>
       </c>
       <c r="G121">
-        <v>390</v>
+        <v>616300</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -3783,11 +3902,11 @@
       <c r="E122" t="s">
         <v>16</v>
       </c>
-      <c r="F122">
-        <v>500</v>
+      <c r="F122" t="s">
+        <v>21</v>
       </c>
       <c r="G122">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H122">
         <v>4</v>
@@ -3809,11 +3928,11 @@
       <c r="E123" t="s">
         <v>16</v>
       </c>
-      <c r="F123">
-        <v>1000</v>
+      <c r="F123" t="s">
+        <v>22</v>
       </c>
       <c r="G123">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="H123">
         <v>4</v>
@@ -3835,11 +3954,11 @@
       <c r="E124" t="s">
         <v>16</v>
       </c>
-      <c r="F124">
-        <v>1500</v>
+      <c r="F124" t="s">
+        <v>23</v>
       </c>
       <c r="G124">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="H124">
         <v>4</v>
@@ -3861,11 +3980,11 @@
       <c r="E125" t="s">
         <v>16</v>
       </c>
-      <c r="F125">
-        <v>2000</v>
+      <c r="F125" t="s">
+        <v>24</v>
       </c>
       <c r="G125">
-        <v>30</v>
+        <v>520</v>
       </c>
       <c r="H125">
         <v>4</v>
@@ -3887,11 +4006,11 @@
       <c r="E126" t="s">
         <v>16</v>
       </c>
-      <c r="F126">
-        <v>2500</v>
+      <c r="F126" t="s">
+        <v>25</v>
       </c>
       <c r="G126">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -3913,11 +4032,11 @@
       <c r="E127" t="s">
         <v>16</v>
       </c>
-      <c r="F127">
-        <v>3000</v>
+      <c r="F127" t="s">
+        <v>26</v>
       </c>
       <c r="G127">
-        <v>50</v>
+        <v>1750</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -3939,11 +4058,11 @@
       <c r="E128" t="s">
         <v>16</v>
       </c>
-      <c r="F128">
-        <v>3500</v>
+      <c r="F128" t="s">
+        <v>27</v>
       </c>
       <c r="G128">
-        <v>60</v>
+        <v>2830</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -3965,11 +4084,11 @@
       <c r="E129" t="s">
         <v>16</v>
       </c>
-      <c r="F129">
-        <v>4000</v>
+      <c r="F129" t="s">
+        <v>28</v>
       </c>
       <c r="G129">
-        <v>70</v>
+        <v>4300</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -3991,11 +4110,11 @@
       <c r="E130" t="s">
         <v>16</v>
       </c>
-      <c r="F130">
-        <v>4500</v>
+      <c r="F130" t="s">
+        <v>29</v>
       </c>
       <c r="G130">
-        <v>80</v>
+        <v>6220</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -4017,11 +4136,11 @@
       <c r="E131" t="s">
         <v>16</v>
       </c>
-      <c r="F131">
-        <v>5000</v>
+      <c r="F131" t="s">
+        <v>30</v>
       </c>
       <c r="G131">
-        <v>90</v>
+        <v>8650</v>
       </c>
       <c r="H131">
         <v>4</v>
@@ -4043,11 +4162,11 @@
       <c r="E132" t="s">
         <v>16</v>
       </c>
-      <c r="F132">
-        <v>5500</v>
+      <c r="F132" t="s">
+        <v>31</v>
       </c>
       <c r="G132">
-        <v>100</v>
+        <v>11650</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -4069,11 +4188,11 @@
       <c r="E133" t="s">
         <v>16</v>
       </c>
-      <c r="F133">
-        <v>6000</v>
+      <c r="F133" t="s">
+        <v>32</v>
       </c>
       <c r="G133">
-        <v>110</v>
+        <v>15280</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -4095,11 +4214,11 @@
       <c r="E134" t="s">
         <v>16</v>
       </c>
-      <c r="F134">
-        <v>6500</v>
+      <c r="F134" t="s">
+        <v>33</v>
       </c>
       <c r="G134">
-        <v>120</v>
+        <v>19600</v>
       </c>
       <c r="H134">
         <v>4</v>
@@ -4121,11 +4240,11 @@
       <c r="E135" t="s">
         <v>16</v>
       </c>
-      <c r="F135">
-        <v>7000</v>
+      <c r="F135" t="s">
+        <v>34</v>
       </c>
       <c r="G135">
-        <v>130</v>
+        <v>24670</v>
       </c>
       <c r="H135">
         <v>4</v>
@@ -4147,11 +4266,11 @@
       <c r="E136" t="s">
         <v>16</v>
       </c>
-      <c r="F136">
-        <v>7500</v>
+      <c r="F136" t="s">
+        <v>35</v>
       </c>
       <c r="G136">
-        <v>140</v>
+        <v>30550</v>
       </c>
       <c r="H136">
         <v>4</v>
@@ -4173,11 +4292,11 @@
       <c r="E137" t="s">
         <v>16</v>
       </c>
-      <c r="F137">
-        <v>8000</v>
+      <c r="F137" t="s">
+        <v>36</v>
       </c>
       <c r="G137">
-        <v>150</v>
+        <v>37300</v>
       </c>
       <c r="H137">
         <v>4</v>
@@ -4199,11 +4318,11 @@
       <c r="E138" t="s">
         <v>16</v>
       </c>
-      <c r="F138">
-        <v>8500</v>
+      <c r="F138" t="s">
+        <v>37</v>
       </c>
       <c r="G138">
-        <v>160</v>
+        <v>44980</v>
       </c>
       <c r="H138">
         <v>4</v>
@@ -4225,11 +4344,11 @@
       <c r="E139" t="s">
         <v>16</v>
       </c>
-      <c r="F139">
-        <v>9000</v>
+      <c r="F139" t="s">
+        <v>38</v>
       </c>
       <c r="G139">
-        <v>170</v>
+        <v>53650</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -4251,11 +4370,11 @@
       <c r="E140" t="s">
         <v>16</v>
       </c>
-      <c r="F140">
-        <v>9500</v>
+      <c r="F140" t="s">
+        <v>39</v>
       </c>
       <c r="G140">
-        <v>180</v>
+        <v>63370</v>
       </c>
       <c r="H140">
         <v>4</v>
@@ -4277,11 +4396,11 @@
       <c r="E141" t="s">
         <v>16</v>
       </c>
-      <c r="F141">
-        <v>10000</v>
+      <c r="F141" t="s">
+        <v>40</v>
       </c>
       <c r="G141">
-        <v>190</v>
+        <v>74200</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -4303,11 +4422,11 @@
       <c r="E142" t="s">
         <v>16</v>
       </c>
-      <c r="F142">
-        <v>10500</v>
+      <c r="F142" t="s">
+        <v>41</v>
       </c>
       <c r="G142">
-        <v>200</v>
+        <v>86200</v>
       </c>
       <c r="H142">
         <v>4</v>
@@ -4329,11 +4448,11 @@
       <c r="E143" t="s">
         <v>16</v>
       </c>
-      <c r="F143">
-        <v>11000</v>
+      <c r="F143" t="s">
+        <v>42</v>
       </c>
       <c r="G143">
-        <v>210</v>
+        <v>99430</v>
       </c>
       <c r="H143">
         <v>4</v>
@@ -4355,11 +4474,11 @@
       <c r="E144" t="s">
         <v>16</v>
       </c>
-      <c r="F144">
-        <v>11500</v>
+      <c r="F144" t="s">
+        <v>43</v>
       </c>
       <c r="G144">
-        <v>220</v>
+        <v>113950</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -4381,11 +4500,11 @@
       <c r="E145" t="s">
         <v>16</v>
       </c>
-      <c r="F145">
-        <v>12000</v>
+      <c r="F145" t="s">
+        <v>44</v>
       </c>
       <c r="G145">
-        <v>230</v>
+        <v>129820</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -4407,11 +4526,11 @@
       <c r="E146" t="s">
         <v>16</v>
       </c>
-      <c r="F146">
-        <v>12500</v>
+      <c r="F146" t="s">
+        <v>45</v>
       </c>
       <c r="G146">
-        <v>240</v>
+        <v>147100</v>
       </c>
       <c r="H146">
         <v>4</v>
@@ -4433,11 +4552,11 @@
       <c r="E147" t="s">
         <v>16</v>
       </c>
-      <c r="F147">
-        <v>13000</v>
+      <c r="F147" t="s">
+        <v>46</v>
       </c>
       <c r="G147">
-        <v>250</v>
+        <v>165850</v>
       </c>
       <c r="H147">
         <v>4</v>
@@ -4459,11 +4578,11 @@
       <c r="E148" t="s">
         <v>16</v>
       </c>
-      <c r="F148">
-        <v>13500</v>
+      <c r="F148" t="s">
+        <v>47</v>
       </c>
       <c r="G148">
-        <v>260</v>
+        <v>186130</v>
       </c>
       <c r="H148">
         <v>4</v>
@@ -4485,11 +4604,11 @@
       <c r="E149" t="s">
         <v>16</v>
       </c>
-      <c r="F149">
-        <v>14000</v>
+      <c r="F149" t="s">
+        <v>48</v>
       </c>
       <c r="G149">
-        <v>270</v>
+        <v>208000</v>
       </c>
       <c r="H149">
         <v>4</v>
@@ -4511,11 +4630,11 @@
       <c r="E150" t="s">
         <v>16</v>
       </c>
-      <c r="F150">
-        <v>14500</v>
+      <c r="F150" t="s">
+        <v>49</v>
       </c>
       <c r="G150">
-        <v>280</v>
+        <v>231520</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -4537,11 +4656,11 @@
       <c r="E151" t="s">
         <v>16</v>
       </c>
-      <c r="F151">
-        <v>15000</v>
+      <c r="F151" t="s">
+        <v>50</v>
       </c>
       <c r="G151">
-        <v>290</v>
+        <v>256750</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -4563,11 +4682,11 @@
       <c r="E152" t="s">
         <v>16</v>
       </c>
-      <c r="F152">
-        <v>15500</v>
+      <c r="F152" t="s">
+        <v>51</v>
       </c>
       <c r="G152">
-        <v>300</v>
+        <v>283750</v>
       </c>
       <c r="H152">
         <v>4</v>
@@ -4589,11 +4708,11 @@
       <c r="E153" t="s">
         <v>16</v>
       </c>
-      <c r="F153">
-        <v>16000</v>
+      <c r="F153" t="s">
+        <v>52</v>
       </c>
       <c r="G153">
-        <v>310</v>
+        <v>312580</v>
       </c>
       <c r="H153">
         <v>4</v>
@@ -4615,11 +4734,11 @@
       <c r="E154" t="s">
         <v>16</v>
       </c>
-      <c r="F154">
-        <v>16500</v>
+      <c r="F154" t="s">
+        <v>53</v>
       </c>
       <c r="G154">
-        <v>320</v>
+        <v>343300</v>
       </c>
       <c r="H154">
         <v>4</v>
@@ -4641,11 +4760,11 @@
       <c r="E155" t="s">
         <v>16</v>
       </c>
-      <c r="F155">
-        <v>17000</v>
+      <c r="F155" t="s">
+        <v>54</v>
       </c>
       <c r="G155">
-        <v>330</v>
+        <v>375970</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -4667,11 +4786,11 @@
       <c r="E156" t="s">
         <v>16</v>
       </c>
-      <c r="F156">
-        <v>17500</v>
+      <c r="F156" t="s">
+        <v>55</v>
       </c>
       <c r="G156">
-        <v>340</v>
+        <v>410650</v>
       </c>
       <c r="H156">
         <v>4</v>
@@ -4693,11 +4812,11 @@
       <c r="E157" t="s">
         <v>16</v>
       </c>
-      <c r="F157">
-        <v>18000</v>
+      <c r="F157" t="s">
+        <v>56</v>
       </c>
       <c r="G157">
-        <v>350</v>
+        <v>447400</v>
       </c>
       <c r="H157">
         <v>4</v>
@@ -4719,11 +4838,11 @@
       <c r="E158" t="s">
         <v>16</v>
       </c>
-      <c r="F158">
-        <v>18500</v>
+      <c r="F158" t="s">
+        <v>57</v>
       </c>
       <c r="G158">
-        <v>360</v>
+        <v>486280</v>
       </c>
       <c r="H158">
         <v>4</v>
@@ -4745,11 +4864,11 @@
       <c r="E159" t="s">
         <v>16</v>
       </c>
-      <c r="F159">
-        <v>19000</v>
+      <c r="F159" t="s">
+        <v>58</v>
       </c>
       <c r="G159">
-        <v>370</v>
+        <v>527350</v>
       </c>
       <c r="H159">
         <v>4</v>
@@ -4771,11 +4890,11 @@
       <c r="E160" t="s">
         <v>16</v>
       </c>
-      <c r="F160">
-        <v>19500</v>
+      <c r="F160" t="s">
+        <v>59</v>
       </c>
       <c r="G160">
-        <v>380</v>
+        <v>570670</v>
       </c>
       <c r="H160">
         <v>4</v>
@@ -4797,11 +4916,11 @@
       <c r="E161" t="s">
         <v>16</v>
       </c>
-      <c r="F161">
-        <v>20000</v>
+      <c r="F161" t="s">
+        <v>60</v>
       </c>
       <c r="G161">
-        <v>390</v>
+        <v>616300</v>
       </c>
       <c r="H161">
         <v>4</v>
@@ -4823,11 +4942,11 @@
       <c r="E162" t="s">
         <v>18</v>
       </c>
-      <c r="F162">
-        <v>500</v>
+      <c r="F162" t="s">
+        <v>21</v>
       </c>
       <c r="G162">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H162">
         <v>5</v>
@@ -4849,11 +4968,11 @@
       <c r="E163" t="s">
         <v>18</v>
       </c>
-      <c r="F163">
-        <v>1000</v>
+      <c r="F163" t="s">
+        <v>22</v>
       </c>
       <c r="G163">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="H163">
         <v>5</v>
@@ -4875,11 +4994,11 @@
       <c r="E164" t="s">
         <v>18</v>
       </c>
-      <c r="F164">
-        <v>1500</v>
+      <c r="F164" t="s">
+        <v>23</v>
       </c>
       <c r="G164">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="H164">
         <v>5</v>
@@ -4901,11 +5020,11 @@
       <c r="E165" t="s">
         <v>18</v>
       </c>
-      <c r="F165">
-        <v>2000</v>
+      <c r="F165" t="s">
+        <v>24</v>
       </c>
       <c r="G165">
-        <v>30</v>
+        <v>520</v>
       </c>
       <c r="H165">
         <v>5</v>
@@ -4927,11 +5046,11 @@
       <c r="E166" t="s">
         <v>18</v>
       </c>
-      <c r="F166">
-        <v>2500</v>
+      <c r="F166" t="s">
+        <v>25</v>
       </c>
       <c r="G166">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="H166">
         <v>5</v>
@@ -4953,11 +5072,11 @@
       <c r="E167" t="s">
         <v>18</v>
       </c>
-      <c r="F167">
-        <v>3000</v>
+      <c r="F167" t="s">
+        <v>26</v>
       </c>
       <c r="G167">
-        <v>50</v>
+        <v>1750</v>
       </c>
       <c r="H167">
         <v>5</v>
@@ -4979,11 +5098,11 @@
       <c r="E168" t="s">
         <v>18</v>
       </c>
-      <c r="F168">
-        <v>3500</v>
+      <c r="F168" t="s">
+        <v>27</v>
       </c>
       <c r="G168">
-        <v>60</v>
+        <v>2830</v>
       </c>
       <c r="H168">
         <v>5</v>
@@ -5005,11 +5124,11 @@
       <c r="E169" t="s">
         <v>18</v>
       </c>
-      <c r="F169">
-        <v>4000</v>
+      <c r="F169" t="s">
+        <v>28</v>
       </c>
       <c r="G169">
-        <v>70</v>
+        <v>4300</v>
       </c>
       <c r="H169">
         <v>5</v>
@@ -5031,11 +5150,11 @@
       <c r="E170" t="s">
         <v>18</v>
       </c>
-      <c r="F170">
-        <v>4500</v>
+      <c r="F170" t="s">
+        <v>29</v>
       </c>
       <c r="G170">
-        <v>80</v>
+        <v>6220</v>
       </c>
       <c r="H170">
         <v>5</v>
@@ -5057,11 +5176,11 @@
       <c r="E171" t="s">
         <v>18</v>
       </c>
-      <c r="F171">
-        <v>5000</v>
+      <c r="F171" t="s">
+        <v>30</v>
       </c>
       <c r="G171">
-        <v>90</v>
+        <v>8650</v>
       </c>
       <c r="H171">
         <v>5</v>
@@ -5083,11 +5202,11 @@
       <c r="E172" t="s">
         <v>18</v>
       </c>
-      <c r="F172">
-        <v>5500</v>
+      <c r="F172" t="s">
+        <v>31</v>
       </c>
       <c r="G172">
-        <v>100</v>
+        <v>11650</v>
       </c>
       <c r="H172">
         <v>5</v>
@@ -5109,11 +5228,11 @@
       <c r="E173" t="s">
         <v>18</v>
       </c>
-      <c r="F173">
-        <v>6000</v>
+      <c r="F173" t="s">
+        <v>32</v>
       </c>
       <c r="G173">
-        <v>110</v>
+        <v>15280</v>
       </c>
       <c r="H173">
         <v>5</v>
@@ -5135,11 +5254,11 @@
       <c r="E174" t="s">
         <v>18</v>
       </c>
-      <c r="F174">
-        <v>6500</v>
+      <c r="F174" t="s">
+        <v>33</v>
       </c>
       <c r="G174">
-        <v>120</v>
+        <v>19600</v>
       </c>
       <c r="H174">
         <v>5</v>
@@ -5161,11 +5280,11 @@
       <c r="E175" t="s">
         <v>18</v>
       </c>
-      <c r="F175">
-        <v>7000</v>
+      <c r="F175" t="s">
+        <v>34</v>
       </c>
       <c r="G175">
-        <v>130</v>
+        <v>24670</v>
       </c>
       <c r="H175">
         <v>5</v>
@@ -5187,11 +5306,11 @@
       <c r="E176" t="s">
         <v>18</v>
       </c>
-      <c r="F176">
-        <v>7500</v>
+      <c r="F176" t="s">
+        <v>35</v>
       </c>
       <c r="G176">
-        <v>140</v>
+        <v>30550</v>
       </c>
       <c r="H176">
         <v>5</v>
@@ -5213,11 +5332,11 @@
       <c r="E177" t="s">
         <v>18</v>
       </c>
-      <c r="F177">
-        <v>8000</v>
+      <c r="F177" t="s">
+        <v>36</v>
       </c>
       <c r="G177">
-        <v>150</v>
+        <v>37300</v>
       </c>
       <c r="H177">
         <v>5</v>
@@ -5239,11 +5358,11 @@
       <c r="E178" t="s">
         <v>18</v>
       </c>
-      <c r="F178">
-        <v>8500</v>
+      <c r="F178" t="s">
+        <v>37</v>
       </c>
       <c r="G178">
-        <v>160</v>
+        <v>44980</v>
       </c>
       <c r="H178">
         <v>5</v>
@@ -5265,11 +5384,11 @@
       <c r="E179" t="s">
         <v>18</v>
       </c>
-      <c r="F179">
-        <v>9000</v>
+      <c r="F179" t="s">
+        <v>38</v>
       </c>
       <c r="G179">
-        <v>170</v>
+        <v>53650</v>
       </c>
       <c r="H179">
         <v>5</v>
@@ -5291,11 +5410,11 @@
       <c r="E180" t="s">
         <v>18</v>
       </c>
-      <c r="F180">
-        <v>9500</v>
+      <c r="F180" t="s">
+        <v>39</v>
       </c>
       <c r="G180">
-        <v>180</v>
+        <v>63370</v>
       </c>
       <c r="H180">
         <v>5</v>
@@ -5317,11 +5436,11 @@
       <c r="E181" t="s">
         <v>18</v>
       </c>
-      <c r="F181">
-        <v>10000</v>
+      <c r="F181" t="s">
+        <v>40</v>
       </c>
       <c r="G181">
-        <v>190</v>
+        <v>74200</v>
       </c>
       <c r="H181">
         <v>5</v>
@@ -5343,11 +5462,11 @@
       <c r="E182" t="s">
         <v>18</v>
       </c>
-      <c r="F182">
-        <v>10500</v>
+      <c r="F182" t="s">
+        <v>41</v>
       </c>
       <c r="G182">
-        <v>200</v>
+        <v>86200</v>
       </c>
       <c r="H182">
         <v>5</v>
@@ -5369,11 +5488,11 @@
       <c r="E183" t="s">
         <v>18</v>
       </c>
-      <c r="F183">
-        <v>11000</v>
+      <c r="F183" t="s">
+        <v>42</v>
       </c>
       <c r="G183">
-        <v>210</v>
+        <v>99430</v>
       </c>
       <c r="H183">
         <v>5</v>
@@ -5395,11 +5514,11 @@
       <c r="E184" t="s">
         <v>18</v>
       </c>
-      <c r="F184">
-        <v>11500</v>
+      <c r="F184" t="s">
+        <v>43</v>
       </c>
       <c r="G184">
-        <v>220</v>
+        <v>113950</v>
       </c>
       <c r="H184">
         <v>5</v>
@@ -5421,11 +5540,11 @@
       <c r="E185" t="s">
         <v>18</v>
       </c>
-      <c r="F185">
-        <v>12000</v>
+      <c r="F185" t="s">
+        <v>44</v>
       </c>
       <c r="G185">
-        <v>230</v>
+        <v>129820</v>
       </c>
       <c r="H185">
         <v>5</v>
@@ -5447,11 +5566,11 @@
       <c r="E186" t="s">
         <v>18</v>
       </c>
-      <c r="F186">
-        <v>12500</v>
+      <c r="F186" t="s">
+        <v>45</v>
       </c>
       <c r="G186">
-        <v>240</v>
+        <v>147100</v>
       </c>
       <c r="H186">
         <v>5</v>
@@ -5473,11 +5592,11 @@
       <c r="E187" t="s">
         <v>18</v>
       </c>
-      <c r="F187">
-        <v>13000</v>
+      <c r="F187" t="s">
+        <v>46</v>
       </c>
       <c r="G187">
-        <v>250</v>
+        <v>165850</v>
       </c>
       <c r="H187">
         <v>5</v>
@@ -5499,11 +5618,11 @@
       <c r="E188" t="s">
         <v>18</v>
       </c>
-      <c r="F188">
-        <v>13500</v>
+      <c r="F188" t="s">
+        <v>47</v>
       </c>
       <c r="G188">
-        <v>260</v>
+        <v>186130</v>
       </c>
       <c r="H188">
         <v>5</v>
@@ -5525,11 +5644,11 @@
       <c r="E189" t="s">
         <v>18</v>
       </c>
-      <c r="F189">
-        <v>14000</v>
+      <c r="F189" t="s">
+        <v>48</v>
       </c>
       <c r="G189">
-        <v>270</v>
+        <v>208000</v>
       </c>
       <c r="H189">
         <v>5</v>
@@ -5551,11 +5670,11 @@
       <c r="E190" t="s">
         <v>18</v>
       </c>
-      <c r="F190">
-        <v>14500</v>
+      <c r="F190" t="s">
+        <v>49</v>
       </c>
       <c r="G190">
-        <v>280</v>
+        <v>231520</v>
       </c>
       <c r="H190">
         <v>5</v>
@@ -5577,11 +5696,11 @@
       <c r="E191" t="s">
         <v>18</v>
       </c>
-      <c r="F191">
-        <v>15000</v>
+      <c r="F191" t="s">
+        <v>50</v>
       </c>
       <c r="G191">
-        <v>290</v>
+        <v>256750</v>
       </c>
       <c r="H191">
         <v>5</v>
@@ -5603,11 +5722,11 @@
       <c r="E192" t="s">
         <v>18</v>
       </c>
-      <c r="F192">
-        <v>15500</v>
+      <c r="F192" t="s">
+        <v>51</v>
       </c>
       <c r="G192">
-        <v>300</v>
+        <v>283750</v>
       </c>
       <c r="H192">
         <v>5</v>
@@ -5629,11 +5748,11 @@
       <c r="E193" t="s">
         <v>18</v>
       </c>
-      <c r="F193">
-        <v>16000</v>
+      <c r="F193" t="s">
+        <v>52</v>
       </c>
       <c r="G193">
-        <v>310</v>
+        <v>312580</v>
       </c>
       <c r="H193">
         <v>5</v>
@@ -5655,11 +5774,11 @@
       <c r="E194" t="s">
         <v>18</v>
       </c>
-      <c r="F194">
-        <v>16500</v>
+      <c r="F194" t="s">
+        <v>53</v>
       </c>
       <c r="G194">
-        <v>320</v>
+        <v>343300</v>
       </c>
       <c r="H194">
         <v>5</v>
@@ -5681,11 +5800,11 @@
       <c r="E195" t="s">
         <v>18</v>
       </c>
-      <c r="F195">
-        <v>17000</v>
+      <c r="F195" t="s">
+        <v>54</v>
       </c>
       <c r="G195">
-        <v>330</v>
+        <v>375970</v>
       </c>
       <c r="H195">
         <v>5</v>
@@ -5707,11 +5826,11 @@
       <c r="E196" t="s">
         <v>18</v>
       </c>
-      <c r="F196">
-        <v>17500</v>
+      <c r="F196" t="s">
+        <v>55</v>
       </c>
       <c r="G196">
-        <v>340</v>
+        <v>410650</v>
       </c>
       <c r="H196">
         <v>5</v>
@@ -5733,11 +5852,11 @@
       <c r="E197" t="s">
         <v>18</v>
       </c>
-      <c r="F197">
-        <v>18000</v>
+      <c r="F197" t="s">
+        <v>56</v>
       </c>
       <c r="G197">
-        <v>350</v>
+        <v>447400</v>
       </c>
       <c r="H197">
         <v>5</v>
@@ -5759,11 +5878,11 @@
       <c r="E198" t="s">
         <v>18</v>
       </c>
-      <c r="F198">
-        <v>18500</v>
+      <c r="F198" t="s">
+        <v>57</v>
       </c>
       <c r="G198">
-        <v>360</v>
+        <v>486280</v>
       </c>
       <c r="H198">
         <v>5</v>
@@ -5785,11 +5904,11 @@
       <c r="E199" t="s">
         <v>18</v>
       </c>
-      <c r="F199">
-        <v>19000</v>
+      <c r="F199" t="s">
+        <v>58</v>
       </c>
       <c r="G199">
-        <v>370</v>
+        <v>527350</v>
       </c>
       <c r="H199">
         <v>5</v>
@@ -5811,11 +5930,11 @@
       <c r="E200" t="s">
         <v>18</v>
       </c>
-      <c r="F200">
-        <v>19500</v>
+      <c r="F200" t="s">
+        <v>59</v>
       </c>
       <c r="G200">
-        <v>380</v>
+        <v>570670</v>
       </c>
       <c r="H200">
         <v>5</v>
@@ -5837,11 +5956,11 @@
       <c r="E201" t="s">
         <v>18</v>
       </c>
-      <c r="F201">
-        <v>20000</v>
+      <c r="F201" t="s">
+        <v>60</v>
       </c>
       <c r="G201">
-        <v>390</v>
+        <v>616300</v>
       </c>
       <c r="H201">
         <v>5</v>
@@ -5863,11 +5982,11 @@
       <c r="E202" t="s">
         <v>20</v>
       </c>
-      <c r="F202">
-        <v>500</v>
+      <c r="F202" t="s">
+        <v>21</v>
       </c>
       <c r="G202">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H202">
         <v>6</v>
@@ -5889,11 +6008,11 @@
       <c r="E203" t="s">
         <v>20</v>
       </c>
-      <c r="F203">
-        <v>1000</v>
+      <c r="F203" t="s">
+        <v>22</v>
       </c>
       <c r="G203">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="H203">
         <v>6</v>
@@ -5915,11 +6034,11 @@
       <c r="E204" t="s">
         <v>20</v>
       </c>
-      <c r="F204">
-        <v>1500</v>
+      <c r="F204" t="s">
+        <v>23</v>
       </c>
       <c r="G204">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="H204">
         <v>6</v>
@@ -5941,11 +6060,11 @@
       <c r="E205" t="s">
         <v>20</v>
       </c>
-      <c r="F205">
-        <v>2000</v>
+      <c r="F205" t="s">
+        <v>24</v>
       </c>
       <c r="G205">
-        <v>30</v>
+        <v>520</v>
       </c>
       <c r="H205">
         <v>6</v>
@@ -5967,11 +6086,11 @@
       <c r="E206" t="s">
         <v>20</v>
       </c>
-      <c r="F206">
-        <v>2500</v>
+      <c r="F206" t="s">
+        <v>25</v>
       </c>
       <c r="G206">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="H206">
         <v>6</v>
@@ -5993,11 +6112,11 @@
       <c r="E207" t="s">
         <v>20</v>
       </c>
-      <c r="F207">
-        <v>3000</v>
+      <c r="F207" t="s">
+        <v>26</v>
       </c>
       <c r="G207">
-        <v>50</v>
+        <v>1750</v>
       </c>
       <c r="H207">
         <v>6</v>
@@ -6019,11 +6138,11 @@
       <c r="E208" t="s">
         <v>20</v>
       </c>
-      <c r="F208">
-        <v>3500</v>
+      <c r="F208" t="s">
+        <v>27</v>
       </c>
       <c r="G208">
-        <v>60</v>
+        <v>2830</v>
       </c>
       <c r="H208">
         <v>6</v>
@@ -6045,11 +6164,11 @@
       <c r="E209" t="s">
         <v>20</v>
       </c>
-      <c r="F209">
-        <v>4000</v>
+      <c r="F209" t="s">
+        <v>28</v>
       </c>
       <c r="G209">
-        <v>70</v>
+        <v>4300</v>
       </c>
       <c r="H209">
         <v>6</v>
@@ -6071,11 +6190,11 @@
       <c r="E210" t="s">
         <v>20</v>
       </c>
-      <c r="F210">
-        <v>4500</v>
+      <c r="F210" t="s">
+        <v>29</v>
       </c>
       <c r="G210">
-        <v>80</v>
+        <v>6220</v>
       </c>
       <c r="H210">
         <v>6</v>
@@ -6097,11 +6216,11 @@
       <c r="E211" t="s">
         <v>20</v>
       </c>
-      <c r="F211">
-        <v>5000</v>
+      <c r="F211" t="s">
+        <v>30</v>
       </c>
       <c r="G211">
-        <v>90</v>
+        <v>8650</v>
       </c>
       <c r="H211">
         <v>6</v>
@@ -6123,11 +6242,11 @@
       <c r="E212" t="s">
         <v>20</v>
       </c>
-      <c r="F212">
-        <v>5500</v>
+      <c r="F212" t="s">
+        <v>31</v>
       </c>
       <c r="G212">
-        <v>100</v>
+        <v>11650</v>
       </c>
       <c r="H212">
         <v>6</v>
@@ -6149,11 +6268,11 @@
       <c r="E213" t="s">
         <v>20</v>
       </c>
-      <c r="F213">
-        <v>6000</v>
+      <c r="F213" t="s">
+        <v>32</v>
       </c>
       <c r="G213">
-        <v>110</v>
+        <v>15280</v>
       </c>
       <c r="H213">
         <v>6</v>
@@ -6175,11 +6294,11 @@
       <c r="E214" t="s">
         <v>20</v>
       </c>
-      <c r="F214">
-        <v>6500</v>
+      <c r="F214" t="s">
+        <v>33</v>
       </c>
       <c r="G214">
-        <v>120</v>
+        <v>19600</v>
       </c>
       <c r="H214">
         <v>6</v>
@@ -6201,11 +6320,11 @@
       <c r="E215" t="s">
         <v>20</v>
       </c>
-      <c r="F215">
-        <v>7000</v>
+      <c r="F215" t="s">
+        <v>34</v>
       </c>
       <c r="G215">
-        <v>130</v>
+        <v>24670</v>
       </c>
       <c r="H215">
         <v>6</v>
@@ -6227,11 +6346,11 @@
       <c r="E216" t="s">
         <v>20</v>
       </c>
-      <c r="F216">
-        <v>7500</v>
+      <c r="F216" t="s">
+        <v>35</v>
       </c>
       <c r="G216">
-        <v>140</v>
+        <v>30550</v>
       </c>
       <c r="H216">
         <v>6</v>
@@ -6253,11 +6372,11 @@
       <c r="E217" t="s">
         <v>20</v>
       </c>
-      <c r="F217">
-        <v>8000</v>
+      <c r="F217" t="s">
+        <v>36</v>
       </c>
       <c r="G217">
-        <v>150</v>
+        <v>37300</v>
       </c>
       <c r="H217">
         <v>6</v>
@@ -6279,11 +6398,11 @@
       <c r="E218" t="s">
         <v>20</v>
       </c>
-      <c r="F218">
-        <v>8500</v>
+      <c r="F218" t="s">
+        <v>37</v>
       </c>
       <c r="G218">
-        <v>160</v>
+        <v>44980</v>
       </c>
       <c r="H218">
         <v>6</v>
@@ -6305,11 +6424,11 @@
       <c r="E219" t="s">
         <v>20</v>
       </c>
-      <c r="F219">
-        <v>9000</v>
+      <c r="F219" t="s">
+        <v>38</v>
       </c>
       <c r="G219">
-        <v>170</v>
+        <v>53650</v>
       </c>
       <c r="H219">
         <v>6</v>
@@ -6331,11 +6450,11 @@
       <c r="E220" t="s">
         <v>20</v>
       </c>
-      <c r="F220">
-        <v>9500</v>
+      <c r="F220" t="s">
+        <v>39</v>
       </c>
       <c r="G220">
-        <v>180</v>
+        <v>63370</v>
       </c>
       <c r="H220">
         <v>6</v>
@@ -6357,11 +6476,11 @@
       <c r="E221" t="s">
         <v>20</v>
       </c>
-      <c r="F221">
-        <v>10000</v>
+      <c r="F221" t="s">
+        <v>40</v>
       </c>
       <c r="G221">
-        <v>190</v>
+        <v>74200</v>
       </c>
       <c r="H221">
         <v>6</v>
@@ -6383,11 +6502,11 @@
       <c r="E222" t="s">
         <v>20</v>
       </c>
-      <c r="F222">
-        <v>10500</v>
+      <c r="F222" t="s">
+        <v>41</v>
       </c>
       <c r="G222">
-        <v>200</v>
+        <v>86200</v>
       </c>
       <c r="H222">
         <v>6</v>
@@ -6409,11 +6528,11 @@
       <c r="E223" t="s">
         <v>20</v>
       </c>
-      <c r="F223">
-        <v>11000</v>
+      <c r="F223" t="s">
+        <v>42</v>
       </c>
       <c r="G223">
-        <v>210</v>
+        <v>99430</v>
       </c>
       <c r="H223">
         <v>6</v>
@@ -6435,11 +6554,11 @@
       <c r="E224" t="s">
         <v>20</v>
       </c>
-      <c r="F224">
-        <v>11500</v>
+      <c r="F224" t="s">
+        <v>43</v>
       </c>
       <c r="G224">
-        <v>220</v>
+        <v>113950</v>
       </c>
       <c r="H224">
         <v>6</v>
@@ -6461,11 +6580,11 @@
       <c r="E225" t="s">
         <v>20</v>
       </c>
-      <c r="F225">
-        <v>12000</v>
+      <c r="F225" t="s">
+        <v>44</v>
       </c>
       <c r="G225">
-        <v>230</v>
+        <v>129820</v>
       </c>
       <c r="H225">
         <v>6</v>
@@ -6487,11 +6606,11 @@
       <c r="E226" t="s">
         <v>20</v>
       </c>
-      <c r="F226">
-        <v>12500</v>
+      <c r="F226" t="s">
+        <v>45</v>
       </c>
       <c r="G226">
-        <v>240</v>
+        <v>147100</v>
       </c>
       <c r="H226">
         <v>6</v>
@@ -6513,11 +6632,11 @@
       <c r="E227" t="s">
         <v>20</v>
       </c>
-      <c r="F227">
-        <v>13000</v>
+      <c r="F227" t="s">
+        <v>46</v>
       </c>
       <c r="G227">
-        <v>250</v>
+        <v>165850</v>
       </c>
       <c r="H227">
         <v>6</v>
@@ -6539,11 +6658,11 @@
       <c r="E228" t="s">
         <v>20</v>
       </c>
-      <c r="F228">
-        <v>13500</v>
+      <c r="F228" t="s">
+        <v>47</v>
       </c>
       <c r="G228">
-        <v>260</v>
+        <v>186130</v>
       </c>
       <c r="H228">
         <v>6</v>
@@ -6565,11 +6684,11 @@
       <c r="E229" t="s">
         <v>20</v>
       </c>
-      <c r="F229">
-        <v>14000</v>
+      <c r="F229" t="s">
+        <v>48</v>
       </c>
       <c r="G229">
-        <v>270</v>
+        <v>208000</v>
       </c>
       <c r="H229">
         <v>6</v>
@@ -6591,11 +6710,11 @@
       <c r="E230" t="s">
         <v>20</v>
       </c>
-      <c r="F230">
-        <v>14500</v>
+      <c r="F230" t="s">
+        <v>49</v>
       </c>
       <c r="G230">
-        <v>280</v>
+        <v>231520</v>
       </c>
       <c r="H230">
         <v>6</v>
@@ -6617,11 +6736,11 @@
       <c r="E231" t="s">
         <v>20</v>
       </c>
-      <c r="F231">
-        <v>15000</v>
+      <c r="F231" t="s">
+        <v>50</v>
       </c>
       <c r="G231">
-        <v>290</v>
+        <v>256750</v>
       </c>
       <c r="H231">
         <v>6</v>
@@ -6643,11 +6762,11 @@
       <c r="E232" t="s">
         <v>20</v>
       </c>
-      <c r="F232">
-        <v>15500</v>
+      <c r="F232" t="s">
+        <v>51</v>
       </c>
       <c r="G232">
-        <v>300</v>
+        <v>283750</v>
       </c>
       <c r="H232">
         <v>6</v>
@@ -6669,11 +6788,11 @@
       <c r="E233" t="s">
         <v>20</v>
       </c>
-      <c r="F233">
-        <v>16000</v>
+      <c r="F233" t="s">
+        <v>52</v>
       </c>
       <c r="G233">
-        <v>310</v>
+        <v>312580</v>
       </c>
       <c r="H233">
         <v>6</v>
@@ -6695,11 +6814,11 @@
       <c r="E234" t="s">
         <v>20</v>
       </c>
-      <c r="F234">
-        <v>16500</v>
+      <c r="F234" t="s">
+        <v>53</v>
       </c>
       <c r="G234">
-        <v>320</v>
+        <v>343300</v>
       </c>
       <c r="H234">
         <v>6</v>
@@ -6721,11 +6840,11 @@
       <c r="E235" t="s">
         <v>20</v>
       </c>
-      <c r="F235">
-        <v>17000</v>
+      <c r="F235" t="s">
+        <v>54</v>
       </c>
       <c r="G235">
-        <v>330</v>
+        <v>375970</v>
       </c>
       <c r="H235">
         <v>6</v>
@@ -6747,11 +6866,11 @@
       <c r="E236" t="s">
         <v>20</v>
       </c>
-      <c r="F236">
-        <v>17500</v>
+      <c r="F236" t="s">
+        <v>55</v>
       </c>
       <c r="G236">
-        <v>340</v>
+        <v>410650</v>
       </c>
       <c r="H236">
         <v>6</v>
@@ -6773,11 +6892,11 @@
       <c r="E237" t="s">
         <v>20</v>
       </c>
-      <c r="F237">
-        <v>18000</v>
+      <c r="F237" t="s">
+        <v>56</v>
       </c>
       <c r="G237">
-        <v>350</v>
+        <v>447400</v>
       </c>
       <c r="H237">
         <v>6</v>
@@ -6799,11 +6918,11 @@
       <c r="E238" t="s">
         <v>20</v>
       </c>
-      <c r="F238">
-        <v>18500</v>
+      <c r="F238" t="s">
+        <v>57</v>
       </c>
       <c r="G238">
-        <v>360</v>
+        <v>486280</v>
       </c>
       <c r="H238">
         <v>6</v>
@@ -6825,11 +6944,11 @@
       <c r="E239" t="s">
         <v>20</v>
       </c>
-      <c r="F239">
-        <v>19000</v>
+      <c r="F239" t="s">
+        <v>58</v>
       </c>
       <c r="G239">
-        <v>370</v>
+        <v>527350</v>
       </c>
       <c r="H239">
         <v>6</v>
@@ -6851,11 +6970,11 @@
       <c r="E240" t="s">
         <v>20</v>
       </c>
-      <c r="F240">
-        <v>19500</v>
+      <c r="F240" t="s">
+        <v>59</v>
       </c>
       <c r="G240">
-        <v>380</v>
+        <v>570670</v>
       </c>
       <c r="H240">
         <v>6</v>
@@ -6877,11 +6996,11 @@
       <c r="E241" t="s">
         <v>20</v>
       </c>
-      <c r="F241">
-        <v>20000</v>
+      <c r="F241" t="s">
+        <v>60</v>
       </c>
       <c r="G241">
-        <v>390</v>
+        <v>616300</v>
       </c>
       <c r="H241">
         <v>6</v>
@@ -6890,13 +7009,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6910,7 +7029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/other/配置表/l-轮回配置表.xlsx
+++ b/other/配置表/l-轮回配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大魔王\配置表1204\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大魔王\配置表1205\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -234,130 +234,145 @@
     <t>500002,</t>
   </si>
   <si>
-    <t>精打细算</t>
-  </si>
-  <si>
     <t>500003,</t>
-  </si>
-  <si>
-    <t>500,</t>
   </si>
   <si>
     <t>1000,</t>
   </si>
   <si>
-    <t>1500,</t>
-  </si>
-  <si>
     <t>2000,</t>
-  </si>
-  <si>
-    <t>2500,</t>
   </si>
   <si>
     <t>3000,</t>
   </si>
   <si>
-    <t>3500,</t>
-  </si>
-  <si>
     <t>4000,</t>
-  </si>
-  <si>
-    <t>4500,</t>
   </si>
   <si>
     <t>5000,</t>
   </si>
   <si>
-    <t>5500,</t>
-  </si>
-  <si>
     <t>6000,</t>
-  </si>
-  <si>
-    <t>6500,</t>
   </si>
   <si>
     <t>7000,</t>
   </si>
   <si>
-    <t>7500,</t>
-  </si>
-  <si>
     <t>8000,</t>
-  </si>
-  <si>
-    <t>8500,</t>
   </si>
   <si>
     <t>9000,</t>
   </si>
   <si>
-    <t>9500,</t>
-  </si>
-  <si>
     <t>10000,</t>
-  </si>
-  <si>
-    <t>10500,</t>
   </si>
   <si>
     <t>11000,</t>
   </si>
   <si>
-    <t>11500,</t>
-  </si>
-  <si>
     <t>12000,</t>
-  </si>
-  <si>
-    <t>12500,</t>
   </si>
   <si>
     <t>13000,</t>
   </si>
   <si>
-    <t>13500,</t>
-  </si>
-  <si>
     <t>14000,</t>
-  </si>
-  <si>
-    <t>14500,</t>
   </si>
   <si>
     <t>15000,</t>
   </si>
   <si>
-    <t>15500,</t>
-  </si>
-  <si>
     <t>16000,</t>
-  </si>
-  <si>
-    <t>16500,</t>
   </si>
   <si>
     <t>17000,</t>
   </si>
   <si>
-    <t>17500,</t>
-  </si>
-  <si>
     <t>18000,</t>
-  </si>
-  <si>
-    <t>18500,</t>
   </si>
   <si>
     <t>19000,</t>
   </si>
   <si>
-    <t>19500,</t>
+    <t>20000,</t>
   </si>
   <si>
-    <t>20000,</t>
+    <t>21000,</t>
+  </si>
+  <si>
+    <t>22000,</t>
+  </si>
+  <si>
+    <t>23000,</t>
+  </si>
+  <si>
+    <t>24000,</t>
+  </si>
+  <si>
+    <t>25000,</t>
+  </si>
+  <si>
+    <t>26000,</t>
+  </si>
+  <si>
+    <t>27000,</t>
+  </si>
+  <si>
+    <t>28000,</t>
+  </si>
+  <si>
+    <t>29000,</t>
+  </si>
+  <si>
+    <t>30000,</t>
+  </si>
+  <si>
+    <t>31000,</t>
+  </si>
+  <si>
+    <t>32000,</t>
+  </si>
+  <si>
+    <t>33000,</t>
+  </si>
+  <si>
+    <t>34000,</t>
+  </si>
+  <si>
+    <t>35000,</t>
+  </si>
+  <si>
+    <t>36000,</t>
+  </si>
+  <si>
+    <t>37000,</t>
+  </si>
+  <si>
+    <t>38000,</t>
+  </si>
+  <si>
+    <t>39000,</t>
+  </si>
+  <si>
+    <t>40000,</t>
+  </si>
+  <si>
+    <t>samsara_02</t>
+  </si>
+  <si>
+    <t>samsara_03</t>
+  </si>
+  <si>
+    <t>samsara_04</t>
+  </si>
+  <si>
+    <t>samsara_05</t>
+  </si>
+  <si>
+    <t>开悟</t>
+  </si>
+  <si>
+    <t>samsara_06</t>
   </si>
 </sst>
 </file>
@@ -728,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F241"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -783,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -809,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>130</v>
@@ -835,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>250</v>
@@ -861,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>520</v>
@@ -887,7 +902,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>1000</v>
@@ -913,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>1750</v>
@@ -939,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8">
         <v>2830</v>
@@ -965,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>4300</v>
@@ -991,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>6220</v>
@@ -1017,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>8650</v>
@@ -1043,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>11650</v>
@@ -1069,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>15280</v>
@@ -1095,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>19600</v>
@@ -1121,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>24670</v>
@@ -1147,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>30550</v>
@@ -1173,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>37300</v>
@@ -1199,7 +1214,7 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>44980</v>
@@ -1225,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>53650</v>
@@ -1251,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>63370</v>
@@ -1277,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>74200</v>
@@ -1303,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>86200</v>
@@ -1329,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23">
         <v>99430</v>
@@ -1355,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24">
         <v>113950</v>
@@ -1381,7 +1396,7 @@
         <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25">
         <v>129820</v>
@@ -1407,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26">
         <v>147100</v>
@@ -1433,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27">
         <v>165850</v>
@@ -1459,7 +1474,7 @@
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28">
         <v>186130</v>
@@ -1485,7 +1500,7 @@
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29">
         <v>208000</v>
@@ -1511,7 +1526,7 @@
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30">
         <v>231520</v>
@@ -1537,7 +1552,7 @@
         <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31">
         <v>256750</v>
@@ -1563,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>283750</v>
@@ -1589,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33">
         <v>312580</v>
@@ -1615,7 +1630,7 @@
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34">
         <v>343300</v>
@@ -1641,7 +1656,7 @@
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G35">
         <v>375970</v>
@@ -1667,7 +1682,7 @@
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G36">
         <v>410650</v>
@@ -1693,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37">
         <v>447400</v>
@@ -1719,7 +1734,7 @@
         <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G38">
         <v>486280</v>
@@ -1745,7 +1760,7 @@
         <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39">
         <v>527350</v>
@@ -1771,7 +1786,7 @@
         <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40">
         <v>570670</v>
@@ -1797,7 +1812,7 @@
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G41">
         <v>616300</v>
@@ -1814,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1823,7 +1838,7 @@
         <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G42">
         <v>100</v>
@@ -1840,7 +1855,7 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1849,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43">
         <v>130</v>
@@ -1866,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -1875,7 +1890,7 @@
         <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G44">
         <v>250</v>
@@ -1892,7 +1907,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -1901,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45">
         <v>520</v>
@@ -1918,7 +1933,7 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -1927,7 +1942,7 @@
         <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G46">
         <v>1000</v>
@@ -1944,7 +1959,7 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D47">
         <v>6</v>
@@ -1953,7 +1968,7 @@
         <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47">
         <v>1750</v>
@@ -1970,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D48">
         <v>7</v>
@@ -1979,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48">
         <v>2830</v>
@@ -1996,7 +2011,7 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D49">
         <v>8</v>
@@ -2005,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G49">
         <v>4300</v>
@@ -2022,7 +2037,7 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D50">
         <v>9</v>
@@ -2031,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G50">
         <v>6220</v>
@@ -2048,7 +2063,7 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D51">
         <v>10</v>
@@ -2057,7 +2072,7 @@
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51">
         <v>8650</v>
@@ -2074,7 +2089,7 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D52">
         <v>11</v>
@@ -2083,7 +2098,7 @@
         <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>11650</v>
@@ -2100,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>12</v>
@@ -2109,7 +2124,7 @@
         <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53">
         <v>15280</v>
@@ -2126,7 +2141,7 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>13</v>
@@ -2135,7 +2150,7 @@
         <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>19600</v>
@@ -2152,7 +2167,7 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D55">
         <v>14</v>
@@ -2161,7 +2176,7 @@
         <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>24670</v>
@@ -2178,7 +2193,7 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D56">
         <v>15</v>
@@ -2187,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>30550</v>
@@ -2204,7 +2219,7 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D57">
         <v>16</v>
@@ -2213,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>37300</v>
@@ -2230,7 +2245,7 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D58">
         <v>17</v>
@@ -2239,7 +2254,7 @@
         <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58">
         <v>44980</v>
@@ -2256,7 +2271,7 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D59">
         <v>18</v>
@@ -2265,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>53650</v>
@@ -2282,7 +2297,7 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <v>19</v>
@@ -2291,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>63370</v>
@@ -2308,7 +2323,7 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D61">
         <v>20</v>
@@ -2317,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G61">
         <v>74200</v>
@@ -2334,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>21</v>
@@ -2343,7 +2358,7 @@
         <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G62">
         <v>86200</v>
@@ -2360,7 +2375,7 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D63">
         <v>22</v>
@@ -2369,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G63">
         <v>99430</v>
@@ -2386,7 +2401,7 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D64">
         <v>23</v>
@@ -2395,7 +2410,7 @@
         <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G64">
         <v>113950</v>
@@ -2412,7 +2427,7 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D65">
         <v>24</v>
@@ -2421,7 +2436,7 @@
         <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G65">
         <v>129820</v>
@@ -2438,7 +2453,7 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D66">
         <v>25</v>
@@ -2447,7 +2462,7 @@
         <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G66">
         <v>147100</v>
@@ -2464,7 +2479,7 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D67">
         <v>26</v>
@@ -2473,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G67">
         <v>165850</v>
@@ -2490,7 +2505,7 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D68">
         <v>27</v>
@@ -2499,7 +2514,7 @@
         <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G68">
         <v>186130</v>
@@ -2516,7 +2531,7 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D69">
         <v>28</v>
@@ -2525,7 +2540,7 @@
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G69">
         <v>208000</v>
@@ -2542,7 +2557,7 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D70">
         <v>29</v>
@@ -2551,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G70">
         <v>231520</v>
@@ -2568,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D71">
         <v>30</v>
@@ -2577,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G71">
         <v>256750</v>
@@ -2594,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D72">
         <v>31</v>
@@ -2603,7 +2618,7 @@
         <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G72">
         <v>283750</v>
@@ -2620,7 +2635,7 @@
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D73">
         <v>32</v>
@@ -2629,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G73">
         <v>312580</v>
@@ -2646,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D74">
         <v>33</v>
@@ -2655,7 +2670,7 @@
         <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G74">
         <v>343300</v>
@@ -2672,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D75">
         <v>34</v>
@@ -2681,7 +2696,7 @@
         <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G75">
         <v>375970</v>
@@ -2698,7 +2713,7 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D76">
         <v>35</v>
@@ -2707,7 +2722,7 @@
         <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G76">
         <v>410650</v>
@@ -2724,7 +2739,7 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D77">
         <v>36</v>
@@ -2733,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G77">
         <v>447400</v>
@@ -2750,7 +2765,7 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D78">
         <v>37</v>
@@ -2759,7 +2774,7 @@
         <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G78">
         <v>486280</v>
@@ -2776,7 +2791,7 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D79">
         <v>38</v>
@@ -2785,7 +2800,7 @@
         <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G79">
         <v>527350</v>
@@ -2802,7 +2817,7 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D80">
         <v>39</v>
@@ -2811,7 +2826,7 @@
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G80">
         <v>570670</v>
@@ -2828,7 +2843,7 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D81">
         <v>40</v>
@@ -2837,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G81">
         <v>616300</v>
@@ -2854,7 +2869,7 @@
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2863,7 +2878,7 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G82">
         <v>100</v>
@@ -2880,7 +2895,7 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -2889,7 +2904,7 @@
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G83">
         <v>130</v>
@@ -2906,7 +2921,7 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -2915,7 +2930,7 @@
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G84">
         <v>250</v>
@@ -2932,7 +2947,7 @@
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -2941,7 +2956,7 @@
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G85">
         <v>520</v>
@@ -2958,7 +2973,7 @@
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -2967,7 +2982,7 @@
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G86">
         <v>1000</v>
@@ -2984,7 +2999,7 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -2993,7 +3008,7 @@
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G87">
         <v>1750</v>
@@ -3010,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D88">
         <v>7</v>
@@ -3019,7 +3034,7 @@
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G88">
         <v>2830</v>
@@ -3036,7 +3051,7 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D89">
         <v>8</v>
@@ -3045,7 +3060,7 @@
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G89">
         <v>4300</v>
@@ -3062,7 +3077,7 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D90">
         <v>9</v>
@@ -3071,7 +3086,7 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G90">
         <v>6220</v>
@@ -3088,7 +3103,7 @@
         <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D91">
         <v>10</v>
@@ -3097,7 +3112,7 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91">
         <v>8650</v>
@@ -3114,7 +3129,7 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D92">
         <v>11</v>
@@ -3123,7 +3138,7 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92">
         <v>11650</v>
@@ -3140,7 +3155,7 @@
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D93">
         <v>12</v>
@@ -3149,7 +3164,7 @@
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>15280</v>
@@ -3166,7 +3181,7 @@
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D94">
         <v>13</v>
@@ -3175,7 +3190,7 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>19600</v>
@@ -3192,7 +3207,7 @@
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D95">
         <v>14</v>
@@ -3201,7 +3216,7 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>24670</v>
@@ -3218,7 +3233,7 @@
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D96">
         <v>15</v>
@@ -3227,7 +3242,7 @@
         <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>30550</v>
@@ -3244,7 +3259,7 @@
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D97">
         <v>16</v>
@@ -3253,7 +3268,7 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>37300</v>
@@ -3270,7 +3285,7 @@
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D98">
         <v>17</v>
@@ -3279,7 +3294,7 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>44980</v>
@@ -3296,7 +3311,7 @@
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D99">
         <v>18</v>
@@ -3305,7 +3320,7 @@
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>53650</v>
@@ -3322,7 +3337,7 @@
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D100">
         <v>19</v>
@@ -3331,7 +3346,7 @@
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>63370</v>
@@ -3348,7 +3363,7 @@
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D101">
         <v>20</v>
@@ -3357,7 +3372,7 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>74200</v>
@@ -3374,7 +3389,7 @@
         <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D102">
         <v>21</v>
@@ -3383,7 +3398,7 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>86200</v>
@@ -3400,7 +3415,7 @@
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D103">
         <v>22</v>
@@ -3409,7 +3424,7 @@
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G103">
         <v>99430</v>
@@ -3426,7 +3441,7 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D104">
         <v>23</v>
@@ -3435,7 +3450,7 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G104">
         <v>113950</v>
@@ -3452,7 +3467,7 @@
         <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D105">
         <v>24</v>
@@ -3461,7 +3476,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G105">
         <v>129820</v>
@@ -3478,7 +3493,7 @@
         <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D106">
         <v>25</v>
@@ -3487,7 +3502,7 @@
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G106">
         <v>147100</v>
@@ -3504,7 +3519,7 @@
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D107">
         <v>26</v>
@@ -3513,7 +3528,7 @@
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G107">
         <v>165850</v>
@@ -3530,7 +3545,7 @@
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D108">
         <v>27</v>
@@ -3539,7 +3554,7 @@
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G108">
         <v>186130</v>
@@ -3556,7 +3571,7 @@
         <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D109">
         <v>28</v>
@@ -3565,7 +3580,7 @@
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G109">
         <v>208000</v>
@@ -3582,7 +3597,7 @@
         <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D110">
         <v>29</v>
@@ -3591,7 +3606,7 @@
         <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G110">
         <v>231520</v>
@@ -3608,7 +3623,7 @@
         <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D111">
         <v>30</v>
@@ -3617,7 +3632,7 @@
         <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G111">
         <v>256750</v>
@@ -3634,7 +3649,7 @@
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D112">
         <v>31</v>
@@ -3643,7 +3658,7 @@
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G112">
         <v>283750</v>
@@ -3660,7 +3675,7 @@
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D113">
         <v>32</v>
@@ -3669,7 +3684,7 @@
         <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G113">
         <v>312580</v>
@@ -3686,7 +3701,7 @@
         <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D114">
         <v>33</v>
@@ -3695,7 +3710,7 @@
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G114">
         <v>343300</v>
@@ -3712,7 +3727,7 @@
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D115">
         <v>34</v>
@@ -3721,7 +3736,7 @@
         <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G115">
         <v>375970</v>
@@ -3738,7 +3753,7 @@
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D116">
         <v>35</v>
@@ -3747,7 +3762,7 @@
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G116">
         <v>410650</v>
@@ -3764,7 +3779,7 @@
         <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D117">
         <v>36</v>
@@ -3773,7 +3788,7 @@
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G117">
         <v>447400</v>
@@ -3790,7 +3805,7 @@
         <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D118">
         <v>37</v>
@@ -3799,7 +3814,7 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G118">
         <v>486280</v>
@@ -3816,7 +3831,7 @@
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D119">
         <v>38</v>
@@ -3825,7 +3840,7 @@
         <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G119">
         <v>527350</v>
@@ -3842,7 +3857,7 @@
         <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D120">
         <v>39</v>
@@ -3851,7 +3866,7 @@
         <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G120">
         <v>570670</v>
@@ -3868,7 +3883,7 @@
         <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D121">
         <v>40</v>
@@ -3877,7 +3892,7 @@
         <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G121">
         <v>616300</v>
@@ -3894,7 +3909,7 @@
         <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3903,7 +3918,7 @@
         <v>16</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G122">
         <v>100</v>
@@ -3920,7 +3935,7 @@
         <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -3929,7 +3944,7 @@
         <v>16</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G123">
         <v>130</v>
@@ -3946,7 +3961,7 @@
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -3955,7 +3970,7 @@
         <v>16</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G124">
         <v>250</v>
@@ -3972,7 +3987,7 @@
         <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -3981,7 +3996,7 @@
         <v>16</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G125">
         <v>520</v>
@@ -3998,7 +4013,7 @@
         <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D126">
         <v>5</v>
@@ -4007,7 +4022,7 @@
         <v>16</v>
       </c>
       <c r="F126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G126">
         <v>1000</v>
@@ -4024,7 +4039,7 @@
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D127">
         <v>6</v>
@@ -4033,7 +4048,7 @@
         <v>16</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G127">
         <v>1750</v>
@@ -4050,7 +4065,7 @@
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D128">
         <v>7</v>
@@ -4059,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G128">
         <v>2830</v>
@@ -4076,7 +4091,7 @@
         <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D129">
         <v>8</v>
@@ -4085,7 +4100,7 @@
         <v>16</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G129">
         <v>4300</v>
@@ -4102,7 +4117,7 @@
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D130">
         <v>9</v>
@@ -4111,7 +4126,7 @@
         <v>16</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G130">
         <v>6220</v>
@@ -4128,7 +4143,7 @@
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D131">
         <v>10</v>
@@ -4137,7 +4152,7 @@
         <v>16</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>8650</v>
@@ -4154,7 +4169,7 @@
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D132">
         <v>11</v>
@@ -4163,7 +4178,7 @@
         <v>16</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G132">
         <v>11650</v>
@@ -4180,7 +4195,7 @@
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D133">
         <v>12</v>
@@ -4189,7 +4204,7 @@
         <v>16</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G133">
         <v>15280</v>
@@ -4206,7 +4221,7 @@
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D134">
         <v>13</v>
@@ -4215,7 +4230,7 @@
         <v>16</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G134">
         <v>19600</v>
@@ -4232,7 +4247,7 @@
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D135">
         <v>14</v>
@@ -4241,7 +4256,7 @@
         <v>16</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G135">
         <v>24670</v>
@@ -4258,7 +4273,7 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D136">
         <v>15</v>
@@ -4267,7 +4282,7 @@
         <v>16</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>30550</v>
@@ -4284,7 +4299,7 @@
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D137">
         <v>16</v>
@@ -4293,7 +4308,7 @@
         <v>16</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G137">
         <v>37300</v>
@@ -4310,7 +4325,7 @@
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D138">
         <v>17</v>
@@ -4319,7 +4334,7 @@
         <v>16</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>44980</v>
@@ -4336,7 +4351,7 @@
         <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D139">
         <v>18</v>
@@ -4345,7 +4360,7 @@
         <v>16</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G139">
         <v>53650</v>
@@ -4362,7 +4377,7 @@
         <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D140">
         <v>19</v>
@@ -4371,7 +4386,7 @@
         <v>16</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>63370</v>
@@ -4388,7 +4403,7 @@
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D141">
         <v>20</v>
@@ -4397,7 +4412,7 @@
         <v>16</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G141">
         <v>74200</v>
@@ -4414,7 +4429,7 @@
         <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D142">
         <v>21</v>
@@ -4423,7 +4438,7 @@
         <v>16</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G142">
         <v>86200</v>
@@ -4440,7 +4455,7 @@
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D143">
         <v>22</v>
@@ -4449,7 +4464,7 @@
         <v>16</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G143">
         <v>99430</v>
@@ -4466,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D144">
         <v>23</v>
@@ -4475,7 +4490,7 @@
         <v>16</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G144">
         <v>113950</v>
@@ -4492,7 +4507,7 @@
         <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D145">
         <v>24</v>
@@ -4501,7 +4516,7 @@
         <v>16</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G145">
         <v>129820</v>
@@ -4518,7 +4533,7 @@
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D146">
         <v>25</v>
@@ -4527,7 +4542,7 @@
         <v>16</v>
       </c>
       <c r="F146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G146">
         <v>147100</v>
@@ -4544,7 +4559,7 @@
         <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D147">
         <v>26</v>
@@ -4553,7 +4568,7 @@
         <v>16</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G147">
         <v>165850</v>
@@ -4570,7 +4585,7 @@
         <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D148">
         <v>27</v>
@@ -4579,7 +4594,7 @@
         <v>16</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G148">
         <v>186130</v>
@@ -4596,7 +4611,7 @@
         <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D149">
         <v>28</v>
@@ -4605,7 +4620,7 @@
         <v>16</v>
       </c>
       <c r="F149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G149">
         <v>208000</v>
@@ -4622,7 +4637,7 @@
         <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D150">
         <v>29</v>
@@ -4631,7 +4646,7 @@
         <v>16</v>
       </c>
       <c r="F150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G150">
         <v>231520</v>
@@ -4648,7 +4663,7 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D151">
         <v>30</v>
@@ -4657,7 +4672,7 @@
         <v>16</v>
       </c>
       <c r="F151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G151">
         <v>256750</v>
@@ -4674,7 +4689,7 @@
         <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D152">
         <v>31</v>
@@ -4683,7 +4698,7 @@
         <v>16</v>
       </c>
       <c r="F152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G152">
         <v>283750</v>
@@ -4700,7 +4715,7 @@
         <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D153">
         <v>32</v>
@@ -4709,7 +4724,7 @@
         <v>16</v>
       </c>
       <c r="F153" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G153">
         <v>312580</v>
@@ -4726,7 +4741,7 @@
         <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D154">
         <v>33</v>
@@ -4735,7 +4750,7 @@
         <v>16</v>
       </c>
       <c r="F154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G154">
         <v>343300</v>
@@ -4752,7 +4767,7 @@
         <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D155">
         <v>34</v>
@@ -4761,7 +4776,7 @@
         <v>16</v>
       </c>
       <c r="F155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G155">
         <v>375970</v>
@@ -4778,7 +4793,7 @@
         <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D156">
         <v>35</v>
@@ -4787,7 +4802,7 @@
         <v>16</v>
       </c>
       <c r="F156" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G156">
         <v>410650</v>
@@ -4804,7 +4819,7 @@
         <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D157">
         <v>36</v>
@@ -4813,7 +4828,7 @@
         <v>16</v>
       </c>
       <c r="F157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G157">
         <v>447400</v>
@@ -4830,7 +4845,7 @@
         <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D158">
         <v>37</v>
@@ -4839,7 +4854,7 @@
         <v>16</v>
       </c>
       <c r="F158" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G158">
         <v>486280</v>
@@ -4856,7 +4871,7 @@
         <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D159">
         <v>38</v>
@@ -4865,7 +4880,7 @@
         <v>16</v>
       </c>
       <c r="F159" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G159">
         <v>527350</v>
@@ -4882,7 +4897,7 @@
         <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D160">
         <v>39</v>
@@ -4891,7 +4906,7 @@
         <v>16</v>
       </c>
       <c r="F160" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G160">
         <v>570670</v>
@@ -4908,7 +4923,7 @@
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D161">
         <v>40</v>
@@ -4917,7 +4932,7 @@
         <v>16</v>
       </c>
       <c r="F161" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G161">
         <v>616300</v>
@@ -4934,7 +4949,7 @@
         <v>17</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -4943,7 +4958,7 @@
         <v>18</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G162">
         <v>100</v>
@@ -4960,7 +4975,7 @@
         <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -4969,7 +4984,7 @@
         <v>18</v>
       </c>
       <c r="F163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G163">
         <v>130</v>
@@ -4986,7 +5001,7 @@
         <v>17</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D164">
         <v>3</v>
@@ -4995,7 +5010,7 @@
         <v>18</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G164">
         <v>250</v>
@@ -5012,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D165">
         <v>4</v>
@@ -5021,7 +5036,7 @@
         <v>18</v>
       </c>
       <c r="F165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G165">
         <v>520</v>
@@ -5038,7 +5053,7 @@
         <v>17</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D166">
         <v>5</v>
@@ -5047,7 +5062,7 @@
         <v>18</v>
       </c>
       <c r="F166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G166">
         <v>1000</v>
@@ -5064,7 +5079,7 @@
         <v>17</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D167">
         <v>6</v>
@@ -5073,7 +5088,7 @@
         <v>18</v>
       </c>
       <c r="F167" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G167">
         <v>1750</v>
@@ -5090,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D168">
         <v>7</v>
@@ -5099,7 +5114,7 @@
         <v>18</v>
       </c>
       <c r="F168" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G168">
         <v>2830</v>
@@ -5116,7 +5131,7 @@
         <v>17</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D169">
         <v>8</v>
@@ -5125,7 +5140,7 @@
         <v>18</v>
       </c>
       <c r="F169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G169">
         <v>4300</v>
@@ -5142,7 +5157,7 @@
         <v>17</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D170">
         <v>9</v>
@@ -5151,7 +5166,7 @@
         <v>18</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G170">
         <v>6220</v>
@@ -5168,7 +5183,7 @@
         <v>17</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D171">
         <v>10</v>
@@ -5177,7 +5192,7 @@
         <v>18</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G171">
         <v>8650</v>
@@ -5194,7 +5209,7 @@
         <v>17</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D172">
         <v>11</v>
@@ -5203,7 +5218,7 @@
         <v>18</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G172">
         <v>11650</v>
@@ -5220,7 +5235,7 @@
         <v>17</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D173">
         <v>12</v>
@@ -5229,7 +5244,7 @@
         <v>18</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G173">
         <v>15280</v>
@@ -5246,7 +5261,7 @@
         <v>17</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D174">
         <v>13</v>
@@ -5255,7 +5270,7 @@
         <v>18</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G174">
         <v>19600</v>
@@ -5272,7 +5287,7 @@
         <v>17</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D175">
         <v>14</v>
@@ -5281,7 +5296,7 @@
         <v>18</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G175">
         <v>24670</v>
@@ -5298,7 +5313,7 @@
         <v>17</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D176">
         <v>15</v>
@@ -5307,7 +5322,7 @@
         <v>18</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G176">
         <v>30550</v>
@@ -5324,7 +5339,7 @@
         <v>17</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D177">
         <v>16</v>
@@ -5333,7 +5348,7 @@
         <v>18</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G177">
         <v>37300</v>
@@ -5350,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D178">
         <v>17</v>
@@ -5359,7 +5374,7 @@
         <v>18</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G178">
         <v>44980</v>
@@ -5376,7 +5391,7 @@
         <v>17</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D179">
         <v>18</v>
@@ -5385,7 +5400,7 @@
         <v>18</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G179">
         <v>53650</v>
@@ -5402,7 +5417,7 @@
         <v>17</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D180">
         <v>19</v>
@@ -5411,7 +5426,7 @@
         <v>18</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G180">
         <v>63370</v>
@@ -5428,7 +5443,7 @@
         <v>17</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D181">
         <v>20</v>
@@ -5437,7 +5452,7 @@
         <v>18</v>
       </c>
       <c r="F181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G181">
         <v>74200</v>
@@ -5454,7 +5469,7 @@
         <v>17</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D182">
         <v>21</v>
@@ -5463,7 +5478,7 @@
         <v>18</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G182">
         <v>86200</v>
@@ -5480,7 +5495,7 @@
         <v>17</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D183">
         <v>22</v>
@@ -5489,7 +5504,7 @@
         <v>18</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G183">
         <v>99430</v>
@@ -5506,7 +5521,7 @@
         <v>17</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D184">
         <v>23</v>
@@ -5515,7 +5530,7 @@
         <v>18</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G184">
         <v>113950</v>
@@ -5532,7 +5547,7 @@
         <v>17</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D185">
         <v>24</v>
@@ -5541,7 +5556,7 @@
         <v>18</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G185">
         <v>129820</v>
@@ -5558,7 +5573,7 @@
         <v>17</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D186">
         <v>25</v>
@@ -5567,7 +5582,7 @@
         <v>18</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G186">
         <v>147100</v>
@@ -5584,7 +5599,7 @@
         <v>17</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D187">
         <v>26</v>
@@ -5593,7 +5608,7 @@
         <v>18</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G187">
         <v>165850</v>
@@ -5610,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D188">
         <v>27</v>
@@ -5619,7 +5634,7 @@
         <v>18</v>
       </c>
       <c r="F188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G188">
         <v>186130</v>
@@ -5636,7 +5651,7 @@
         <v>17</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D189">
         <v>28</v>
@@ -5645,7 +5660,7 @@
         <v>18</v>
       </c>
       <c r="F189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G189">
         <v>208000</v>
@@ -5662,7 +5677,7 @@
         <v>17</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D190">
         <v>29</v>
@@ -5671,7 +5686,7 @@
         <v>18</v>
       </c>
       <c r="F190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G190">
         <v>231520</v>
@@ -5688,7 +5703,7 @@
         <v>17</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D191">
         <v>30</v>
@@ -5697,7 +5712,7 @@
         <v>18</v>
       </c>
       <c r="F191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G191">
         <v>256750</v>
@@ -5714,7 +5729,7 @@
         <v>17</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D192">
         <v>31</v>
@@ -5723,7 +5738,7 @@
         <v>18</v>
       </c>
       <c r="F192" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G192">
         <v>283750</v>
@@ -5740,7 +5755,7 @@
         <v>17</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D193">
         <v>32</v>
@@ -5749,7 +5764,7 @@
         <v>18</v>
       </c>
       <c r="F193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G193">
         <v>312580</v>
@@ -5766,7 +5781,7 @@
         <v>17</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D194">
         <v>33</v>
@@ -5775,7 +5790,7 @@
         <v>18</v>
       </c>
       <c r="F194" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G194">
         <v>343300</v>
@@ -5792,7 +5807,7 @@
         <v>17</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D195">
         <v>34</v>
@@ -5801,7 +5816,7 @@
         <v>18</v>
       </c>
       <c r="F195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G195">
         <v>375970</v>
@@ -5818,7 +5833,7 @@
         <v>17</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D196">
         <v>35</v>
@@ -5827,7 +5842,7 @@
         <v>18</v>
       </c>
       <c r="F196" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G196">
         <v>410650</v>
@@ -5844,7 +5859,7 @@
         <v>17</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D197">
         <v>36</v>
@@ -5853,7 +5868,7 @@
         <v>18</v>
       </c>
       <c r="F197" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G197">
         <v>447400</v>
@@ -5870,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D198">
         <v>37</v>
@@ -5879,7 +5894,7 @@
         <v>18</v>
       </c>
       <c r="F198" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G198">
         <v>486280</v>
@@ -5896,7 +5911,7 @@
         <v>17</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D199">
         <v>38</v>
@@ -5905,7 +5920,7 @@
         <v>18</v>
       </c>
       <c r="F199" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G199">
         <v>527350</v>
@@ -5922,7 +5937,7 @@
         <v>17</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D200">
         <v>39</v>
@@ -5931,7 +5946,7 @@
         <v>18</v>
       </c>
       <c r="F200" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G200">
         <v>570670</v>
@@ -5948,7 +5963,7 @@
         <v>17</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D201">
         <v>40</v>
@@ -5957,7 +5972,7 @@
         <v>18</v>
       </c>
       <c r="F201" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G201">
         <v>616300</v>
@@ -5971,19 +5986,19 @@
         <v>6</v>
       </c>
       <c r="B202" t="s">
+        <v>64</v>
+      </c>
+      <c r="C202" t="s">
+        <v>65</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202" t="s">
         <v>19</v>
       </c>
-      <c r="C202" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202">
-        <v>1</v>
-      </c>
-      <c r="E202" t="s">
+      <c r="F202" t="s">
         <v>20</v>
-      </c>
-      <c r="F202" t="s">
-        <v>21</v>
       </c>
       <c r="G202">
         <v>100</v>
@@ -5997,19 +6012,19 @@
         <v>6</v>
       </c>
       <c r="B203" t="s">
+        <v>64</v>
+      </c>
+      <c r="C203" t="s">
+        <v>65</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203" t="s">
         <v>19</v>
       </c>
-      <c r="C203" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203">
-        <v>2</v>
-      </c>
-      <c r="E203" t="s">
-        <v>20</v>
-      </c>
       <c r="F203" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G203">
         <v>130</v>
@@ -6023,19 +6038,19 @@
         <v>6</v>
       </c>
       <c r="B204" t="s">
+        <v>64</v>
+      </c>
+      <c r="C204" t="s">
+        <v>65</v>
+      </c>
+      <c r="D204">
+        <v>3</v>
+      </c>
+      <c r="E204" t="s">
         <v>19</v>
       </c>
-      <c r="C204" t="s">
-        <v>8</v>
-      </c>
-      <c r="D204">
-        <v>3</v>
-      </c>
-      <c r="E204" t="s">
-        <v>20</v>
-      </c>
       <c r="F204" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G204">
         <v>250</v>
@@ -6049,19 +6064,19 @@
         <v>6</v>
       </c>
       <c r="B205" t="s">
+        <v>64</v>
+      </c>
+      <c r="C205" t="s">
+        <v>65</v>
+      </c>
+      <c r="D205">
+        <v>4</v>
+      </c>
+      <c r="E205" t="s">
         <v>19</v>
       </c>
-      <c r="C205" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205">
-        <v>4</v>
-      </c>
-      <c r="E205" t="s">
-        <v>20</v>
-      </c>
       <c r="F205" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G205">
         <v>520</v>
@@ -6075,19 +6090,19 @@
         <v>6</v>
       </c>
       <c r="B206" t="s">
+        <v>64</v>
+      </c>
+      <c r="C206" t="s">
+        <v>65</v>
+      </c>
+      <c r="D206">
+        <v>5</v>
+      </c>
+      <c r="E206" t="s">
         <v>19</v>
       </c>
-      <c r="C206" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206">
-        <v>5</v>
-      </c>
-      <c r="E206" t="s">
-        <v>20</v>
-      </c>
       <c r="F206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G206">
         <v>1000</v>
@@ -6101,19 +6116,19 @@
         <v>6</v>
       </c>
       <c r="B207" t="s">
+        <v>64</v>
+      </c>
+      <c r="C207" t="s">
+        <v>65</v>
+      </c>
+      <c r="D207">
+        <v>6</v>
+      </c>
+      <c r="E207" t="s">
         <v>19</v>
       </c>
-      <c r="C207" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207">
-        <v>6</v>
-      </c>
-      <c r="E207" t="s">
-        <v>20</v>
-      </c>
       <c r="F207" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G207">
         <v>1750</v>
@@ -6127,19 +6142,19 @@
         <v>6</v>
       </c>
       <c r="B208" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D208">
         <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F208" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G208">
         <v>2830</v>
@@ -6153,19 +6168,19 @@
         <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D209">
         <v>8</v>
       </c>
       <c r="E209" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G209">
         <v>4300</v>
@@ -6179,19 +6194,19 @@
         <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D210">
         <v>9</v>
       </c>
       <c r="E210" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G210">
         <v>6220</v>
@@ -6205,19 +6220,19 @@
         <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D211">
         <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G211">
         <v>8650</v>
@@ -6231,19 +6246,19 @@
         <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D212">
         <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G212">
         <v>11650</v>
@@ -6257,19 +6272,19 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D213">
         <v>12</v>
       </c>
       <c r="E213" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G213">
         <v>15280</v>
@@ -6283,19 +6298,19 @@
         <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D214">
         <v>13</v>
       </c>
       <c r="E214" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G214">
         <v>19600</v>
@@ -6309,19 +6324,19 @@
         <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D215">
         <v>14</v>
       </c>
       <c r="E215" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G215">
         <v>24670</v>
@@ -6335,19 +6350,19 @@
         <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D216">
         <v>15</v>
       </c>
       <c r="E216" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G216">
         <v>30550</v>
@@ -6361,19 +6376,19 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D217">
         <v>16</v>
       </c>
       <c r="E217" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G217">
         <v>37300</v>
@@ -6387,19 +6402,19 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D218">
         <v>17</v>
       </c>
       <c r="E218" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G218">
         <v>44980</v>
@@ -6413,19 +6428,19 @@
         <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D219">
         <v>18</v>
       </c>
       <c r="E219" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G219">
         <v>53650</v>
@@ -6439,19 +6454,19 @@
         <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D220">
         <v>19</v>
       </c>
       <c r="E220" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G220">
         <v>63370</v>
@@ -6465,19 +6480,19 @@
         <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D221">
         <v>20</v>
       </c>
       <c r="E221" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G221">
         <v>74200</v>
@@ -6491,19 +6506,19 @@
         <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D222">
         <v>21</v>
       </c>
       <c r="E222" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G222">
         <v>86200</v>
@@ -6517,19 +6532,19 @@
         <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D223">
         <v>22</v>
       </c>
       <c r="E223" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F223" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G223">
         <v>99430</v>
@@ -6543,19 +6558,19 @@
         <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D224">
         <v>23</v>
       </c>
       <c r="E224" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G224">
         <v>113950</v>
@@ -6569,19 +6584,19 @@
         <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D225">
         <v>24</v>
       </c>
       <c r="E225" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F225" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G225">
         <v>129820</v>
@@ -6595,19 +6610,19 @@
         <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D226">
         <v>25</v>
       </c>
       <c r="E226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F226" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G226">
         <v>147100</v>
@@ -6621,19 +6636,19 @@
         <v>6</v>
       </c>
       <c r="B227" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D227">
         <v>26</v>
       </c>
       <c r="E227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G227">
         <v>165850</v>
@@ -6647,19 +6662,19 @@
         <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D228">
         <v>27</v>
       </c>
       <c r="E228" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G228">
         <v>186130</v>
@@ -6673,19 +6688,19 @@
         <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D229">
         <v>28</v>
       </c>
       <c r="E229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G229">
         <v>208000</v>
@@ -6699,19 +6714,19 @@
         <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D230">
         <v>29</v>
       </c>
       <c r="E230" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F230" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G230">
         <v>231520</v>
@@ -6725,19 +6740,19 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D231">
         <v>30</v>
       </c>
       <c r="E231" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F231" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G231">
         <v>256750</v>
@@ -6751,19 +6766,19 @@
         <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D232">
         <v>31</v>
       </c>
       <c r="E232" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F232" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G232">
         <v>283750</v>
@@ -6777,19 +6792,19 @@
         <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D233">
         <v>32</v>
       </c>
       <c r="E233" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F233" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G233">
         <v>312580</v>
@@ -6803,19 +6818,19 @@
         <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D234">
         <v>33</v>
       </c>
       <c r="E234" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F234" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G234">
         <v>343300</v>
@@ -6829,19 +6844,19 @@
         <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D235">
         <v>34</v>
       </c>
       <c r="E235" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F235" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G235">
         <v>375970</v>
@@ -6855,19 +6870,19 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D236">
         <v>35</v>
       </c>
       <c r="E236" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F236" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G236">
         <v>410650</v>
@@ -6881,19 +6896,19 @@
         <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D237">
         <v>36</v>
       </c>
       <c r="E237" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F237" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G237">
         <v>447400</v>
@@ -6907,19 +6922,19 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D238">
         <v>37</v>
       </c>
       <c r="E238" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F238" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G238">
         <v>486280</v>
@@ -6933,19 +6948,19 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D239">
         <v>38</v>
       </c>
       <c r="E239" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F239" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G239">
         <v>527350</v>
@@ -6959,19 +6974,19 @@
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D240">
         <v>39</v>
       </c>
       <c r="E240" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F240" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G240">
         <v>570670</v>
@@ -6985,19 +7000,19 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D241">
         <v>40</v>
       </c>
       <c r="E241" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F241" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G241">
         <v>616300</v>

--- a/other/配置表/l-轮回配置表.xlsx
+++ b/other/配置表/l-轮回配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大魔王\配置表1205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大魔王\ourgame\配置表1206\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -430,12 +430,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,15 +746,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C241"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G190" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -774,7 +777,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -800,7 +803,7 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>100</v>
       </c>
       <c r="H2">
@@ -826,7 +829,7 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>130</v>
       </c>
       <c r="H3">
@@ -852,7 +855,7 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>250</v>
       </c>
       <c r="H4">
@@ -878,7 +881,7 @@
       <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>520</v>
       </c>
       <c r="H5">
@@ -904,7 +907,7 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>1000</v>
       </c>
       <c r="H6">
@@ -930,7 +933,7 @@
       <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>1750</v>
       </c>
       <c r="H7">
@@ -956,7 +959,7 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>2830</v>
       </c>
       <c r="H8">
@@ -982,7 +985,7 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>4300</v>
       </c>
       <c r="H9">
@@ -1008,7 +1011,7 @@
       <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>6220</v>
       </c>
       <c r="H10">
@@ -1034,7 +1037,7 @@
       <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>8650</v>
       </c>
       <c r="H11">
@@ -1060,7 +1063,7 @@
       <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>11650</v>
       </c>
       <c r="H12">
@@ -1086,7 +1089,7 @@
       <c r="F13" t="s">
         <v>31</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>15280</v>
       </c>
       <c r="H13">
@@ -1112,7 +1115,7 @@
       <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>19600</v>
       </c>
       <c r="H14">
@@ -1138,7 +1141,7 @@
       <c r="F15" t="s">
         <v>33</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>24670</v>
       </c>
       <c r="H15">
@@ -1164,7 +1167,7 @@
       <c r="F16" t="s">
         <v>34</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>30550</v>
       </c>
       <c r="H16">
@@ -1190,7 +1193,7 @@
       <c r="F17" t="s">
         <v>35</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>37300</v>
       </c>
       <c r="H17">
@@ -1216,7 +1219,7 @@
       <c r="F18" t="s">
         <v>36</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>44980</v>
       </c>
       <c r="H18">
@@ -1242,7 +1245,7 @@
       <c r="F19" t="s">
         <v>37</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>53650</v>
       </c>
       <c r="H19">
@@ -1268,7 +1271,7 @@
       <c r="F20" t="s">
         <v>38</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>63370</v>
       </c>
       <c r="H20">
@@ -1294,7 +1297,7 @@
       <c r="F21" t="s">
         <v>39</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>74200</v>
       </c>
       <c r="H21">
@@ -1320,7 +1323,7 @@
       <c r="F22" t="s">
         <v>40</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>86200</v>
       </c>
       <c r="H22">
@@ -1346,7 +1349,7 @@
       <c r="F23" t="s">
         <v>41</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>99430</v>
       </c>
       <c r="H23">
@@ -1372,7 +1375,7 @@
       <c r="F24" t="s">
         <v>42</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>113950</v>
       </c>
       <c r="H24">
@@ -1398,7 +1401,7 @@
       <c r="F25" t="s">
         <v>43</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>129820</v>
       </c>
       <c r="H25">
@@ -1424,7 +1427,7 @@
       <c r="F26" t="s">
         <v>44</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>147100</v>
       </c>
       <c r="H26">
@@ -1450,7 +1453,7 @@
       <c r="F27" t="s">
         <v>45</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>165850</v>
       </c>
       <c r="H27">
@@ -1476,7 +1479,7 @@
       <c r="F28" t="s">
         <v>46</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>186130</v>
       </c>
       <c r="H28">
@@ -1502,7 +1505,7 @@
       <c r="F29" t="s">
         <v>47</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>208000</v>
       </c>
       <c r="H29">
@@ -1528,7 +1531,7 @@
       <c r="F30" t="s">
         <v>48</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>231520</v>
       </c>
       <c r="H30">
@@ -1554,7 +1557,7 @@
       <c r="F31" t="s">
         <v>49</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>256750</v>
       </c>
       <c r="H31">
@@ -1580,7 +1583,7 @@
       <c r="F32" t="s">
         <v>50</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>283750</v>
       </c>
       <c r="H32">
@@ -1606,7 +1609,7 @@
       <c r="F33" t="s">
         <v>51</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>312580</v>
       </c>
       <c r="H33">
@@ -1632,7 +1635,7 @@
       <c r="F34" t="s">
         <v>52</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>343300</v>
       </c>
       <c r="H34">
@@ -1658,7 +1661,7 @@
       <c r="F35" t="s">
         <v>53</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>375970</v>
       </c>
       <c r="H35">
@@ -1684,7 +1687,7 @@
       <c r="F36" t="s">
         <v>54</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>410650</v>
       </c>
       <c r="H36">
@@ -1710,7 +1713,7 @@
       <c r="F37" t="s">
         <v>55</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>447400</v>
       </c>
       <c r="H37">
@@ -1736,7 +1739,7 @@
       <c r="F38" t="s">
         <v>56</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>486280</v>
       </c>
       <c r="H38">
@@ -1762,7 +1765,7 @@
       <c r="F39" t="s">
         <v>57</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>527350</v>
       </c>
       <c r="H39">
@@ -1788,7 +1791,7 @@
       <c r="F40" t="s">
         <v>58</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>570670</v>
       </c>
       <c r="H40">
@@ -1814,7 +1817,7 @@
       <c r="F41" t="s">
         <v>59</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>616300</v>
       </c>
       <c r="H41">
@@ -1840,7 +1843,7 @@
       <c r="F42" t="s">
         <v>20</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>100</v>
       </c>
       <c r="H42">
@@ -1866,7 +1869,7 @@
       <c r="F43" t="s">
         <v>21</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>130</v>
       </c>
       <c r="H43">
@@ -1892,7 +1895,7 @@
       <c r="F44" t="s">
         <v>22</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>250</v>
       </c>
       <c r="H44">
@@ -1918,7 +1921,7 @@
       <c r="F45" t="s">
         <v>23</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>520</v>
       </c>
       <c r="H45">
@@ -1944,7 +1947,7 @@
       <c r="F46" t="s">
         <v>24</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>1000</v>
       </c>
       <c r="H46">
@@ -1970,7 +1973,7 @@
       <c r="F47" t="s">
         <v>25</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>1750</v>
       </c>
       <c r="H47">
@@ -1996,7 +1999,7 @@
       <c r="F48" t="s">
         <v>26</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>2830</v>
       </c>
       <c r="H48">
@@ -2022,7 +2025,7 @@
       <c r="F49" t="s">
         <v>27</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <v>4300</v>
       </c>
       <c r="H49">
@@ -2048,7 +2051,7 @@
       <c r="F50" t="s">
         <v>28</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>6220</v>
       </c>
       <c r="H50">
@@ -2074,7 +2077,7 @@
       <c r="F51" t="s">
         <v>29</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>8650</v>
       </c>
       <c r="H51">
@@ -2100,7 +2103,7 @@
       <c r="F52" t="s">
         <v>30</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>11650</v>
       </c>
       <c r="H52">
@@ -2126,7 +2129,7 @@
       <c r="F53" t="s">
         <v>31</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <v>15280</v>
       </c>
       <c r="H53">
@@ -2152,7 +2155,7 @@
       <c r="F54" t="s">
         <v>32</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <v>19600</v>
       </c>
       <c r="H54">
@@ -2178,7 +2181,7 @@
       <c r="F55" t="s">
         <v>33</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>24670</v>
       </c>
       <c r="H55">
@@ -2204,7 +2207,7 @@
       <c r="F56" t="s">
         <v>34</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="2">
         <v>30550</v>
       </c>
       <c r="H56">
@@ -2230,7 +2233,7 @@
       <c r="F57" t="s">
         <v>35</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <v>37300</v>
       </c>
       <c r="H57">
@@ -2256,7 +2259,7 @@
       <c r="F58" t="s">
         <v>36</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <v>44980</v>
       </c>
       <c r="H58">
@@ -2282,7 +2285,7 @@
       <c r="F59" t="s">
         <v>37</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <v>53650</v>
       </c>
       <c r="H59">
@@ -2308,7 +2311,7 @@
       <c r="F60" t="s">
         <v>38</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <v>63370</v>
       </c>
       <c r="H60">
@@ -2334,7 +2337,7 @@
       <c r="F61" t="s">
         <v>39</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>74200</v>
       </c>
       <c r="H61">
@@ -2360,7 +2363,7 @@
       <c r="F62" t="s">
         <v>40</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="2">
         <v>86200</v>
       </c>
       <c r="H62">
@@ -2386,7 +2389,7 @@
       <c r="F63" t="s">
         <v>41</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="2">
         <v>99430</v>
       </c>
       <c r="H63">
@@ -2412,7 +2415,7 @@
       <c r="F64" t="s">
         <v>42</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="2">
         <v>113950</v>
       </c>
       <c r="H64">
@@ -2438,7 +2441,7 @@
       <c r="F65" t="s">
         <v>43</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="2">
         <v>129820</v>
       </c>
       <c r="H65">
@@ -2464,7 +2467,7 @@
       <c r="F66" t="s">
         <v>44</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <v>147100</v>
       </c>
       <c r="H66">
@@ -2490,7 +2493,7 @@
       <c r="F67" t="s">
         <v>45</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="2">
         <v>165850</v>
       </c>
       <c r="H67">
@@ -2516,7 +2519,7 @@
       <c r="F68" t="s">
         <v>46</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="2">
         <v>186130</v>
       </c>
       <c r="H68">
@@ -2542,7 +2545,7 @@
       <c r="F69" t="s">
         <v>47</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="2">
         <v>208000</v>
       </c>
       <c r="H69">
@@ -2568,7 +2571,7 @@
       <c r="F70" t="s">
         <v>48</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="2">
         <v>231520</v>
       </c>
       <c r="H70">
@@ -2594,7 +2597,7 @@
       <c r="F71" t="s">
         <v>49</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="2">
         <v>256750</v>
       </c>
       <c r="H71">
@@ -2620,7 +2623,7 @@
       <c r="F72" t="s">
         <v>50</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="2">
         <v>283750</v>
       </c>
       <c r="H72">
@@ -2646,7 +2649,7 @@
       <c r="F73" t="s">
         <v>51</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="2">
         <v>312580</v>
       </c>
       <c r="H73">
@@ -2672,7 +2675,7 @@
       <c r="F74" t="s">
         <v>52</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="2">
         <v>343300</v>
       </c>
       <c r="H74">
@@ -2698,7 +2701,7 @@
       <c r="F75" t="s">
         <v>53</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="2">
         <v>375970</v>
       </c>
       <c r="H75">
@@ -2724,7 +2727,7 @@
       <c r="F76" t="s">
         <v>54</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="2">
         <v>410650</v>
       </c>
       <c r="H76">
@@ -2750,7 +2753,7 @@
       <c r="F77" t="s">
         <v>55</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="2">
         <v>447400</v>
       </c>
       <c r="H77">
@@ -2776,7 +2779,7 @@
       <c r="F78" t="s">
         <v>56</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="2">
         <v>486280</v>
       </c>
       <c r="H78">
@@ -2802,7 +2805,7 @@
       <c r="F79" t="s">
         <v>57</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="2">
         <v>527350</v>
       </c>
       <c r="H79">
@@ -2828,7 +2831,7 @@
       <c r="F80" t="s">
         <v>58</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="2">
         <v>570670</v>
       </c>
       <c r="H80">
@@ -2854,7 +2857,7 @@
       <c r="F81" t="s">
         <v>59</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="2">
         <v>616300</v>
       </c>
       <c r="H81">
@@ -2880,7 +2883,7 @@
       <c r="F82" t="s">
         <v>20</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="2">
         <v>100</v>
       </c>
       <c r="H82">
@@ -2906,7 +2909,7 @@
       <c r="F83" t="s">
         <v>21</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="2">
         <v>130</v>
       </c>
       <c r="H83">
@@ -2932,7 +2935,7 @@
       <c r="F84" t="s">
         <v>22</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="2">
         <v>250</v>
       </c>
       <c r="H84">
@@ -2958,7 +2961,7 @@
       <c r="F85" t="s">
         <v>23</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="2">
         <v>520</v>
       </c>
       <c r="H85">
@@ -2984,7 +2987,7 @@
       <c r="F86" t="s">
         <v>24</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="2">
         <v>1000</v>
       </c>
       <c r="H86">
@@ -3010,7 +3013,7 @@
       <c r="F87" t="s">
         <v>25</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="2">
         <v>1750</v>
       </c>
       <c r="H87">
@@ -3036,7 +3039,7 @@
       <c r="F88" t="s">
         <v>26</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="2">
         <v>2830</v>
       </c>
       <c r="H88">
@@ -3062,7 +3065,7 @@
       <c r="F89" t="s">
         <v>27</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="2">
         <v>4300</v>
       </c>
       <c r="H89">
@@ -3088,7 +3091,7 @@
       <c r="F90" t="s">
         <v>28</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="2">
         <v>6220</v>
       </c>
       <c r="H90">
@@ -3114,7 +3117,7 @@
       <c r="F91" t="s">
         <v>29</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="2">
         <v>8650</v>
       </c>
       <c r="H91">
@@ -3140,7 +3143,7 @@
       <c r="F92" t="s">
         <v>30</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="2">
         <v>11650</v>
       </c>
       <c r="H92">
@@ -3166,7 +3169,7 @@
       <c r="F93" t="s">
         <v>31</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="2">
         <v>15280</v>
       </c>
       <c r="H93">
@@ -3192,7 +3195,7 @@
       <c r="F94" t="s">
         <v>32</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="2">
         <v>19600</v>
       </c>
       <c r="H94">
@@ -3218,7 +3221,7 @@
       <c r="F95" t="s">
         <v>33</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="2">
         <v>24670</v>
       </c>
       <c r="H95">
@@ -3244,7 +3247,7 @@
       <c r="F96" t="s">
         <v>34</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="2">
         <v>30550</v>
       </c>
       <c r="H96">
@@ -3270,7 +3273,7 @@
       <c r="F97" t="s">
         <v>35</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="2">
         <v>37300</v>
       </c>
       <c r="H97">
@@ -3296,7 +3299,7 @@
       <c r="F98" t="s">
         <v>36</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="2">
         <v>44980</v>
       </c>
       <c r="H98">
@@ -3322,7 +3325,7 @@
       <c r="F99" t="s">
         <v>37</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="2">
         <v>53650</v>
       </c>
       <c r="H99">
@@ -3348,7 +3351,7 @@
       <c r="F100" t="s">
         <v>38</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="2">
         <v>63370</v>
       </c>
       <c r="H100">
@@ -3374,7 +3377,7 @@
       <c r="F101" t="s">
         <v>39</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="2">
         <v>74200</v>
       </c>
       <c r="H101">
@@ -3400,7 +3403,7 @@
       <c r="F102" t="s">
         <v>40</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="2">
         <v>86200</v>
       </c>
       <c r="H102">
@@ -3426,7 +3429,7 @@
       <c r="F103" t="s">
         <v>41</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="2">
         <v>99430</v>
       </c>
       <c r="H103">
@@ -3452,7 +3455,7 @@
       <c r="F104" t="s">
         <v>42</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="2">
         <v>113950</v>
       </c>
       <c r="H104">
@@ -3478,7 +3481,7 @@
       <c r="F105" t="s">
         <v>43</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="2">
         <v>129820</v>
       </c>
       <c r="H105">
@@ -3504,7 +3507,7 @@
       <c r="F106" t="s">
         <v>44</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="2">
         <v>147100</v>
       </c>
       <c r="H106">
@@ -3530,7 +3533,7 @@
       <c r="F107" t="s">
         <v>45</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="2">
         <v>165850</v>
       </c>
       <c r="H107">
@@ -3556,7 +3559,7 @@
       <c r="F108" t="s">
         <v>46</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="2">
         <v>186130</v>
       </c>
       <c r="H108">
@@ -3582,7 +3585,7 @@
       <c r="F109" t="s">
         <v>47</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="2">
         <v>208000</v>
       </c>
       <c r="H109">
@@ -3608,7 +3611,7 @@
       <c r="F110" t="s">
         <v>48</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="2">
         <v>231520</v>
       </c>
       <c r="H110">
@@ -3634,7 +3637,7 @@
       <c r="F111" t="s">
         <v>49</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="2">
         <v>256750</v>
       </c>
       <c r="H111">
@@ -3660,7 +3663,7 @@
       <c r="F112" t="s">
         <v>50</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="2">
         <v>283750</v>
       </c>
       <c r="H112">
@@ -3686,7 +3689,7 @@
       <c r="F113" t="s">
         <v>51</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="2">
         <v>312580</v>
       </c>
       <c r="H113">
@@ -3712,7 +3715,7 @@
       <c r="F114" t="s">
         <v>52</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="2">
         <v>343300</v>
       </c>
       <c r="H114">
@@ -3738,7 +3741,7 @@
       <c r="F115" t="s">
         <v>53</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="2">
         <v>375970</v>
       </c>
       <c r="H115">
@@ -3764,7 +3767,7 @@
       <c r="F116" t="s">
         <v>54</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="2">
         <v>410650</v>
       </c>
       <c r="H116">
@@ -3790,7 +3793,7 @@
       <c r="F117" t="s">
         <v>55</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="2">
         <v>447400</v>
       </c>
       <c r="H117">
@@ -3816,7 +3819,7 @@
       <c r="F118" t="s">
         <v>56</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="2">
         <v>486280</v>
       </c>
       <c r="H118">
@@ -3842,7 +3845,7 @@
       <c r="F119" t="s">
         <v>57</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="2">
         <v>527350</v>
       </c>
       <c r="H119">
@@ -3868,7 +3871,7 @@
       <c r="F120" t="s">
         <v>58</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="2">
         <v>570670</v>
       </c>
       <c r="H120">
@@ -3894,7 +3897,7 @@
       <c r="F121" t="s">
         <v>59</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="2">
         <v>616300</v>
       </c>
       <c r="H121">
@@ -3920,7 +3923,7 @@
       <c r="F122" t="s">
         <v>20</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="2">
         <v>100</v>
       </c>
       <c r="H122">
@@ -3946,7 +3949,7 @@
       <c r="F123" t="s">
         <v>21</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="2">
         <v>130</v>
       </c>
       <c r="H123">
@@ -3972,7 +3975,7 @@
       <c r="F124" t="s">
         <v>22</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="2">
         <v>250</v>
       </c>
       <c r="H124">
@@ -3998,7 +4001,7 @@
       <c r="F125" t="s">
         <v>23</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="2">
         <v>520</v>
       </c>
       <c r="H125">
@@ -4024,7 +4027,7 @@
       <c r="F126" t="s">
         <v>24</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="2">
         <v>1000</v>
       </c>
       <c r="H126">
@@ -4050,7 +4053,7 @@
       <c r="F127" t="s">
         <v>25</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="2">
         <v>1750</v>
       </c>
       <c r="H127">
@@ -4076,7 +4079,7 @@
       <c r="F128" t="s">
         <v>26</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="2">
         <v>2830</v>
       </c>
       <c r="H128">
@@ -4102,7 +4105,7 @@
       <c r="F129" t="s">
         <v>27</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="2">
         <v>4300</v>
       </c>
       <c r="H129">
@@ -4128,7 +4131,7 @@
       <c r="F130" t="s">
         <v>28</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="2">
         <v>6220</v>
       </c>
       <c r="H130">
@@ -4154,7 +4157,7 @@
       <c r="F131" t="s">
         <v>29</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="2">
         <v>8650</v>
       </c>
       <c r="H131">
@@ -4180,7 +4183,7 @@
       <c r="F132" t="s">
         <v>30</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="2">
         <v>11650</v>
       </c>
       <c r="H132">
@@ -4206,7 +4209,7 @@
       <c r="F133" t="s">
         <v>31</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="2">
         <v>15280</v>
       </c>
       <c r="H133">
@@ -4232,7 +4235,7 @@
       <c r="F134" t="s">
         <v>32</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="2">
         <v>19600</v>
       </c>
       <c r="H134">
@@ -4258,7 +4261,7 @@
       <c r="F135" t="s">
         <v>33</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="2">
         <v>24670</v>
       </c>
       <c r="H135">
@@ -4284,7 +4287,7 @@
       <c r="F136" t="s">
         <v>34</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="2">
         <v>30550</v>
       </c>
       <c r="H136">
@@ -4310,7 +4313,7 @@
       <c r="F137" t="s">
         <v>35</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="2">
         <v>37300</v>
       </c>
       <c r="H137">
@@ -4336,7 +4339,7 @@
       <c r="F138" t="s">
         <v>36</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="2">
         <v>44980</v>
       </c>
       <c r="H138">
@@ -4362,7 +4365,7 @@
       <c r="F139" t="s">
         <v>37</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="2">
         <v>53650</v>
       </c>
       <c r="H139">
@@ -4388,7 +4391,7 @@
       <c r="F140" t="s">
         <v>38</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="2">
         <v>63370</v>
       </c>
       <c r="H140">
@@ -4414,7 +4417,7 @@
       <c r="F141" t="s">
         <v>39</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="2">
         <v>74200</v>
       </c>
       <c r="H141">
@@ -4440,7 +4443,7 @@
       <c r="F142" t="s">
         <v>40</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="2">
         <v>86200</v>
       </c>
       <c r="H142">
@@ -4466,7 +4469,7 @@
       <c r="F143" t="s">
         <v>41</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="2">
         <v>99430</v>
       </c>
       <c r="H143">
@@ -4492,7 +4495,7 @@
       <c r="F144" t="s">
         <v>42</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="2">
         <v>113950</v>
       </c>
       <c r="H144">
@@ -4518,7 +4521,7 @@
       <c r="F145" t="s">
         <v>43</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="2">
         <v>129820</v>
       </c>
       <c r="H145">
@@ -4544,7 +4547,7 @@
       <c r="F146" t="s">
         <v>44</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="2">
         <v>147100</v>
       </c>
       <c r="H146">
@@ -4570,7 +4573,7 @@
       <c r="F147" t="s">
         <v>45</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="2">
         <v>165850</v>
       </c>
       <c r="H147">
@@ -4596,7 +4599,7 @@
       <c r="F148" t="s">
         <v>46</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="2">
         <v>186130</v>
       </c>
       <c r="H148">
@@ -4622,7 +4625,7 @@
       <c r="F149" t="s">
         <v>47</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="2">
         <v>208000</v>
       </c>
       <c r="H149">
@@ -4648,7 +4651,7 @@
       <c r="F150" t="s">
         <v>48</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="2">
         <v>231520</v>
       </c>
       <c r="H150">
@@ -4674,7 +4677,7 @@
       <c r="F151" t="s">
         <v>49</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="2">
         <v>256750</v>
       </c>
       <c r="H151">
@@ -4700,7 +4703,7 @@
       <c r="F152" t="s">
         <v>50</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="2">
         <v>283750</v>
       </c>
       <c r="H152">
@@ -4726,7 +4729,7 @@
       <c r="F153" t="s">
         <v>51</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="2">
         <v>312580</v>
       </c>
       <c r="H153">
@@ -4752,7 +4755,7 @@
       <c r="F154" t="s">
         <v>52</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="2">
         <v>343300</v>
       </c>
       <c r="H154">
@@ -4778,7 +4781,7 @@
       <c r="F155" t="s">
         <v>53</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="2">
         <v>375970</v>
       </c>
       <c r="H155">
@@ -4804,7 +4807,7 @@
       <c r="F156" t="s">
         <v>54</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="2">
         <v>410650</v>
       </c>
       <c r="H156">
@@ -4830,7 +4833,7 @@
       <c r="F157" t="s">
         <v>55</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="2">
         <v>447400</v>
       </c>
       <c r="H157">
@@ -4856,7 +4859,7 @@
       <c r="F158" t="s">
         <v>56</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="2">
         <v>486280</v>
       </c>
       <c r="H158">
@@ -4882,7 +4885,7 @@
       <c r="F159" t="s">
         <v>57</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="2">
         <v>527350</v>
       </c>
       <c r="H159">
@@ -4908,7 +4911,7 @@
       <c r="F160" t="s">
         <v>58</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="2">
         <v>570670</v>
       </c>
       <c r="H160">
@@ -4934,7 +4937,7 @@
       <c r="F161" t="s">
         <v>59</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="2">
         <v>616300</v>
       </c>
       <c r="H161">
@@ -4960,7 +4963,7 @@
       <c r="F162" t="s">
         <v>20</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="2">
         <v>100</v>
       </c>
       <c r="H162">
@@ -4986,7 +4989,7 @@
       <c r="F163" t="s">
         <v>21</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="2">
         <v>130</v>
       </c>
       <c r="H163">
@@ -5012,7 +5015,7 @@
       <c r="F164" t="s">
         <v>22</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="2">
         <v>250</v>
       </c>
       <c r="H164">
@@ -5038,7 +5041,7 @@
       <c r="F165" t="s">
         <v>23</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="2">
         <v>520</v>
       </c>
       <c r="H165">
@@ -5064,7 +5067,7 @@
       <c r="F166" t="s">
         <v>24</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="2">
         <v>1000</v>
       </c>
       <c r="H166">
@@ -5090,7 +5093,7 @@
       <c r="F167" t="s">
         <v>25</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="2">
         <v>1750</v>
       </c>
       <c r="H167">
@@ -5116,7 +5119,7 @@
       <c r="F168" t="s">
         <v>26</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="2">
         <v>2830</v>
       </c>
       <c r="H168">
@@ -5142,7 +5145,7 @@
       <c r="F169" t="s">
         <v>27</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="2">
         <v>4300</v>
       </c>
       <c r="H169">
@@ -5168,7 +5171,7 @@
       <c r="F170" t="s">
         <v>28</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="2">
         <v>6220</v>
       </c>
       <c r="H170">
@@ -5194,7 +5197,7 @@
       <c r="F171" t="s">
         <v>29</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="2">
         <v>8650</v>
       </c>
       <c r="H171">
@@ -5220,7 +5223,7 @@
       <c r="F172" t="s">
         <v>30</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="2">
         <v>11650</v>
       </c>
       <c r="H172">
@@ -5246,7 +5249,7 @@
       <c r="F173" t="s">
         <v>31</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="2">
         <v>15280</v>
       </c>
       <c r="H173">
@@ -5272,7 +5275,7 @@
       <c r="F174" t="s">
         <v>32</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="2">
         <v>19600</v>
       </c>
       <c r="H174">
@@ -5298,7 +5301,7 @@
       <c r="F175" t="s">
         <v>33</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="2">
         <v>24670</v>
       </c>
       <c r="H175">
@@ -5324,7 +5327,7 @@
       <c r="F176" t="s">
         <v>34</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="2">
         <v>30550</v>
       </c>
       <c r="H176">
@@ -5350,7 +5353,7 @@
       <c r="F177" t="s">
         <v>35</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="2">
         <v>37300</v>
       </c>
       <c r="H177">
@@ -5376,7 +5379,7 @@
       <c r="F178" t="s">
         <v>36</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="2">
         <v>44980</v>
       </c>
       <c r="H178">
@@ -5402,7 +5405,7 @@
       <c r="F179" t="s">
         <v>37</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="2">
         <v>53650</v>
       </c>
       <c r="H179">
@@ -5428,7 +5431,7 @@
       <c r="F180" t="s">
         <v>38</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="2">
         <v>63370</v>
       </c>
       <c r="H180">
@@ -5454,7 +5457,7 @@
       <c r="F181" t="s">
         <v>39</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="2">
         <v>74200</v>
       </c>
       <c r="H181">
@@ -5480,7 +5483,7 @@
       <c r="F182" t="s">
         <v>40</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="2">
         <v>86200</v>
       </c>
       <c r="H182">
@@ -5506,7 +5509,7 @@
       <c r="F183" t="s">
         <v>41</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="2">
         <v>99430</v>
       </c>
       <c r="H183">
@@ -5532,7 +5535,7 @@
       <c r="F184" t="s">
         <v>42</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="2">
         <v>113950</v>
       </c>
       <c r="H184">
@@ -5558,7 +5561,7 @@
       <c r="F185" t="s">
         <v>43</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="2">
         <v>129820</v>
       </c>
       <c r="H185">
@@ -5584,7 +5587,7 @@
       <c r="F186" t="s">
         <v>44</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="2">
         <v>147100</v>
       </c>
       <c r="H186">
@@ -5610,7 +5613,7 @@
       <c r="F187" t="s">
         <v>45</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="2">
         <v>165850</v>
       </c>
       <c r="H187">
@@ -5636,7 +5639,7 @@
       <c r="F188" t="s">
         <v>46</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="2">
         <v>186130</v>
       </c>
       <c r="H188">
@@ -5662,7 +5665,7 @@
       <c r="F189" t="s">
         <v>47</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="2">
         <v>208000</v>
       </c>
       <c r="H189">
@@ -5688,7 +5691,7 @@
       <c r="F190" t="s">
         <v>48</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="2">
         <v>231520</v>
       </c>
       <c r="H190">
@@ -5714,7 +5717,7 @@
       <c r="F191" t="s">
         <v>49</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="2">
         <v>256750</v>
       </c>
       <c r="H191">
@@ -5740,7 +5743,7 @@
       <c r="F192" t="s">
         <v>50</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="2">
         <v>283750</v>
       </c>
       <c r="H192">
@@ -5766,7 +5769,7 @@
       <c r="F193" t="s">
         <v>51</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="2">
         <v>312580</v>
       </c>
       <c r="H193">
@@ -5792,7 +5795,7 @@
       <c r="F194" t="s">
         <v>52</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="2">
         <v>343300</v>
       </c>
       <c r="H194">
@@ -5818,7 +5821,7 @@
       <c r="F195" t="s">
         <v>53</v>
       </c>
-      <c r="G195">
+      <c r="G195" s="2">
         <v>375970</v>
       </c>
       <c r="H195">
@@ -5844,7 +5847,7 @@
       <c r="F196" t="s">
         <v>54</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="2">
         <v>410650</v>
       </c>
       <c r="H196">
@@ -5870,7 +5873,7 @@
       <c r="F197" t="s">
         <v>55</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="2">
         <v>447400</v>
       </c>
       <c r="H197">
@@ -5896,7 +5899,7 @@
       <c r="F198" t="s">
         <v>56</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="2">
         <v>486280</v>
       </c>
       <c r="H198">
@@ -5922,7 +5925,7 @@
       <c r="F199" t="s">
         <v>57</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="2">
         <v>527350</v>
       </c>
       <c r="H199">
@@ -5948,7 +5951,7 @@
       <c r="F200" t="s">
         <v>58</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="2">
         <v>570670</v>
       </c>
       <c r="H200">
@@ -5974,7 +5977,7 @@
       <c r="F201" t="s">
         <v>59</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="2">
         <v>616300</v>
       </c>
       <c r="H201">
@@ -6000,7 +6003,7 @@
       <c r="F202" t="s">
         <v>20</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="2">
         <v>100</v>
       </c>
       <c r="H202">
@@ -6026,7 +6029,7 @@
       <c r="F203" t="s">
         <v>21</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="2">
         <v>130</v>
       </c>
       <c r="H203">
@@ -6052,7 +6055,7 @@
       <c r="F204" t="s">
         <v>22</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="2">
         <v>250</v>
       </c>
       <c r="H204">
@@ -6078,7 +6081,7 @@
       <c r="F205" t="s">
         <v>23</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="2">
         <v>520</v>
       </c>
       <c r="H205">
@@ -6104,7 +6107,7 @@
       <c r="F206" t="s">
         <v>24</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="2">
         <v>1000</v>
       </c>
       <c r="H206">
@@ -6130,7 +6133,7 @@
       <c r="F207" t="s">
         <v>25</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="2">
         <v>1750</v>
       </c>
       <c r="H207">
@@ -6156,7 +6159,7 @@
       <c r="F208" t="s">
         <v>26</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="2">
         <v>2830</v>
       </c>
       <c r="H208">
@@ -6182,7 +6185,7 @@
       <c r="F209" t="s">
         <v>27</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="2">
         <v>4300</v>
       </c>
       <c r="H209">
@@ -6208,7 +6211,7 @@
       <c r="F210" t="s">
         <v>28</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="2">
         <v>6220</v>
       </c>
       <c r="H210">
@@ -6234,7 +6237,7 @@
       <c r="F211" t="s">
         <v>29</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="2">
         <v>8650</v>
       </c>
       <c r="H211">
@@ -6260,7 +6263,7 @@
       <c r="F212" t="s">
         <v>30</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="2">
         <v>11650</v>
       </c>
       <c r="H212">
@@ -6286,7 +6289,7 @@
       <c r="F213" t="s">
         <v>31</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="2">
         <v>15280</v>
       </c>
       <c r="H213">
@@ -6312,7 +6315,7 @@
       <c r="F214" t="s">
         <v>32</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="2">
         <v>19600</v>
       </c>
       <c r="H214">
@@ -6338,7 +6341,7 @@
       <c r="F215" t="s">
         <v>33</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="2">
         <v>24670</v>
       </c>
       <c r="H215">
@@ -6364,7 +6367,7 @@
       <c r="F216" t="s">
         <v>34</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="2">
         <v>30550</v>
       </c>
       <c r="H216">
@@ -6390,7 +6393,7 @@
       <c r="F217" t="s">
         <v>35</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="2">
         <v>37300</v>
       </c>
       <c r="H217">
@@ -6416,7 +6419,7 @@
       <c r="F218" t="s">
         <v>36</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="2">
         <v>44980</v>
       </c>
       <c r="H218">
@@ -6442,7 +6445,7 @@
       <c r="F219" t="s">
         <v>37</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="2">
         <v>53650</v>
       </c>
       <c r="H219">
@@ -6468,7 +6471,7 @@
       <c r="F220" t="s">
         <v>38</v>
       </c>
-      <c r="G220">
+      <c r="G220" s="2">
         <v>63370</v>
       </c>
       <c r="H220">
@@ -6494,7 +6497,7 @@
       <c r="F221" t="s">
         <v>39</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="2">
         <v>74200</v>
       </c>
       <c r="H221">
@@ -6520,7 +6523,7 @@
       <c r="F222" t="s">
         <v>40</v>
       </c>
-      <c r="G222">
+      <c r="G222" s="2">
         <v>86200</v>
       </c>
       <c r="H222">
@@ -6546,7 +6549,7 @@
       <c r="F223" t="s">
         <v>41</v>
       </c>
-      <c r="G223">
+      <c r="G223" s="2">
         <v>99430</v>
       </c>
       <c r="H223">
@@ -6572,7 +6575,7 @@
       <c r="F224" t="s">
         <v>42</v>
       </c>
-      <c r="G224">
+      <c r="G224" s="2">
         <v>113950</v>
       </c>
       <c r="H224">
@@ -6598,7 +6601,7 @@
       <c r="F225" t="s">
         <v>43</v>
       </c>
-      <c r="G225">
+      <c r="G225" s="2">
         <v>129820</v>
       </c>
       <c r="H225">
@@ -6624,7 +6627,7 @@
       <c r="F226" t="s">
         <v>44</v>
       </c>
-      <c r="G226">
+      <c r="G226" s="2">
         <v>147100</v>
       </c>
       <c r="H226">
@@ -6650,7 +6653,7 @@
       <c r="F227" t="s">
         <v>45</v>
       </c>
-      <c r="G227">
+      <c r="G227" s="2">
         <v>165850</v>
       </c>
       <c r="H227">
@@ -6676,7 +6679,7 @@
       <c r="F228" t="s">
         <v>46</v>
       </c>
-      <c r="G228">
+      <c r="G228" s="2">
         <v>186130</v>
       </c>
       <c r="H228">
@@ -6702,7 +6705,7 @@
       <c r="F229" t="s">
         <v>47</v>
       </c>
-      <c r="G229">
+      <c r="G229" s="2">
         <v>208000</v>
       </c>
       <c r="H229">
@@ -6728,7 +6731,7 @@
       <c r="F230" t="s">
         <v>48</v>
       </c>
-      <c r="G230">
+      <c r="G230" s="2">
         <v>231520</v>
       </c>
       <c r="H230">
@@ -6754,7 +6757,7 @@
       <c r="F231" t="s">
         <v>49</v>
       </c>
-      <c r="G231">
+      <c r="G231" s="2">
         <v>256750</v>
       </c>
       <c r="H231">
@@ -6780,7 +6783,7 @@
       <c r="F232" t="s">
         <v>50</v>
       </c>
-      <c r="G232">
+      <c r="G232" s="2">
         <v>283750</v>
       </c>
       <c r="H232">
@@ -6806,7 +6809,7 @@
       <c r="F233" t="s">
         <v>51</v>
       </c>
-      <c r="G233">
+      <c r="G233" s="2">
         <v>312580</v>
       </c>
       <c r="H233">
@@ -6832,7 +6835,7 @@
       <c r="F234" t="s">
         <v>52</v>
       </c>
-      <c r="G234">
+      <c r="G234" s="2">
         <v>343300</v>
       </c>
       <c r="H234">
@@ -6858,7 +6861,7 @@
       <c r="F235" t="s">
         <v>53</v>
       </c>
-      <c r="G235">
+      <c r="G235" s="2">
         <v>375970</v>
       </c>
       <c r="H235">
@@ -6884,7 +6887,7 @@
       <c r="F236" t="s">
         <v>54</v>
       </c>
-      <c r="G236">
+      <c r="G236" s="2">
         <v>410650</v>
       </c>
       <c r="H236">
@@ -6910,7 +6913,7 @@
       <c r="F237" t="s">
         <v>55</v>
       </c>
-      <c r="G237">
+      <c r="G237" s="2">
         <v>447400</v>
       </c>
       <c r="H237">
@@ -6936,7 +6939,7 @@
       <c r="F238" t="s">
         <v>56</v>
       </c>
-      <c r="G238">
+      <c r="G238" s="2">
         <v>486280</v>
       </c>
       <c r="H238">
@@ -6962,7 +6965,7 @@
       <c r="F239" t="s">
         <v>57</v>
       </c>
-      <c r="G239">
+      <c r="G239" s="2">
         <v>527350</v>
       </c>
       <c r="H239">
@@ -6988,7 +6991,7 @@
       <c r="F240" t="s">
         <v>58</v>
       </c>
-      <c r="G240">
+      <c r="G240" s="2">
         <v>570670</v>
       </c>
       <c r="H240">
@@ -7014,7 +7017,7 @@
       <c r="F241" t="s">
         <v>59</v>
       </c>
-      <c r="G241">
+      <c r="G241" s="2">
         <v>616300</v>
       </c>
       <c r="H241">
